--- a/2-PROJ/15-Carte_Mere/HW-SW_interface_CM-2020.xlsx
+++ b/2-PROJ/15-Carte_Mere/HW-SW_interface_CM-2020.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\DOC\Audran\GIT\ELEC\2-PROJ\11-Carte_GR_2017_v2\logique\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\DOC\Audran\GIT\ELEC\2-PROJ\15-Carte_Mere\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E17A61B-17CB-444B-B3F9-E6355187E50C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1815A61F-A4B4-4446-BF19-A79B077888F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Interface_HW" sheetId="1" r:id="rId1"/>
-    <sheet name="pin_CI" sheetId="2" r:id="rId2"/>
+    <sheet name="Interface_HW_2020" sheetId="3" r:id="rId1"/>
+    <sheet name="Interface_HW_2019" sheetId="1" r:id="rId2"/>
+    <sheet name="pin_CI_2019" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="665">
   <si>
     <t>Type</t>
   </si>
@@ -1585,13 +1586,518 @@
   </si>
   <si>
     <t>erreur: ce pin n'est utilisable qu'en entré</t>
+  </si>
+  <si>
+    <t>Pin nucleo</t>
+  </si>
+  <si>
+    <t>Pin FPGA</t>
+  </si>
+  <si>
+    <t>Alim Auxiliaire</t>
+  </si>
+  <si>
+    <t>5L_EXT_1</t>
+  </si>
+  <si>
+    <t>5L_EXT_2</t>
+  </si>
+  <si>
+    <t>5L_EXT_3</t>
+  </si>
+  <si>
+    <t>5L_EXT_4</t>
+  </si>
+  <si>
+    <t>EXT_IO_1</t>
+  </si>
+  <si>
+    <t>EXT_IO_2</t>
+  </si>
+  <si>
+    <t>EXT_IO_3</t>
+  </si>
+  <si>
+    <t>EXT_IO_4</t>
+  </si>
+  <si>
+    <t>Description/Note</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>SPI1_SCK</t>
+  </si>
+  <si>
+    <t>SPI1_MISO</t>
+  </si>
+  <si>
+    <t>SPI1_MOSI</t>
+  </si>
+  <si>
+    <t>PA5</t>
+  </si>
+  <si>
+    <t>PA6</t>
+  </si>
+  <si>
+    <t>PA7</t>
+  </si>
+  <si>
+    <t>FT232_Tx</t>
+  </si>
+  <si>
+    <t>FT232_Rx</t>
+  </si>
+  <si>
+    <t>STM_Tx</t>
+  </si>
+  <si>
+    <t>STM_Rx</t>
+  </si>
+  <si>
+    <t>FPGA_Tx</t>
+  </si>
+  <si>
+    <t>FPGA_Rx</t>
+  </si>
+  <si>
+    <t>UART_FPGA</t>
+  </si>
+  <si>
+    <t>SPI2_SCK</t>
+  </si>
+  <si>
+    <t>SPI2_MISO</t>
+  </si>
+  <si>
+    <t>SPI2_MOSI</t>
+  </si>
+  <si>
+    <t>SPI2_CS_1</t>
+  </si>
+  <si>
+    <t>IRQ_FPGA_STM</t>
+  </si>
+  <si>
+    <t>PB15</t>
+  </si>
+  <si>
+    <t>PB14</t>
+  </si>
+  <si>
+    <t>PB13</t>
+  </si>
+  <si>
+    <t>R16</t>
+  </si>
+  <si>
+    <t>M10</t>
+  </si>
+  <si>
+    <t>J16</t>
+  </si>
+  <si>
+    <t>J13</t>
+  </si>
+  <si>
+    <t>SPI3_SCK</t>
+  </si>
+  <si>
+    <t>SPI3_MISO</t>
+  </si>
+  <si>
+    <t>SPI3_MOSI</t>
+  </si>
+  <si>
+    <t>SPI3_CS_1</t>
+  </si>
+  <si>
+    <t>J14</t>
+  </si>
+  <si>
+    <t>L13</t>
+  </si>
+  <si>
+    <t>K15</t>
+  </si>
+  <si>
+    <t>L14</t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>CAN_Tx</t>
+  </si>
+  <si>
+    <t>CAN_Rx</t>
+  </si>
+  <si>
+    <t>I2C1_SCL</t>
+  </si>
+  <si>
+    <t>I2C1_SDA</t>
+  </si>
+  <si>
+    <t>ToF_DS_1</t>
+  </si>
+  <si>
+    <t>ToF_DS_2</t>
+  </si>
+  <si>
+    <t>ToF_DS_3</t>
+  </si>
+  <si>
+    <t>ToF_DS_4</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>I2C2_SCL</t>
+  </si>
+  <si>
+    <t>I2C2_SDA</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>Servo+mesure courant</t>
+  </si>
+  <si>
+    <t>Servo_1</t>
+  </si>
+  <si>
+    <t>Servo_2</t>
+  </si>
+  <si>
+    <t>Servo_3</t>
+  </si>
+  <si>
+    <t>Servo_4</t>
+  </si>
+  <si>
+    <t>Servo_5</t>
+  </si>
+  <si>
+    <t>Sense_Servo_1</t>
+  </si>
+  <si>
+    <t>Sense_Servo_2</t>
+  </si>
+  <si>
+    <t>Sense_Servo_3</t>
+  </si>
+  <si>
+    <t>Sense_Servo_4</t>
+  </si>
+  <si>
+    <t>ADC</t>
+  </si>
+  <si>
+    <t>Servo_6</t>
+  </si>
+  <si>
+    <t>Servo_7</t>
+  </si>
+  <si>
+    <t>Servo_8</t>
+  </si>
+  <si>
+    <t>Servo_9</t>
+  </si>
+  <si>
+    <t>Servo_10</t>
+  </si>
+  <si>
+    <t>Servo_11</t>
+  </si>
+  <si>
+    <t>Servo_12</t>
+  </si>
+  <si>
+    <t>Servo</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>B16</t>
+  </si>
+  <si>
+    <t>C14</t>
+  </si>
+  <si>
+    <t>C16</t>
+  </si>
+  <si>
+    <t>C15</t>
+  </si>
+  <si>
+    <t>N9</t>
+  </si>
+  <si>
+    <t>N12</t>
+  </si>
+  <si>
+    <t>P9</t>
+  </si>
+  <si>
+    <t>P11</t>
+  </si>
+  <si>
+    <t>connecté?</t>
+  </si>
+  <si>
+    <t>Dynamixel</t>
+  </si>
+  <si>
+    <t>DYNA_TX</t>
+  </si>
+  <si>
+    <t>DYNA_RX</t>
+  </si>
+  <si>
+    <t>DYNA_DIR</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>UART_STM 
+(UART5)</t>
+  </si>
+  <si>
+    <t>USB_FT232
+(UART4)</t>
+  </si>
+  <si>
+    <t>Odrive</t>
+  </si>
+  <si>
+    <t>Odrive_Rx</t>
+  </si>
+  <si>
+    <t>Odrive_Tx</t>
+  </si>
+  <si>
+    <t>PB11</t>
+  </si>
+  <si>
+    <t>PB10</t>
+  </si>
+  <si>
+    <t>Control Propulsion</t>
+  </si>
+  <si>
+    <t>PROP_EN</t>
+  </si>
+  <si>
+    <t>PROP_PWM1</t>
+  </si>
+  <si>
+    <t>PROP_PWM2</t>
+  </si>
+  <si>
+    <t>PROP_DIR1</t>
+  </si>
+  <si>
+    <t>PROP_DIR2</t>
+  </si>
+  <si>
+    <t>SPI Nucleo-FPGA
+(SPI1)</t>
+  </si>
+  <si>
+    <t>SPI Gyro
+(SPI2)</t>
+  </si>
+  <si>
+    <t>SPI Auxiliaire
+(SPI3)</t>
+  </si>
+  <si>
+    <t>IC2 Capteur ToF
+(I2C1)</t>
+  </si>
+  <si>
+    <t>IC2 Auxiliaire
+(I2C2)</t>
+  </si>
+  <si>
+    <t>I2C</t>
+  </si>
+  <si>
+    <t>I/O</t>
+  </si>
+  <si>
+    <t>O/I</t>
+  </si>
+  <si>
+    <t>Interrupt FPGA-&gt;STM</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>P15</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>N16</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>Encodeur Odometrie</t>
+  </si>
+  <si>
+    <t>QEI_P1_A</t>
+  </si>
+  <si>
+    <t>QEI_P1_B</t>
+  </si>
+  <si>
+    <t>QEI_P2_A</t>
+  </si>
+  <si>
+    <t>QEI_P2_B</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>P14</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>Control Moteur</t>
+  </si>
+  <si>
+    <t>MOT1_PWM</t>
+  </si>
+  <si>
+    <t>MOT1_DIR</t>
+  </si>
+  <si>
+    <t>MOT2_PWM</t>
+  </si>
+  <si>
+    <t>MOT2_DIR</t>
+  </si>
+  <si>
+    <t>MOT1_CS</t>
+  </si>
+  <si>
+    <t>MOT2_CS</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>QEI_M1_A</t>
+  </si>
+  <si>
+    <t>QEI_M1_B</t>
+  </si>
+  <si>
+    <t>QEI_M2_A</t>
+  </si>
+  <si>
+    <t>QEI_M2_B</t>
+  </si>
+  <si>
+    <t>Encodeur Moteur</t>
+  </si>
+  <si>
+    <t>Encodeur SSI</t>
+  </si>
+  <si>
+    <t>SSI_M1_CLK1</t>
+  </si>
+  <si>
+    <t>SSI_M1_DAT1</t>
+  </si>
+  <si>
+    <t>SSI_M1_CLK2</t>
+  </si>
+  <si>
+    <t>SSI_M1_DAT2</t>
+  </si>
+  <si>
+    <t>SSI_M2_CLK1</t>
+  </si>
+  <si>
+    <t>SSI_M2_DAT1</t>
+  </si>
+  <si>
+    <t>SSI_M2_CLK2</t>
+  </si>
+  <si>
+    <t>SSI_M2_DAT2</t>
+  </si>
+  <si>
+    <t>ADC_IN_1</t>
+  </si>
+  <si>
+    <t>ADC_IN_2</t>
+  </si>
+  <si>
+    <t>ADC_IN_3</t>
+  </si>
+  <si>
+    <t>ADC_IN_4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1606,8 +2112,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1643,8 +2170,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1784,12 +2341,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1821,26 +2391,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1872,38 +2478,71 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2185,11 +2824,2881 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{368042C2-3540-4847-B564-756E4B0B8E4D}">
+  <dimension ref="A1:M202"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="B187" sqref="B187"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="19" style="12" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="3.85546875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="12"/>
+    <col min="6" max="6" width="17.5703125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="12" style="12" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" style="12" customWidth="1"/>
+    <col min="10" max="10" width="63.5703125" style="12" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="14"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>499</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="12">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="39"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="12">
+        <v>2</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="39"/>
+      <c r="B4" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="12">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="39"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="12">
+        <v>2</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="39"/>
+      <c r="B6" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="12">
+        <v>1</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+    </row>
+    <row r="7" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="39"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="12">
+        <v>2</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+    </row>
+    <row r="8" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="39"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="12">
+        <v>3</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>506</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="48" t="s">
+        <v>294</v>
+      </c>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+    </row>
+    <row r="9" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="39"/>
+      <c r="B9" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="12">
+        <v>4</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="L9" s="44"/>
+    </row>
+    <row r="10" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="39"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="12">
+        <v>5</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+    </row>
+    <row r="11" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="39"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="12">
+        <v>6</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+    </row>
+    <row r="12" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="39"/>
+      <c r="B12" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="12">
+        <v>7</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+    </row>
+    <row r="13" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="39"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="12">
+        <v>8</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+    </row>
+    <row r="14" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="39"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="12">
+        <v>9</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+    </row>
+    <row r="15" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="39"/>
+      <c r="B15" s="27" t="s">
+        <v>501</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="12">
+        <v>10</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+    </row>
+    <row r="16" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="39"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="12">
+        <v>11</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+    </row>
+    <row r="17" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="39"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="12">
+        <v>12</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+    </row>
+    <row r="18" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
+        <v>494</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>621</v>
+      </c>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="12" t="s">
+        <v>529</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>619</v>
+      </c>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="12"/>
+    </row>
+    <row r="19" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="19"/>
+      <c r="B19" s="24" t="s">
+        <v>613</v>
+      </c>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>620</v>
+      </c>
+      <c r="H19" s="46" t="s">
+        <v>515</v>
+      </c>
+      <c r="I19" s="46" t="s">
+        <v>227</v>
+      </c>
+      <c r="J19" s="12"/>
+    </row>
+    <row r="20" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>619</v>
+      </c>
+      <c r="H20" s="46" t="s">
+        <v>516</v>
+      </c>
+      <c r="I20" s="46" t="s">
+        <v>226</v>
+      </c>
+      <c r="J20" s="12"/>
+    </row>
+    <row r="21" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>620</v>
+      </c>
+      <c r="H21" s="46" t="s">
+        <v>517</v>
+      </c>
+      <c r="I21" s="46" t="s">
+        <v>225</v>
+      </c>
+      <c r="J21" s="12"/>
+    </row>
+    <row r="22" spans="1:10" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
+      <c r="B22" s="24" t="s">
+        <v>614</v>
+      </c>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>620</v>
+      </c>
+      <c r="H22" s="46" t="s">
+        <v>532</v>
+      </c>
+      <c r="I22" s="47" t="s">
+        <v>536</v>
+      </c>
+      <c r="J22" s="12"/>
+    </row>
+    <row r="23" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="19"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>599</v>
+      </c>
+      <c r="H23" s="46" t="s">
+        <v>531</v>
+      </c>
+      <c r="I23" s="47" t="s">
+        <v>535</v>
+      </c>
+      <c r="J23" s="12"/>
+    </row>
+    <row r="24" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="19"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="H24" s="46" t="s">
+        <v>530</v>
+      </c>
+      <c r="I24" s="47" t="s">
+        <v>534</v>
+      </c>
+      <c r="J24" s="12"/>
+    </row>
+    <row r="25" spans="1:10" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="19"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="H25" s="46" t="s">
+        <v>368</v>
+      </c>
+      <c r="I25" s="47" t="s">
+        <v>533</v>
+      </c>
+      <c r="J25" s="12"/>
+    </row>
+    <row r="26" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="19"/>
+      <c r="B26" s="24" t="s">
+        <v>615</v>
+      </c>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="H26" s="12"/>
+      <c r="I26" s="46" t="s">
+        <v>541</v>
+      </c>
+      <c r="J26" s="12"/>
+    </row>
+    <row r="27" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="19"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>599</v>
+      </c>
+      <c r="H27" s="12"/>
+      <c r="I27" s="46" t="s">
+        <v>542</v>
+      </c>
+      <c r="J27" s="12"/>
+    </row>
+    <row r="28" spans="1:10" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="19"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12" t="s">
+        <v>539</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="H28" s="12"/>
+      <c r="I28" s="46" t="s">
+        <v>543</v>
+      </c>
+      <c r="J28" s="12"/>
+    </row>
+    <row r="29" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="H29" s="12"/>
+      <c r="I29" s="46" t="s">
+        <v>544</v>
+      </c>
+      <c r="J29" s="12"/>
+    </row>
+    <row r="30" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="19"/>
+      <c r="B30" s="24" t="s">
+        <v>616</v>
+      </c>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="G30" s="27" t="s">
+        <v>618</v>
+      </c>
+      <c r="H30" s="46" t="s">
+        <v>350</v>
+      </c>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+    </row>
+    <row r="31" spans="1:10" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="19"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="G31" s="26"/>
+      <c r="H31" s="46" t="s">
+        <v>349</v>
+      </c>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+    </row>
+    <row r="32" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="19"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="G32" s="27" t="s">
+        <v>554</v>
+      </c>
+      <c r="H32" s="45"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+    </row>
+    <row r="33" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="19"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="G33" s="25"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+    </row>
+    <row r="34" spans="1:10" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="19"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12" t="s">
+        <v>552</v>
+      </c>
+      <c r="G34" s="25"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+    </row>
+    <row r="35" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="19"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12" t="s">
+        <v>553</v>
+      </c>
+      <c r="G35" s="26"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+    </row>
+    <row r="36" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="19"/>
+      <c r="B36" s="24" t="s">
+        <v>617</v>
+      </c>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12" t="s">
+        <v>555</v>
+      </c>
+      <c r="G36" s="27" t="s">
+        <v>618</v>
+      </c>
+      <c r="H36" s="12"/>
+      <c r="I36" s="46" t="s">
+        <v>557</v>
+      </c>
+      <c r="J36" s="12"/>
+    </row>
+    <row r="37" spans="1:10" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="19"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="G37" s="26"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="46" t="s">
+        <v>558</v>
+      </c>
+      <c r="J37" s="12"/>
+    </row>
+    <row r="38" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="19"/>
+      <c r="B38" s="24" t="s">
+        <v>601</v>
+      </c>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>599</v>
+      </c>
+      <c r="H38" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="I38" s="47" t="s">
+        <v>559</v>
+      </c>
+      <c r="J38" s="12"/>
+    </row>
+    <row r="39" spans="1:10" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="19"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="H39" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="I39" s="47" t="s">
+        <v>560</v>
+      </c>
+      <c r="J39" s="12"/>
+    </row>
+    <row r="40" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="19"/>
+      <c r="B40" s="24" t="s">
+        <v>600</v>
+      </c>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="H40" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="I40" s="46"/>
+      <c r="J40" s="12"/>
+    </row>
+    <row r="41" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="19"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>599</v>
+      </c>
+      <c r="H41" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+    </row>
+    <row r="42" spans="1:10" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="19"/>
+      <c r="B42" s="27" t="s">
+        <v>524</v>
+      </c>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="H42" s="46"/>
+      <c r="I42" s="46" t="s">
+        <v>562</v>
+      </c>
+      <c r="J42" s="12"/>
+    </row>
+    <row r="43" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="19"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>599</v>
+      </c>
+      <c r="H43" s="12"/>
+      <c r="I43" s="46" t="s">
+        <v>561</v>
+      </c>
+      <c r="J43" s="12"/>
+    </row>
+    <row r="44" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="19"/>
+      <c r="B44" s="27" t="s">
+        <v>545</v>
+      </c>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12" t="s">
+        <v>546</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="H44" s="46" t="s">
+        <v>366</v>
+      </c>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+    </row>
+    <row r="45" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="19"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>599</v>
+      </c>
+      <c r="H45" s="46" t="s">
+        <v>367</v>
+      </c>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+    </row>
+    <row r="46" spans="1:10" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="60" t="s">
+        <v>495</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>563</v>
+      </c>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="G46" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H46" s="52" t="s">
+        <v>594</v>
+      </c>
+      <c r="I46" s="46" t="s">
+        <v>582</v>
+      </c>
+      <c r="J46" s="12"/>
+    </row>
+    <row r="47" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="61"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12" t="s">
+        <v>565</v>
+      </c>
+      <c r="G47" s="25"/>
+      <c r="H47" s="53"/>
+      <c r="I47" s="46" t="s">
+        <v>583</v>
+      </c>
+      <c r="J47" s="12"/>
+    </row>
+    <row r="48" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="61"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12" t="s">
+        <v>566</v>
+      </c>
+      <c r="G48" s="25"/>
+      <c r="H48" s="53"/>
+      <c r="I48" s="46" t="s">
+        <v>584</v>
+      </c>
+      <c r="J48" s="12"/>
+    </row>
+    <row r="49" spans="1:10" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="61"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="G49" s="26"/>
+      <c r="H49" s="53"/>
+      <c r="I49" s="46" t="s">
+        <v>585</v>
+      </c>
+      <c r="J49" s="12"/>
+    </row>
+    <row r="50" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="61"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12" t="s">
+        <v>569</v>
+      </c>
+      <c r="G50" s="49" t="s">
+        <v>573</v>
+      </c>
+      <c r="H50" s="53"/>
+      <c r="I50" s="45"/>
+      <c r="J50" s="12"/>
+    </row>
+    <row r="51" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="61"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="G51" s="50"/>
+      <c r="H51" s="53"/>
+      <c r="I51" s="45"/>
+      <c r="J51" s="12"/>
+    </row>
+    <row r="52" spans="1:10" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="61"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12" t="s">
+        <v>571</v>
+      </c>
+      <c r="G52" s="50"/>
+      <c r="H52" s="53"/>
+      <c r="I52" s="45"/>
+      <c r="J52" s="12"/>
+    </row>
+    <row r="53" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="61"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="G53" s="51"/>
+      <c r="H53" s="54"/>
+      <c r="I53" s="45"/>
+      <c r="J53" s="12"/>
+    </row>
+    <row r="54" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="61"/>
+      <c r="B54" s="27" t="s">
+        <v>581</v>
+      </c>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="G54" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H54" s="12"/>
+      <c r="I54" s="46" t="s">
+        <v>586</v>
+      </c>
+      <c r="J54" s="12"/>
+    </row>
+    <row r="55" spans="1:10" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="61"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="G55" s="25"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="46" t="s">
+        <v>587</v>
+      </c>
+      <c r="J55" s="12"/>
+    </row>
+    <row r="56" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="61"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="42"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="G56" s="25"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="46" t="s">
+        <v>588</v>
+      </c>
+      <c r="J56" s="12"/>
+    </row>
+    <row r="57" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="61"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="42"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12" t="s">
+        <v>576</v>
+      </c>
+      <c r="G57" s="25"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="46" t="s">
+        <v>589</v>
+      </c>
+      <c r="J57" s="12"/>
+    </row>
+    <row r="58" spans="1:10" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="61"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12" t="s">
+        <v>577</v>
+      </c>
+      <c r="G58" s="25"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="46" t="s">
+        <v>590</v>
+      </c>
+      <c r="J58" s="12"/>
+    </row>
+    <row r="59" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="61"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12" t="s">
+        <v>578</v>
+      </c>
+      <c r="G59" s="25"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="46" t="s">
+        <v>591</v>
+      </c>
+      <c r="J59" s="12"/>
+    </row>
+    <row r="60" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="61"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12" t="s">
+        <v>579</v>
+      </c>
+      <c r="G60" s="25"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="46" t="s">
+        <v>592</v>
+      </c>
+      <c r="J60" s="12"/>
+    </row>
+    <row r="61" spans="1:10" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="61"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12" t="s">
+        <v>580</v>
+      </c>
+      <c r="G61" s="26"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="46" t="s">
+        <v>593</v>
+      </c>
+      <c r="J61" s="12"/>
+    </row>
+    <row r="62" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="61"/>
+      <c r="B62" s="27" t="s">
+        <v>595</v>
+      </c>
+      <c r="C62" s="42"/>
+      <c r="D62" s="42"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="H62" s="46" t="s">
+        <v>375</v>
+      </c>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+    </row>
+    <row r="63" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="61"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12" t="s">
+        <v>597</v>
+      </c>
+      <c r="G63" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="H63" s="46" t="s">
+        <v>362</v>
+      </c>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+    </row>
+    <row r="64" spans="1:10" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="61"/>
+      <c r="B64" s="26"/>
+      <c r="C64" s="42"/>
+      <c r="D64" s="42"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="G64" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="H64" s="46" t="s">
+        <v>365</v>
+      </c>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+    </row>
+    <row r="65" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="61"/>
+      <c r="B65" s="27" t="s">
+        <v>602</v>
+      </c>
+      <c r="C65" s="42"/>
+      <c r="D65" s="42"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="H65" s="46" t="s">
+        <v>605</v>
+      </c>
+      <c r="I65" s="12"/>
+      <c r="J65" s="12"/>
+    </row>
+    <row r="66" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="61"/>
+      <c r="B66" s="26"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12" t="s">
+        <v>603</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="H66" s="46" t="s">
+        <v>606</v>
+      </c>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+    </row>
+    <row r="67" spans="1:10" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="61"/>
+      <c r="B67" s="24" t="s">
+        <v>607</v>
+      </c>
+      <c r="C67" s="42"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12" t="s">
+        <v>608</v>
+      </c>
+      <c r="G67" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="H67" s="46" t="s">
+        <v>295</v>
+      </c>
+      <c r="I67" s="47" t="s">
+        <v>622</v>
+      </c>
+      <c r="J67" s="12"/>
+    </row>
+    <row r="68" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="61"/>
+      <c r="B68" s="28"/>
+      <c r="C68" s="42"/>
+      <c r="D68" s="42"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="G68" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="H68" s="46" t="s">
+        <v>355</v>
+      </c>
+      <c r="I68" s="47" t="s">
+        <v>623</v>
+      </c>
+      <c r="J68" s="12"/>
+    </row>
+    <row r="69" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="61"/>
+      <c r="B69" s="28"/>
+      <c r="C69" s="42"/>
+      <c r="D69" s="42"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12" t="s">
+        <v>610</v>
+      </c>
+      <c r="G69" s="51"/>
+      <c r="H69" s="46" t="s">
+        <v>307</v>
+      </c>
+      <c r="I69" s="47" t="s">
+        <v>624</v>
+      </c>
+      <c r="J69" s="12"/>
+    </row>
+    <row r="70" spans="1:10" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="61"/>
+      <c r="B70" s="28"/>
+      <c r="C70" s="42"/>
+      <c r="D70" s="42"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="G70" s="27" t="s">
+        <v>554</v>
+      </c>
+      <c r="H70" s="46" t="s">
+        <v>370</v>
+      </c>
+      <c r="I70" s="47" t="s">
+        <v>625</v>
+      </c>
+      <c r="J70" s="12"/>
+    </row>
+    <row r="71" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="61"/>
+      <c r="B71" s="29"/>
+      <c r="C71" s="42"/>
+      <c r="D71" s="42"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="G71" s="26"/>
+      <c r="H71" s="46" t="s">
+        <v>306</v>
+      </c>
+      <c r="I71" s="47" t="s">
+        <v>626</v>
+      </c>
+      <c r="J71" s="12"/>
+    </row>
+    <row r="72" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="61"/>
+      <c r="B72" s="27" t="s">
+        <v>627</v>
+      </c>
+      <c r="C72" s="42"/>
+      <c r="D72" s="42"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="G72" s="27" t="s">
+        <v>599</v>
+      </c>
+      <c r="H72" s="46" t="s">
+        <v>356</v>
+      </c>
+      <c r="I72" s="47" t="s">
+        <v>632</v>
+      </c>
+      <c r="J72" s="12"/>
+    </row>
+    <row r="73" spans="1:10" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="61"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="42"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="G73" s="25"/>
+      <c r="H73" s="46" t="s">
+        <v>357</v>
+      </c>
+      <c r="I73" s="47" t="s">
+        <v>633</v>
+      </c>
+      <c r="J73" s="12"/>
+    </row>
+    <row r="74" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="61"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="42"/>
+      <c r="D74" s="42"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="G74" s="25"/>
+      <c r="H74" s="46" t="s">
+        <v>354</v>
+      </c>
+      <c r="I74" s="47" t="s">
+        <v>634</v>
+      </c>
+      <c r="J74" s="12"/>
+    </row>
+    <row r="75" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="61"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="42"/>
+      <c r="D75" s="42"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="G75" s="26"/>
+      <c r="H75" s="46" t="s">
+        <v>292</v>
+      </c>
+      <c r="I75" s="47" t="s">
+        <v>635</v>
+      </c>
+      <c r="J75" s="12"/>
+    </row>
+    <row r="76" spans="1:10" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="61"/>
+      <c r="B76" s="24" t="s">
+        <v>636</v>
+      </c>
+      <c r="C76" s="42"/>
+      <c r="D76" s="42"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12" t="s">
+        <v>637</v>
+      </c>
+      <c r="G76" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H76" s="12"/>
+      <c r="I76" s="46" t="s">
+        <v>643</v>
+      </c>
+      <c r="J76" s="12"/>
+    </row>
+    <row r="77" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="61"/>
+      <c r="B77" s="28"/>
+      <c r="C77" s="42"/>
+      <c r="D77" s="42"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="H77" s="12"/>
+      <c r="I77" s="46" t="s">
+        <v>644</v>
+      </c>
+      <c r="J77" s="12"/>
+    </row>
+    <row r="78" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="61"/>
+      <c r="B78" s="28"/>
+      <c r="C78" s="42"/>
+      <c r="D78" s="42"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12" t="s">
+        <v>639</v>
+      </c>
+      <c r="G78" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H78" s="12"/>
+      <c r="I78" s="46" t="s">
+        <v>646</v>
+      </c>
+      <c r="J78" s="12"/>
+    </row>
+    <row r="79" spans="1:10" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="61"/>
+      <c r="B79" s="28"/>
+      <c r="C79" s="42"/>
+      <c r="D79" s="42"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12" t="s">
+        <v>640</v>
+      </c>
+      <c r="G79" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="H79" s="12"/>
+      <c r="I79" s="46" t="s">
+        <v>645</v>
+      </c>
+      <c r="J79" s="12"/>
+    </row>
+    <row r="80" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="61"/>
+      <c r="B80" s="28"/>
+      <c r="C80" s="42"/>
+      <c r="D80" s="42"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="G80" s="49" t="s">
+        <v>573</v>
+      </c>
+      <c r="H80" s="12"/>
+      <c r="I80" s="55"/>
+      <c r="J80" s="12"/>
+    </row>
+    <row r="81" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="61"/>
+      <c r="B81" s="29"/>
+      <c r="C81" s="42"/>
+      <c r="D81" s="42"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12" t="s">
+        <v>642</v>
+      </c>
+      <c r="G81" s="51"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="55"/>
+      <c r="J81" s="12"/>
+    </row>
+    <row r="82" spans="1:10" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="61"/>
+      <c r="B82" s="24" t="s">
+        <v>651</v>
+      </c>
+      <c r="C82" s="43"/>
+      <c r="D82" s="42"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="G82" s="49" t="s">
+        <v>599</v>
+      </c>
+      <c r="H82" s="12"/>
+      <c r="I82" s="45"/>
+      <c r="J82" s="12"/>
+    </row>
+    <row r="83" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="61"/>
+      <c r="B83" s="28"/>
+      <c r="C83" s="42"/>
+      <c r="D83" s="42"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="G83" s="50"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="45"/>
+      <c r="J83" s="12"/>
+    </row>
+    <row r="84" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="61"/>
+      <c r="B84" s="28"/>
+      <c r="C84" s="42"/>
+      <c r="D84" s="42"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12" t="s">
+        <v>649</v>
+      </c>
+      <c r="G84" s="50"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="45"/>
+      <c r="J84" s="12"/>
+    </row>
+    <row r="85" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="61"/>
+      <c r="B85" s="29"/>
+      <c r="C85" s="42"/>
+      <c r="D85" s="42"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12" t="s">
+        <v>650</v>
+      </c>
+      <c r="G85" s="51"/>
+      <c r="H85" s="12"/>
+      <c r="I85" s="45"/>
+      <c r="J85" s="12"/>
+    </row>
+    <row r="86" spans="1:10" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="61"/>
+      <c r="B86" s="24" t="s">
+        <v>652</v>
+      </c>
+      <c r="C86" s="43"/>
+      <c r="D86" s="42"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="H86" s="12"/>
+      <c r="I86" s="45"/>
+      <c r="J86" s="12"/>
+    </row>
+    <row r="87" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="61"/>
+      <c r="B87" s="28"/>
+      <c r="C87" s="42"/>
+      <c r="D87" s="42"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="H87" s="12"/>
+      <c r="I87" s="45"/>
+      <c r="J87" s="12"/>
+    </row>
+    <row r="88" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="61"/>
+      <c r="B88" s="28"/>
+      <c r="C88" s="42"/>
+      <c r="D88" s="42"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12" t="s">
+        <v>655</v>
+      </c>
+      <c r="G88" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="H88" s="12"/>
+      <c r="I88" s="45"/>
+      <c r="J88" s="12"/>
+    </row>
+    <row r="89" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="61"/>
+      <c r="B89" s="28"/>
+      <c r="C89" s="42"/>
+      <c r="D89" s="42"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12" t="s">
+        <v>656</v>
+      </c>
+      <c r="G89" s="12" t="s">
+        <v>599</v>
+      </c>
+      <c r="H89" s="12"/>
+      <c r="I89" s="45"/>
+      <c r="J89" s="12"/>
+    </row>
+    <row r="90" spans="1:10" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="61"/>
+      <c r="B90" s="28"/>
+      <c r="C90" s="43"/>
+      <c r="D90" s="42"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="H90" s="12"/>
+      <c r="I90" s="45"/>
+      <c r="J90" s="12"/>
+    </row>
+    <row r="91" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="61"/>
+      <c r="B91" s="28"/>
+      <c r="C91" s="42"/>
+      <c r="D91" s="42"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="H91" s="12"/>
+      <c r="I91" s="45"/>
+      <c r="J91" s="12"/>
+    </row>
+    <row r="92" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="61"/>
+      <c r="B92" s="28"/>
+      <c r="C92" s="42"/>
+      <c r="D92" s="42"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="12" t="s">
+        <v>659</v>
+      </c>
+      <c r="G92" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="H92" s="12"/>
+      <c r="I92" s="45"/>
+      <c r="J92" s="12"/>
+    </row>
+    <row r="93" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="61"/>
+      <c r="B93" s="29"/>
+      <c r="C93" s="42"/>
+      <c r="D93" s="42"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12" t="s">
+        <v>660</v>
+      </c>
+      <c r="G93" s="12" t="s">
+        <v>599</v>
+      </c>
+      <c r="H93" s="12"/>
+      <c r="I93" s="45"/>
+      <c r="J93" s="12"/>
+    </row>
+    <row r="94" spans="1:10" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="21" t="s">
+        <v>496</v>
+      </c>
+      <c r="B94" s="43"/>
+      <c r="C94" s="43"/>
+      <c r="D94" s="42"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="12"/>
+      <c r="I94" s="12"/>
+      <c r="J94" s="12"/>
+    </row>
+    <row r="95" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="22"/>
+      <c r="B95" s="42" t="s">
+        <v>661</v>
+      </c>
+      <c r="C95" s="42"/>
+      <c r="D95" s="42"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="12"/>
+      <c r="I95" s="12"/>
+      <c r="J95" s="12"/>
+    </row>
+    <row r="96" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="22"/>
+      <c r="B96" s="42" t="s">
+        <v>662</v>
+      </c>
+      <c r="C96" s="42"/>
+      <c r="D96" s="42"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="12"/>
+      <c r="I96" s="12"/>
+      <c r="J96" s="12"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="22"/>
+      <c r="B97" s="42" t="s">
+        <v>663</v>
+      </c>
+      <c r="C97" s="42"/>
+      <c r="D97" s="42"/>
+    </row>
+    <row r="98" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="22"/>
+      <c r="B98" s="42" t="s">
+        <v>664</v>
+      </c>
+      <c r="C98" s="43"/>
+      <c r="D98" s="42"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="22"/>
+      <c r="B99" s="42"/>
+      <c r="C99" s="42"/>
+      <c r="D99" s="42"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="22"/>
+      <c r="B100" s="42"/>
+      <c r="C100" s="42"/>
+      <c r="D100" s="42"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="22"/>
+      <c r="B101" s="42"/>
+      <c r="C101" s="42"/>
+      <c r="D101" s="42"/>
+    </row>
+    <row r="102" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="22"/>
+      <c r="B102" s="43"/>
+      <c r="C102" s="43"/>
+      <c r="D102" s="42"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="22"/>
+      <c r="B103" s="42"/>
+      <c r="C103" s="42"/>
+      <c r="D103" s="42"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="22"/>
+      <c r="B104" s="42"/>
+      <c r="C104" s="42"/>
+      <c r="D104" s="42"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="22"/>
+      <c r="B105" s="42"/>
+      <c r="C105" s="42"/>
+      <c r="D105" s="42"/>
+    </row>
+    <row r="106" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="22"/>
+      <c r="B106" s="43"/>
+      <c r="C106" s="43"/>
+      <c r="D106" s="42"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="22"/>
+      <c r="B107" s="42"/>
+      <c r="C107" s="42"/>
+      <c r="D107" s="42"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="22"/>
+      <c r="B108" s="42"/>
+      <c r="C108" s="42"/>
+      <c r="D108" s="42"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="22"/>
+      <c r="B109" s="42"/>
+      <c r="C109" s="42"/>
+      <c r="D109" s="42"/>
+    </row>
+    <row r="110" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="22"/>
+      <c r="B110" s="43"/>
+      <c r="C110" s="43"/>
+      <c r="D110" s="42"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="22"/>
+      <c r="B111" s="42"/>
+      <c r="C111" s="42"/>
+      <c r="D111" s="42"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="22"/>
+      <c r="B112" s="42"/>
+      <c r="C112" s="42"/>
+      <c r="D112" s="42"/>
+    </row>
+    <row r="113" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="22"/>
+      <c r="B113" s="42"/>
+      <c r="C113" s="42"/>
+      <c r="D113" s="42"/>
+      <c r="E113" s="12"/>
+      <c r="F113" s="12"/>
+      <c r="G113" s="12"/>
+      <c r="H113" s="12"/>
+      <c r="I113" s="12"/>
+      <c r="J113" s="12"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+    </row>
+    <row r="114" spans="1:13" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="22"/>
+      <c r="B114" s="43"/>
+      <c r="C114" s="43"/>
+      <c r="D114" s="42"/>
+      <c r="E114" s="12"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
+      <c r="H114" s="12"/>
+      <c r="I114" s="12"/>
+      <c r="J114" s="12"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+    </row>
+    <row r="115" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="22"/>
+      <c r="B115" s="42"/>
+      <c r="C115" s="42"/>
+      <c r="D115" s="42"/>
+      <c r="E115" s="12"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
+      <c r="H115" s="12"/>
+      <c r="I115" s="12"/>
+      <c r="J115" s="12"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+    </row>
+    <row r="116" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="22"/>
+      <c r="B116" s="42"/>
+      <c r="C116" s="42"/>
+      <c r="D116" s="42"/>
+      <c r="E116" s="12"/>
+      <c r="F116" s="12"/>
+      <c r="G116" s="12"/>
+      <c r="H116" s="12"/>
+      <c r="I116" s="12"/>
+      <c r="J116" s="12"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+    </row>
+    <row r="117" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="22"/>
+      <c r="B117" s="42"/>
+      <c r="C117" s="42"/>
+      <c r="D117" s="42"/>
+      <c r="E117" s="12"/>
+      <c r="F117" s="12"/>
+      <c r="G117" s="12"/>
+      <c r="H117" s="12"/>
+      <c r="I117" s="12"/>
+      <c r="J117" s="12"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="1"/>
+    </row>
+    <row r="118" spans="1:13" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="22"/>
+      <c r="B118" s="43"/>
+      <c r="C118" s="43"/>
+      <c r="D118" s="42"/>
+      <c r="E118" s="12"/>
+      <c r="F118" s="4"/>
+      <c r="G118" s="4"/>
+      <c r="H118" s="12"/>
+      <c r="I118" s="12"/>
+      <c r="J118" s="12"/>
+      <c r="L118" s="1"/>
+      <c r="M118" s="1"/>
+    </row>
+    <row r="119" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="22"/>
+      <c r="B119" s="42"/>
+      <c r="C119" s="42"/>
+      <c r="D119" s="42"/>
+      <c r="E119" s="12"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="4"/>
+      <c r="H119" s="12"/>
+      <c r="I119" s="12"/>
+      <c r="J119" s="12"/>
+      <c r="L119" s="1"/>
+      <c r="M119" s="1"/>
+    </row>
+    <row r="120" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="22"/>
+      <c r="B120" s="42"/>
+      <c r="C120" s="42"/>
+      <c r="D120" s="42"/>
+      <c r="E120" s="12"/>
+      <c r="F120" s="12"/>
+      <c r="G120" s="12"/>
+      <c r="H120" s="12"/>
+      <c r="I120" s="12"/>
+      <c r="J120" s="12"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="1"/>
+    </row>
+    <row r="121" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="22"/>
+      <c r="B121" s="42"/>
+      <c r="C121" s="42"/>
+      <c r="D121" s="42"/>
+      <c r="E121" s="12"/>
+      <c r="F121" s="12"/>
+      <c r="G121" s="12"/>
+      <c r="H121" s="12"/>
+      <c r="I121" s="12"/>
+      <c r="J121" s="12"/>
+      <c r="L121" s="1"/>
+      <c r="M121" s="1"/>
+    </row>
+    <row r="122" spans="1:13" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="22"/>
+      <c r="B122" s="43"/>
+      <c r="C122" s="43"/>
+      <c r="D122" s="42"/>
+      <c r="E122" s="12"/>
+      <c r="F122" s="4"/>
+      <c r="G122" s="4"/>
+      <c r="H122" s="12"/>
+      <c r="I122" s="12"/>
+      <c r="J122" s="12"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+    </row>
+    <row r="123" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="22"/>
+      <c r="B123" s="42"/>
+      <c r="C123" s="42"/>
+      <c r="D123" s="42"/>
+      <c r="E123" s="12"/>
+      <c r="F123" s="4"/>
+      <c r="G123" s="4"/>
+      <c r="H123" s="12"/>
+      <c r="I123" s="12"/>
+      <c r="J123" s="12"/>
+      <c r="L123" s="1"/>
+      <c r="M123" s="1"/>
+    </row>
+    <row r="124" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="22"/>
+      <c r="B124" s="42"/>
+      <c r="C124" s="42"/>
+      <c r="D124" s="42"/>
+      <c r="E124" s="12"/>
+      <c r="F124" s="12"/>
+      <c r="G124" s="12"/>
+      <c r="H124" s="12"/>
+      <c r="I124" s="12"/>
+      <c r="J124" s="12"/>
+      <c r="L124" s="1"/>
+      <c r="M124" s="1"/>
+    </row>
+    <row r="125" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="22"/>
+      <c r="B125" s="42"/>
+      <c r="C125" s="42"/>
+      <c r="D125" s="42"/>
+      <c r="E125" s="12"/>
+      <c r="F125" s="12"/>
+      <c r="G125" s="12"/>
+      <c r="H125" s="12"/>
+      <c r="I125" s="12"/>
+      <c r="J125" s="12"/>
+      <c r="L125" s="1"/>
+      <c r="M125" s="1"/>
+    </row>
+    <row r="126" spans="1:13" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="22"/>
+      <c r="B126" s="43"/>
+      <c r="C126" s="43"/>
+      <c r="D126" s="42"/>
+      <c r="E126" s="12"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="4"/>
+      <c r="H126" s="12"/>
+      <c r="I126" s="12"/>
+      <c r="J126" s="12"/>
+      <c r="L126" s="1"/>
+      <c r="M126" s="1"/>
+    </row>
+    <row r="127" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="22"/>
+      <c r="B127" s="42"/>
+      <c r="C127" s="42"/>
+      <c r="D127" s="42"/>
+      <c r="E127" s="12"/>
+      <c r="F127" s="4"/>
+      <c r="G127" s="4"/>
+      <c r="H127" s="12"/>
+      <c r="I127" s="12"/>
+      <c r="J127" s="12"/>
+      <c r="L127" s="1"/>
+      <c r="M127" s="1"/>
+    </row>
+    <row r="128" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="22"/>
+      <c r="B128" s="42"/>
+      <c r="C128" s="42"/>
+      <c r="D128" s="42"/>
+      <c r="E128" s="12"/>
+      <c r="F128" s="12"/>
+      <c r="G128" s="12"/>
+      <c r="H128" s="12"/>
+      <c r="I128" s="12"/>
+      <c r="J128" s="12"/>
+      <c r="L128" s="1"/>
+      <c r="M128" s="1"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="22"/>
+      <c r="B129" s="42"/>
+      <c r="C129" s="42"/>
+      <c r="D129" s="42"/>
+    </row>
+    <row r="130" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="22"/>
+      <c r="B130" s="43"/>
+      <c r="C130" s="43"/>
+      <c r="D130" s="42"/>
+      <c r="F130" s="4"/>
+      <c r="G130" s="4"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="22"/>
+      <c r="B131" s="42"/>
+      <c r="C131" s="42"/>
+      <c r="D131" s="42"/>
+      <c r="F131" s="4"/>
+      <c r="G131" s="4"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="22"/>
+      <c r="B132" s="42"/>
+      <c r="C132" s="42"/>
+      <c r="D132" s="42"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="22"/>
+      <c r="B133" s="42"/>
+      <c r="C133" s="42"/>
+      <c r="D133" s="42"/>
+    </row>
+    <row r="134" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="22"/>
+      <c r="B134" s="43"/>
+      <c r="C134" s="43"/>
+      <c r="D134" s="42"/>
+      <c r="F134" s="4"/>
+      <c r="G134" s="4"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="22"/>
+      <c r="B135" s="42"/>
+      <c r="C135" s="42"/>
+      <c r="D135" s="42"/>
+      <c r="F135" s="4"/>
+      <c r="G135" s="4"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="22"/>
+      <c r="B136" s="42"/>
+      <c r="C136" s="42"/>
+      <c r="D136" s="42"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="22"/>
+      <c r="B137" s="42"/>
+      <c r="C137" s="42"/>
+      <c r="D137" s="42"/>
+    </row>
+    <row r="138" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="22"/>
+      <c r="B138" s="43"/>
+      <c r="C138" s="43"/>
+      <c r="D138" s="42"/>
+      <c r="F138" s="4"/>
+      <c r="G138" s="4"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="22"/>
+      <c r="B139" s="42"/>
+      <c r="C139" s="42"/>
+      <c r="D139" s="42"/>
+      <c r="F139" s="4"/>
+      <c r="G139" s="4"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="22"/>
+      <c r="B140" s="42"/>
+      <c r="C140" s="42"/>
+      <c r="D140" s="42"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="22"/>
+      <c r="B141" s="42"/>
+      <c r="C141" s="42"/>
+      <c r="D141" s="42"/>
+    </row>
+    <row r="142" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="22"/>
+      <c r="B142" s="43"/>
+      <c r="C142" s="43"/>
+      <c r="D142" s="42"/>
+      <c r="F142" s="4"/>
+      <c r="G142" s="4"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="22"/>
+      <c r="B143" s="42"/>
+      <c r="C143" s="42"/>
+      <c r="D143" s="42"/>
+      <c r="F143" s="4"/>
+      <c r="G143" s="4"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="22"/>
+      <c r="B144" s="42"/>
+      <c r="C144" s="42"/>
+      <c r="D144" s="42"/>
+    </row>
+    <row r="145" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="22"/>
+      <c r="B145" s="42"/>
+      <c r="C145" s="42"/>
+      <c r="D145" s="42"/>
+      <c r="E145" s="12"/>
+      <c r="F145" s="12"/>
+      <c r="G145" s="12"/>
+      <c r="H145" s="12"/>
+      <c r="I145" s="12"/>
+      <c r="J145" s="12"/>
+      <c r="L145" s="1"/>
+      <c r="M145" s="1"/>
+    </row>
+    <row r="146" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="22"/>
+      <c r="B146" s="42"/>
+      <c r="C146" s="43"/>
+      <c r="D146" s="42"/>
+      <c r="E146" s="12"/>
+      <c r="F146" s="4"/>
+      <c r="G146" s="4"/>
+      <c r="H146" s="12"/>
+      <c r="I146" s="12"/>
+      <c r="J146" s="12"/>
+      <c r="L146" s="1"/>
+      <c r="M146" s="1"/>
+    </row>
+    <row r="147" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="22"/>
+      <c r="B147" s="42"/>
+      <c r="C147" s="43"/>
+      <c r="D147" s="42"/>
+      <c r="E147" s="12"/>
+      <c r="F147" s="4"/>
+      <c r="G147" s="4"/>
+      <c r="H147" s="12"/>
+      <c r="I147" s="12"/>
+      <c r="J147" s="12"/>
+      <c r="L147" s="1"/>
+      <c r="M147" s="1"/>
+    </row>
+    <row r="148" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="22"/>
+      <c r="B148" s="42"/>
+      <c r="C148" s="43"/>
+      <c r="D148" s="42"/>
+      <c r="E148" s="12"/>
+      <c r="F148" s="12"/>
+      <c r="G148" s="12"/>
+      <c r="H148" s="12"/>
+      <c r="I148" s="12"/>
+      <c r="J148" s="12"/>
+      <c r="L148" s="1"/>
+      <c r="M148" s="1"/>
+    </row>
+    <row r="149" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="22"/>
+      <c r="B149" s="42"/>
+      <c r="C149" s="43"/>
+      <c r="D149" s="42"/>
+      <c r="E149" s="12"/>
+      <c r="F149" s="12"/>
+      <c r="G149" s="12"/>
+      <c r="H149" s="12"/>
+      <c r="I149" s="12"/>
+      <c r="J149" s="12"/>
+      <c r="L149" s="1"/>
+      <c r="M149" s="1"/>
+    </row>
+    <row r="150" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="22"/>
+      <c r="B150" s="42"/>
+      <c r="C150" s="43"/>
+      <c r="D150" s="42"/>
+      <c r="E150" s="12"/>
+      <c r="F150" s="12"/>
+      <c r="G150" s="12"/>
+      <c r="H150" s="12"/>
+      <c r="I150" s="12"/>
+      <c r="J150" s="12"/>
+      <c r="L150" s="1"/>
+      <c r="M150" s="1"/>
+    </row>
+    <row r="151" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="22"/>
+      <c r="B151" s="42"/>
+      <c r="C151" s="43"/>
+      <c r="D151" s="42"/>
+      <c r="E151" s="12"/>
+      <c r="F151" s="4"/>
+      <c r="G151" s="4"/>
+      <c r="H151" s="12"/>
+      <c r="I151" s="12"/>
+      <c r="J151" s="12"/>
+      <c r="L151" s="1"/>
+      <c r="M151" s="1"/>
+    </row>
+    <row r="152" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="22"/>
+      <c r="B152" s="42"/>
+      <c r="C152" s="43"/>
+      <c r="D152" s="42"/>
+      <c r="E152" s="12"/>
+      <c r="F152" s="4"/>
+      <c r="G152" s="4"/>
+      <c r="H152" s="12"/>
+      <c r="I152" s="12"/>
+      <c r="J152" s="12"/>
+      <c r="L152" s="1"/>
+      <c r="M152" s="1"/>
+    </row>
+    <row r="153" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="22"/>
+      <c r="B153" s="42"/>
+      <c r="C153" s="43"/>
+      <c r="D153" s="42"/>
+      <c r="E153" s="12"/>
+      <c r="F153" s="12"/>
+      <c r="G153" s="12"/>
+      <c r="H153" s="12"/>
+      <c r="I153" s="12"/>
+      <c r="J153" s="12"/>
+      <c r="L153" s="1"/>
+      <c r="M153" s="1"/>
+    </row>
+    <row r="154" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="22"/>
+      <c r="B154" s="42"/>
+      <c r="C154" s="43"/>
+      <c r="D154" s="42"/>
+      <c r="E154" s="12"/>
+      <c r="F154" s="12"/>
+      <c r="G154" s="12"/>
+      <c r="H154" s="12"/>
+      <c r="I154" s="12"/>
+      <c r="J154" s="12"/>
+      <c r="L154" s="1"/>
+      <c r="M154" s="1"/>
+    </row>
+    <row r="155" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="22"/>
+      <c r="B155" s="42"/>
+      <c r="C155" s="43"/>
+      <c r="D155" s="42"/>
+      <c r="E155" s="12"/>
+      <c r="F155" s="12"/>
+      <c r="G155" s="12"/>
+      <c r="H155" s="12"/>
+      <c r="I155" s="12"/>
+      <c r="J155" s="12"/>
+      <c r="L155" s="1"/>
+      <c r="M155" s="1"/>
+    </row>
+    <row r="156" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="22"/>
+      <c r="B156" s="42"/>
+      <c r="C156" s="43"/>
+      <c r="D156" s="42"/>
+      <c r="E156" s="12"/>
+      <c r="F156" s="4"/>
+      <c r="G156" s="4"/>
+      <c r="H156" s="12"/>
+      <c r="I156" s="12"/>
+      <c r="J156" s="12"/>
+      <c r="L156" s="1"/>
+      <c r="M156" s="1"/>
+    </row>
+    <row r="157" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="22"/>
+      <c r="B157" s="42"/>
+      <c r="C157" s="43"/>
+      <c r="D157" s="42"/>
+      <c r="E157" s="12"/>
+      <c r="F157" s="4"/>
+      <c r="G157" s="4"/>
+      <c r="H157" s="12"/>
+      <c r="I157" s="12"/>
+      <c r="J157" s="12"/>
+      <c r="L157" s="1"/>
+      <c r="M157" s="1"/>
+    </row>
+    <row r="158" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="22"/>
+      <c r="B158" s="42"/>
+      <c r="C158" s="43"/>
+      <c r="D158" s="42"/>
+      <c r="E158" s="12"/>
+      <c r="F158" s="12"/>
+      <c r="G158" s="12"/>
+      <c r="H158" s="12"/>
+      <c r="I158" s="12"/>
+      <c r="J158" s="12"/>
+      <c r="L158" s="1"/>
+      <c r="M158" s="1"/>
+    </row>
+    <row r="159" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="22"/>
+      <c r="B159" s="42"/>
+      <c r="C159" s="42"/>
+      <c r="D159" s="42"/>
+      <c r="E159" s="12"/>
+      <c r="F159" s="12"/>
+      <c r="G159" s="12"/>
+      <c r="H159" s="12"/>
+      <c r="I159" s="12"/>
+      <c r="J159" s="12"/>
+      <c r="L159" s="1"/>
+      <c r="M159" s="1"/>
+    </row>
+    <row r="160" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="22"/>
+      <c r="B160" s="42"/>
+      <c r="C160" s="42"/>
+      <c r="D160" s="42"/>
+      <c r="E160" s="12"/>
+      <c r="F160" s="4"/>
+      <c r="G160" s="4"/>
+      <c r="H160" s="12"/>
+      <c r="I160" s="12"/>
+      <c r="J160" s="12"/>
+      <c r="L160" s="1"/>
+      <c r="M160" s="1"/>
+    </row>
+    <row r="161" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="22"/>
+      <c r="B161" s="42"/>
+      <c r="C161" s="42"/>
+      <c r="D161" s="42"/>
+      <c r="E161" s="12"/>
+      <c r="F161" s="12"/>
+      <c r="G161" s="12"/>
+      <c r="H161" s="12"/>
+      <c r="I161" s="12"/>
+      <c r="J161" s="12"/>
+      <c r="L161" s="1"/>
+      <c r="M161" s="1"/>
+    </row>
+    <row r="162" spans="1:13" s="14" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="22"/>
+      <c r="B162" s="42"/>
+      <c r="C162" s="42"/>
+      <c r="D162" s="42"/>
+      <c r="E162" s="12"/>
+      <c r="F162" s="12"/>
+      <c r="G162" s="12"/>
+      <c r="H162" s="12"/>
+      <c r="I162" s="12"/>
+      <c r="J162" s="12"/>
+      <c r="L162" s="1"/>
+      <c r="M162" s="1"/>
+    </row>
+    <row r="163" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="22"/>
+      <c r="B163" s="42"/>
+      <c r="C163" s="42"/>
+      <c r="D163" s="42"/>
+      <c r="E163" s="12"/>
+      <c r="F163" s="4"/>
+      <c r="G163" s="4"/>
+      <c r="H163" s="12"/>
+      <c r="I163" s="12"/>
+      <c r="J163" s="12"/>
+      <c r="L163" s="1"/>
+      <c r="M163" s="1"/>
+    </row>
+    <row r="164" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="22"/>
+      <c r="B164" s="42"/>
+      <c r="C164" s="42"/>
+      <c r="D164" s="42"/>
+      <c r="E164" s="12"/>
+      <c r="F164" s="12"/>
+      <c r="G164" s="12"/>
+      <c r="H164" s="12"/>
+      <c r="I164" s="12"/>
+      <c r="J164" s="12"/>
+      <c r="L164" s="1"/>
+      <c r="M164" s="1"/>
+    </row>
+    <row r="165" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="22"/>
+      <c r="B165" s="42"/>
+      <c r="C165" s="42"/>
+      <c r="D165" s="42"/>
+      <c r="E165" s="12"/>
+      <c r="F165" s="12"/>
+      <c r="G165" s="12"/>
+      <c r="H165" s="12"/>
+      <c r="I165" s="12"/>
+      <c r="J165" s="12"/>
+      <c r="L165" s="1"/>
+      <c r="M165" s="1"/>
+    </row>
+    <row r="166" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="22"/>
+      <c r="B166" s="42"/>
+      <c r="C166" s="42"/>
+      <c r="D166" s="42"/>
+      <c r="E166" s="12"/>
+      <c r="F166" s="4"/>
+      <c r="G166" s="4"/>
+      <c r="H166" s="12"/>
+      <c r="I166" s="12"/>
+      <c r="J166" s="12"/>
+      <c r="L166" s="1"/>
+      <c r="M166" s="1"/>
+    </row>
+    <row r="167" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="22"/>
+      <c r="B167" s="42"/>
+      <c r="C167" s="42"/>
+      <c r="D167" s="42"/>
+      <c r="E167" s="12"/>
+      <c r="F167" s="12"/>
+      <c r="G167" s="12"/>
+      <c r="H167" s="12"/>
+      <c r="I167" s="12"/>
+      <c r="J167" s="12"/>
+      <c r="L167" s="1"/>
+      <c r="M167" s="1"/>
+    </row>
+    <row r="168" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="22"/>
+      <c r="B168" s="42"/>
+      <c r="C168" s="42"/>
+      <c r="D168" s="42"/>
+      <c r="E168" s="12"/>
+      <c r="F168" s="12"/>
+      <c r="G168" s="12"/>
+      <c r="H168" s="12"/>
+      <c r="I168" s="12"/>
+      <c r="J168" s="12"/>
+      <c r="L168" s="1"/>
+      <c r="M168" s="1"/>
+    </row>
+    <row r="169" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="22"/>
+      <c r="B169" s="42"/>
+      <c r="C169" s="42"/>
+      <c r="D169" s="42"/>
+      <c r="E169" s="12"/>
+      <c r="F169" s="4"/>
+      <c r="G169" s="4"/>
+      <c r="H169" s="12"/>
+      <c r="I169" s="12"/>
+      <c r="J169" s="12"/>
+    </row>
+    <row r="170" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="22"/>
+      <c r="B170" s="42"/>
+      <c r="C170" s="42"/>
+      <c r="D170" s="42"/>
+      <c r="E170" s="12"/>
+      <c r="F170" s="12"/>
+      <c r="G170" s="12"/>
+      <c r="H170" s="12"/>
+      <c r="I170" s="12"/>
+      <c r="J170" s="12"/>
+    </row>
+    <row r="171" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="22"/>
+      <c r="B171" s="42"/>
+      <c r="C171" s="42"/>
+      <c r="D171" s="42"/>
+      <c r="E171" s="12"/>
+      <c r="F171" s="12"/>
+      <c r="G171" s="12"/>
+      <c r="H171" s="12"/>
+      <c r="I171" s="12"/>
+      <c r="J171" s="12"/>
+    </row>
+    <row r="172" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="22"/>
+      <c r="B172" s="42"/>
+      <c r="C172" s="42"/>
+      <c r="D172" s="42"/>
+      <c r="E172" s="12"/>
+      <c r="F172" s="4"/>
+      <c r="G172" s="4"/>
+      <c r="H172" s="12"/>
+      <c r="I172" s="12"/>
+      <c r="J172" s="12"/>
+    </row>
+    <row r="173" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="22"/>
+      <c r="B173" s="42"/>
+      <c r="C173" s="42"/>
+      <c r="D173" s="42"/>
+      <c r="E173" s="12"/>
+      <c r="F173" s="12"/>
+      <c r="G173" s="12"/>
+      <c r="H173" s="12"/>
+      <c r="I173" s="12"/>
+      <c r="J173" s="12"/>
+    </row>
+    <row r="174" spans="1:13" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="22"/>
+      <c r="B174" s="43"/>
+      <c r="C174" s="42"/>
+      <c r="D174" s="42"/>
+      <c r="E174" s="12"/>
+      <c r="F174" s="12"/>
+      <c r="G174" s="12"/>
+      <c r="H174" s="12"/>
+      <c r="I174" s="12"/>
+      <c r="J174" s="12"/>
+    </row>
+    <row r="175" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="22"/>
+      <c r="B175" s="42"/>
+      <c r="C175" s="42"/>
+      <c r="D175" s="42"/>
+      <c r="E175" s="12"/>
+      <c r="F175" s="12"/>
+      <c r="G175" s="12"/>
+      <c r="H175" s="12"/>
+      <c r="I175" s="12"/>
+      <c r="J175" s="12"/>
+    </row>
+    <row r="176" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="22"/>
+      <c r="B176" s="42"/>
+      <c r="C176" s="42"/>
+      <c r="D176" s="42"/>
+      <c r="E176" s="12"/>
+      <c r="F176" s="12"/>
+      <c r="G176" s="12"/>
+      <c r="H176" s="12"/>
+      <c r="I176" s="12"/>
+      <c r="J176" s="12"/>
+    </row>
+    <row r="177" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="22"/>
+      <c r="B177" s="42"/>
+      <c r="C177" s="42"/>
+      <c r="D177" s="42"/>
+      <c r="E177" s="12"/>
+      <c r="F177" s="12"/>
+      <c r="G177" s="12"/>
+      <c r="H177" s="12"/>
+      <c r="I177" s="12"/>
+      <c r="J177" s="12"/>
+    </row>
+    <row r="178" spans="1:10" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="22"/>
+      <c r="B178" s="43"/>
+      <c r="C178" s="42"/>
+      <c r="D178" s="42"/>
+      <c r="E178" s="12"/>
+      <c r="F178" s="12"/>
+      <c r="G178" s="12"/>
+      <c r="H178" s="12"/>
+      <c r="I178" s="12"/>
+      <c r="J178" s="12"/>
+    </row>
+    <row r="179" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="22"/>
+      <c r="B179" s="42"/>
+      <c r="C179" s="42"/>
+      <c r="D179" s="42"/>
+      <c r="E179" s="12"/>
+      <c r="F179" s="12"/>
+      <c r="G179" s="12"/>
+      <c r="H179" s="12"/>
+      <c r="I179" s="12"/>
+      <c r="J179" s="12"/>
+    </row>
+    <row r="180" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="22"/>
+      <c r="B180" s="42"/>
+      <c r="C180" s="42"/>
+      <c r="D180" s="42"/>
+      <c r="E180" s="12"/>
+      <c r="F180" s="12"/>
+      <c r="G180" s="12"/>
+      <c r="H180" s="12"/>
+      <c r="I180" s="12"/>
+      <c r="J180" s="12"/>
+    </row>
+    <row r="181" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="22"/>
+      <c r="B181" s="42"/>
+      <c r="C181" s="42"/>
+      <c r="D181" s="42"/>
+      <c r="E181" s="12"/>
+      <c r="F181" s="12"/>
+      <c r="G181" s="12"/>
+      <c r="H181" s="12"/>
+      <c r="I181" s="12"/>
+      <c r="J181" s="12"/>
+    </row>
+    <row r="182" spans="1:10" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="22"/>
+      <c r="B182" s="43"/>
+      <c r="C182" s="42"/>
+      <c r="D182" s="42"/>
+      <c r="E182" s="12"/>
+      <c r="F182" s="12"/>
+      <c r="G182" s="12"/>
+      <c r="H182" s="12"/>
+      <c r="I182" s="12"/>
+      <c r="J182" s="12"/>
+    </row>
+    <row r="183" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="22"/>
+      <c r="B183" s="42"/>
+      <c r="C183" s="42"/>
+      <c r="D183" s="42"/>
+      <c r="E183" s="12"/>
+      <c r="F183" s="12"/>
+      <c r="G183" s="12"/>
+      <c r="H183" s="12"/>
+      <c r="I183" s="12"/>
+      <c r="J183" s="12"/>
+    </row>
+    <row r="184" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="22"/>
+      <c r="B184" s="42"/>
+      <c r="C184" s="42"/>
+      <c r="D184" s="42"/>
+      <c r="E184" s="12"/>
+      <c r="F184" s="12"/>
+      <c r="G184" s="12"/>
+      <c r="H184" s="12"/>
+      <c r="I184" s="12"/>
+      <c r="J184" s="12"/>
+    </row>
+    <row r="185" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="22"/>
+      <c r="B185" s="42"/>
+      <c r="C185" s="42"/>
+      <c r="D185" s="42"/>
+      <c r="E185" s="12"/>
+      <c r="F185" s="12"/>
+      <c r="G185" s="12"/>
+      <c r="H185" s="12"/>
+      <c r="I185" s="12"/>
+      <c r="J185" s="12"/>
+    </row>
+    <row r="186" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="22"/>
+      <c r="B186" s="42"/>
+      <c r="C186" s="42"/>
+      <c r="D186" s="42"/>
+      <c r="E186" s="12"/>
+      <c r="F186" s="12"/>
+      <c r="G186" s="12"/>
+      <c r="H186" s="12"/>
+      <c r="I186" s="12"/>
+      <c r="J186" s="12"/>
+    </row>
+    <row r="187" spans="1:10" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="22"/>
+      <c r="B187" s="43"/>
+      <c r="C187" s="42"/>
+      <c r="D187" s="42"/>
+      <c r="E187" s="12"/>
+      <c r="F187" s="12"/>
+      <c r="G187" s="12"/>
+      <c r="H187" s="12"/>
+      <c r="I187" s="12"/>
+      <c r="J187" s="12"/>
+    </row>
+    <row r="188" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="22"/>
+      <c r="B188" s="42"/>
+      <c r="C188" s="42"/>
+      <c r="D188" s="42"/>
+      <c r="E188" s="12"/>
+      <c r="F188" s="12"/>
+      <c r="G188" s="12"/>
+      <c r="H188" s="12"/>
+      <c r="I188" s="12"/>
+      <c r="J188" s="12"/>
+    </row>
+    <row r="189" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="22"/>
+      <c r="B189" s="42"/>
+      <c r="C189" s="42"/>
+      <c r="D189" s="42"/>
+      <c r="E189" s="12"/>
+      <c r="F189" s="12"/>
+      <c r="G189" s="12"/>
+      <c r="H189" s="12"/>
+      <c r="I189" s="12"/>
+      <c r="J189" s="12"/>
+    </row>
+    <row r="190" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="22"/>
+      <c r="B190" s="42"/>
+      <c r="C190" s="42"/>
+      <c r="D190" s="42"/>
+      <c r="E190" s="12"/>
+      <c r="F190" s="12"/>
+      <c r="G190" s="12"/>
+      <c r="H190" s="12"/>
+      <c r="I190" s="12"/>
+      <c r="J190" s="12"/>
+    </row>
+    <row r="191" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="22"/>
+      <c r="B191" s="42"/>
+      <c r="C191" s="42"/>
+      <c r="D191" s="42"/>
+      <c r="E191" s="12"/>
+      <c r="F191" s="12"/>
+      <c r="G191" s="12"/>
+      <c r="H191" s="12"/>
+      <c r="I191" s="12"/>
+      <c r="J191" s="12"/>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A192" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="B192" s="56"/>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="58"/>
+      <c r="B193" s="56"/>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="58"/>
+      <c r="B194" s="56"/>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="58"/>
+      <c r="B195" s="56"/>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="58"/>
+      <c r="B196" s="56"/>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="58"/>
+      <c r="B197" s="56"/>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="58"/>
+      <c r="B198" s="56"/>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="58"/>
+      <c r="B199" s="56"/>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="58"/>
+      <c r="B200" s="56"/>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="58"/>
+      <c r="B201" s="56"/>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="59"/>
+      <c r="B202" s="56"/>
+    </row>
+  </sheetData>
+  <mergeCells count="45">
+    <mergeCell ref="G72:G75"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="B76:B81"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="G82:G85"/>
+    <mergeCell ref="B86:B93"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B67:B71"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="G50:G53"/>
+    <mergeCell ref="G46:G49"/>
+    <mergeCell ref="B46:B53"/>
+    <mergeCell ref="B54:B61"/>
+    <mergeCell ref="G54:G61"/>
+    <mergeCell ref="H46:H53"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A18:A45"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="G32:G35"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C6:C17"/>
+    <mergeCell ref="D6:D17"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="A94:A191"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="A2:A17"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="J237" sqref="J237"/>
+    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68:F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2202,7 +5711,7 @@
     <col min="6" max="6" width="21.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="20.42578125" style="2" customWidth="1"/>
     <col min="8" max="8" width="19.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="38"/>
+    <col min="9" max="9" width="9.140625" style="14"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -2233,16 +5742,16 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="40" t="s">
         <v>488</v>
       </c>
       <c r="E2" s="2">
@@ -2253,10 +5762,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
       <c r="E3" s="2">
         <v>2</v>
       </c>
@@ -2265,14 +5774,14 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="17" t="s">
+      <c r="A4" s="39"/>
+      <c r="B4" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="17"/>
+      <c r="D4" s="40"/>
       <c r="E4" s="2">
         <v>1</v>
       </c>
@@ -2281,10 +5790,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
       <c r="E5" s="2">
         <v>2</v>
       </c>
@@ -2293,14 +5802,14 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="17" t="s">
+      <c r="A6" s="39"/>
+      <c r="B6" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="17"/>
+      <c r="D6" s="40"/>
       <c r="E6" s="2">
         <v>1</v>
       </c>
@@ -2309,10 +5818,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
       <c r="E7" s="2">
         <v>2</v>
       </c>
@@ -2321,14 +5830,14 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="17" t="s">
+      <c r="A8" s="39"/>
+      <c r="B8" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="17"/>
+      <c r="D8" s="40"/>
       <c r="E8" s="2">
         <v>1</v>
       </c>
@@ -2337,10 +5846,10 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
       <c r="E9" s="2">
         <v>2</v>
       </c>
@@ -2349,14 +5858,14 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="17" t="s">
+      <c r="A10" s="39"/>
+      <c r="B10" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="40" t="s">
         <v>489</v>
       </c>
       <c r="E10" s="2">
@@ -2367,10 +5876,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
       <c r="E11" s="2">
         <v>2</v>
       </c>
@@ -2379,17 +5888,17 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="18" t="s">
         <v>494</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13" t="s">
+      <c r="D12" s="27"/>
+      <c r="E12" s="27" t="s">
         <v>23</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -2397,11 +5906,11 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
       <c r="F13" s="2" t="s">
         <v>24</v>
       </c>
@@ -2410,11 +5919,11 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
       <c r="F14" s="2" t="s">
         <v>25</v>
       </c>
@@ -2423,14 +5932,14 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="15" t="s">
+      <c r="A15" s="19"/>
+      <c r="B15" s="24" t="s">
         <v>459</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="27" t="s">
         <v>32</v>
       </c>
       <c r="E15" s="2">
@@ -2441,10 +5950,10 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
       <c r="E16" s="2">
         <v>2</v>
       </c>
@@ -2459,10 +5968,10 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
       <c r="E17" s="2">
         <v>3</v>
       </c>
@@ -2477,14 +5986,14 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
-      <c r="B18" s="15" t="s">
+      <c r="A18" s="19"/>
+      <c r="B18" s="24" t="s">
         <v>457</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="27" t="s">
         <v>31</v>
       </c>
       <c r="E18" s="2">
@@ -2495,10 +6004,10 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
       <c r="E19" s="2">
         <v>2</v>
       </c>
@@ -2513,10 +6022,10 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
       <c r="E20" s="2">
         <v>3</v>
       </c>
@@ -2531,14 +6040,14 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
-      <c r="B21" s="15" t="s">
+      <c r="A21" s="19"/>
+      <c r="B21" s="24" t="s">
         <v>458</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="27" t="s">
         <v>34</v>
       </c>
       <c r="E21" s="2">
@@ -2549,10 +6058,10 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
       <c r="E22" s="2">
         <v>2</v>
       </c>
@@ -2567,10 +6076,10 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
       <c r="E23" s="2">
         <v>3</v>
       </c>
@@ -2585,14 +6094,14 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
-      <c r="B24" s="15" t="s">
+      <c r="A24" s="19"/>
+      <c r="B24" s="24" t="s">
         <v>460</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="27" t="s">
         <v>36</v>
       </c>
       <c r="E24" s="2">
@@ -2603,10 +6112,10 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="29"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
       <c r="E25" s="2">
         <v>2</v>
       </c>
@@ -2621,10 +6130,10 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="29"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
       <c r="E26" s="2">
         <v>3</v>
       </c>
@@ -2639,14 +6148,14 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
-      <c r="B27" s="15" t="s">
+      <c r="A27" s="19"/>
+      <c r="B27" s="24" t="s">
         <v>461</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="27" t="s">
         <v>37</v>
       </c>
       <c r="E27" s="2">
@@ -2657,10 +6166,10 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
       <c r="E28" s="2">
         <v>2</v>
       </c>
@@ -2675,10 +6184,10 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
       <c r="E29" s="2">
         <v>3</v>
       </c>
@@ -2693,14 +6202,14 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
-      <c r="B30" s="15" t="s">
+      <c r="A30" s="19"/>
+      <c r="B30" s="24" t="s">
         <v>462</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="27" t="s">
         <v>38</v>
       </c>
       <c r="E30" s="2">
@@ -2711,10 +6220,10 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
       <c r="E31" s="2">
         <v>2</v>
       </c>
@@ -2729,10 +6238,10 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="29"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
       <c r="E32" s="2">
         <v>3</v>
       </c>
@@ -2747,14 +6256,14 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="29"/>
-      <c r="B33" s="15" t="s">
+      <c r="A33" s="19"/>
+      <c r="B33" s="24" t="s">
         <v>463</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="27" t="s">
         <v>39</v>
       </c>
       <c r="E33" s="2">
@@ -2765,10 +6274,10 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="29"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
       <c r="E34" s="2">
         <v>2</v>
       </c>
@@ -2783,10 +6292,10 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="29"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
       <c r="E35" s="2">
         <v>3</v>
       </c>
@@ -2801,14 +6310,14 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="29"/>
-      <c r="B36" s="15" t="s">
+      <c r="A36" s="19"/>
+      <c r="B36" s="24" t="s">
         <v>464</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="27" t="s">
         <v>43</v>
       </c>
       <c r="E36" s="2">
@@ -2819,10 +6328,10 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="29"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
       <c r="E37" s="2">
         <v>2</v>
       </c>
@@ -2831,10 +6340,10 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="29"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
       <c r="E38" s="2">
         <v>3</v>
       </c>
@@ -2849,10 +6358,10 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="29"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
       <c r="E39" s="2">
         <v>4</v>
       </c>
@@ -2867,14 +6376,14 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="29"/>
-      <c r="B40" s="15" t="s">
+      <c r="A40" s="19"/>
+      <c r="B40" s="24" t="s">
         <v>455</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="27" t="s">
         <v>44</v>
       </c>
       <c r="E40" s="2">
@@ -2891,10 +6400,10 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="29"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
+      <c r="A41" s="19"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
       <c r="E41" s="2">
         <v>2</v>
       </c>
@@ -2909,10 +6418,10 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="29"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="14"/>
+      <c r="A42" s="19"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="26"/>
       <c r="E42" s="2">
         <v>3</v>
       </c>
@@ -2927,12 +6436,12 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="29"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12" t="s">
+      <c r="A43" s="19"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="D43" s="27" t="s">
         <v>45</v>
       </c>
       <c r="E43" s="2">
@@ -2943,10 +6452,10 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="29"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
+      <c r="A44" s="19"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
       <c r="E44" s="2">
         <v>2</v>
       </c>
@@ -2955,10 +6464,10 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="29"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
+      <c r="A45" s="19"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
       <c r="E45" s="2">
         <v>3</v>
       </c>
@@ -2973,14 +6482,14 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="29"/>
-      <c r="B46" s="15" t="s">
+      <c r="A46" s="19"/>
+      <c r="B46" s="24" t="s">
         <v>456</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D46" s="13" t="s">
+      <c r="D46" s="27" t="s">
         <v>44</v>
       </c>
       <c r="E46" s="3">
@@ -2997,10 +6506,10 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="29"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
+      <c r="A47" s="19"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
       <c r="E47" s="3">
         <v>2</v>
       </c>
@@ -3015,10 +6524,10 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="29"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="14"/>
+      <c r="A48" s="19"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="26"/>
       <c r="E48" s="3">
         <v>3</v>
       </c>
@@ -3033,12 +6542,12 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="29"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12" t="s">
+      <c r="A49" s="19"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D49" s="13" t="s">
+      <c r="D49" s="27" t="s">
         <v>45</v>
       </c>
       <c r="E49" s="3">
@@ -3049,10 +6558,10 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="29"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
+      <c r="A50" s="19"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
       <c r="E50" s="3">
         <v>2</v>
       </c>
@@ -3061,10 +6570,10 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="29"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
+      <c r="A51" s="19"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
       <c r="E51" s="3">
         <v>3</v>
       </c>
@@ -3079,14 +6588,14 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="29"/>
-      <c r="B52" s="15" t="s">
+      <c r="A52" s="19"/>
+      <c r="B52" s="24" t="s">
         <v>477</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D52" s="13" t="s">
+      <c r="D52" s="27" t="s">
         <v>412</v>
       </c>
       <c r="E52" s="2">
@@ -3103,10 +6612,10 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="29"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
+      <c r="A53" s="19"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
       <c r="E53" s="2">
         <v>2</v>
       </c>
@@ -3121,10 +6630,10 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="29"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
+      <c r="A54" s="19"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
       <c r="E54" s="2">
         <v>3</v>
       </c>
@@ -3139,12 +6648,12 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="29"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="13" t="s">
+      <c r="A55" s="19"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D55" s="13" t="s">
+      <c r="D55" s="27" t="s">
         <v>413</v>
       </c>
       <c r="E55" s="2">
@@ -3155,10 +6664,10 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="29"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
+      <c r="A56" s="19"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
       <c r="E56" s="2">
         <v>2</v>
       </c>
@@ -3167,10 +6676,10 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="29"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
+      <c r="A57" s="19"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
       <c r="E57" s="2">
         <v>3</v>
       </c>
@@ -3185,14 +6694,14 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="29"/>
-      <c r="B58" s="15" t="s">
+      <c r="A58" s="19"/>
+      <c r="B58" s="24" t="s">
         <v>478</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C58" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D58" s="13" t="s">
+      <c r="D58" s="27" t="s">
         <v>414</v>
       </c>
       <c r="E58" s="8">
@@ -3209,10 +6718,10 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="29"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
+      <c r="A59" s="19"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="25"/>
       <c r="E59" s="8">
         <v>2</v>
       </c>
@@ -3227,10 +6736,10 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="29"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
+      <c r="A60" s="19"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
       <c r="E60" s="8">
         <v>3</v>
       </c>
@@ -3245,12 +6754,12 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="29"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="13" t="s">
+      <c r="A61" s="19"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D61" s="13" t="s">
+      <c r="D61" s="27" t="s">
         <v>415</v>
       </c>
       <c r="E61" s="8">
@@ -3261,10 +6770,10 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="29"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
+      <c r="A62" s="19"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
       <c r="E62" s="8">
         <v>2</v>
       </c>
@@ -3273,10 +6782,10 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="29"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
+      <c r="A63" s="19"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
       <c r="E63" s="8">
         <v>3</v>
       </c>
@@ -3291,14 +6800,14 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="29"/>
-      <c r="B64" s="15" t="s">
+      <c r="A64" s="19"/>
+      <c r="B64" s="24" t="s">
         <v>416</v>
       </c>
-      <c r="C64" s="15" t="s">
+      <c r="C64" s="24" t="s">
         <v>417</v>
       </c>
-      <c r="D64" s="13" t="s">
+      <c r="D64" s="27" t="s">
         <v>30</v>
       </c>
       <c r="E64" s="2">
@@ -3309,10 +6818,10 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="29"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
+      <c r="A65" s="19"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="25"/>
       <c r="E65" s="2">
         <v>2</v>
       </c>
@@ -3321,10 +6830,10 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="29"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
+      <c r="A66" s="19"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="25"/>
       <c r="E66" s="2">
         <v>3</v>
       </c>
@@ -3339,10 +6848,10 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="29"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
+      <c r="A67" s="19"/>
+      <c r="B67" s="26"/>
+      <c r="C67" s="26"/>
+      <c r="D67" s="26"/>
       <c r="E67" s="2">
         <v>4</v>
       </c>
@@ -3357,50 +6866,50 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="29"/>
-      <c r="B68" s="15" t="s">
+      <c r="A68" s="19"/>
+      <c r="B68" s="24" t="s">
         <v>432</v>
       </c>
-      <c r="C68" s="18" t="s">
+      <c r="C68" s="30" t="s">
         <v>392</v>
       </c>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="20"/>
+      <c r="D68" s="31"/>
+      <c r="E68" s="31"/>
+      <c r="F68" s="32"/>
     </row>
     <row r="69" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="29"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="21"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="23"/>
+      <c r="A69" s="19"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="33"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="34"/>
+      <c r="F69" s="35"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="29"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="21"/>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="23"/>
+      <c r="A70" s="19"/>
+      <c r="B70" s="25"/>
+      <c r="C70" s="33"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="34"/>
+      <c r="F70" s="35"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="29"/>
-      <c r="B71" s="14"/>
-      <c r="C71" s="24"/>
-      <c r="D71" s="25"/>
-      <c r="E71" s="25"/>
-      <c r="F71" s="26"/>
+      <c r="A71" s="19"/>
+      <c r="B71" s="26"/>
+      <c r="C71" s="36"/>
+      <c r="D71" s="37"/>
+      <c r="E71" s="37"/>
+      <c r="F71" s="38"/>
     </row>
     <row r="72" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="29"/>
-      <c r="B72" s="15" t="s">
+      <c r="A72" s="19"/>
+      <c r="B72" s="24" t="s">
         <v>433</v>
       </c>
-      <c r="C72" s="15" t="s">
+      <c r="C72" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D72" s="13" t="s">
+      <c r="D72" s="27" t="s">
         <v>393</v>
       </c>
       <c r="E72" s="2">
@@ -3411,10 +6920,10 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="29"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
+      <c r="A73" s="19"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="25"/>
       <c r="E73" s="2">
         <v>2</v>
       </c>
@@ -3423,17 +6932,17 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="29"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
+      <c r="A74" s="19"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="25"/>
       <c r="E74" s="2">
         <v>3</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G74" s="13" t="s">
+      <c r="G74" s="27" t="s">
         <v>27</v>
       </c>
       <c r="H74" s="2" t="s">
@@ -3441,32 +6950,32 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="30"/>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
+      <c r="A75" s="20"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="26"/>
       <c r="E75" s="2">
         <v>4</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G75" s="14"/>
+      <c r="G75" s="26"/>
       <c r="H75" s="2" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="31" t="s">
+      <c r="A76" s="15" t="s">
         <v>495</v>
       </c>
-      <c r="B76" s="15" t="s">
+      <c r="B76" s="24" t="s">
         <v>443</v>
       </c>
-      <c r="C76" s="13" t="s">
+      <c r="C76" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D76" s="13" t="s">
+      <c r="D76" s="27" t="s">
         <v>51</v>
       </c>
       <c r="E76" s="2">
@@ -3477,10 +6986,10 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="32"/>
-      <c r="B77" s="12"/>
-      <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
+      <c r="A77" s="16"/>
+      <c r="B77" s="25"/>
+      <c r="C77" s="25"/>
+      <c r="D77" s="25"/>
       <c r="E77" s="2">
         <v>2</v>
       </c>
@@ -3489,10 +6998,10 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="32"/>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
+      <c r="A78" s="16"/>
+      <c r="B78" s="26"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="26"/>
       <c r="E78" s="2">
         <v>3</v>
       </c>
@@ -3507,14 +7016,14 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="32"/>
-      <c r="B79" s="15" t="s">
+      <c r="A79" s="16"/>
+      <c r="B79" s="24" t="s">
         <v>444</v>
       </c>
-      <c r="C79" s="13" t="s">
+      <c r="C79" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D79" s="13" t="s">
+      <c r="D79" s="27" t="s">
         <v>54</v>
       </c>
       <c r="E79" s="3">
@@ -3525,10 +7034,10 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="32"/>
-      <c r="B80" s="12"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="12"/>
+      <c r="A80" s="16"/>
+      <c r="B80" s="25"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="25"/>
       <c r="E80" s="3">
         <v>2</v>
       </c>
@@ -3537,10 +7046,10 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="32"/>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
+      <c r="A81" s="16"/>
+      <c r="B81" s="26"/>
+      <c r="C81" s="26"/>
+      <c r="D81" s="26"/>
       <c r="E81" s="3">
         <v>3</v>
       </c>
@@ -3555,14 +7064,14 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="32"/>
-      <c r="B82" s="15" t="s">
+      <c r="A82" s="16"/>
+      <c r="B82" s="24" t="s">
         <v>445</v>
       </c>
-      <c r="C82" s="13" t="s">
+      <c r="C82" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D82" s="13" t="s">
+      <c r="D82" s="27" t="s">
         <v>56</v>
       </c>
       <c r="E82" s="3">
@@ -3573,10 +7082,10 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="32"/>
-      <c r="B83" s="12"/>
-      <c r="C83" s="12"/>
-      <c r="D83" s="12"/>
+      <c r="A83" s="16"/>
+      <c r="B83" s="25"/>
+      <c r="C83" s="25"/>
+      <c r="D83" s="25"/>
       <c r="E83" s="3">
         <v>2</v>
       </c>
@@ -3585,10 +7094,10 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="32"/>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
+      <c r="A84" s="16"/>
+      <c r="B84" s="26"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="26"/>
       <c r="E84" s="3">
         <v>3</v>
       </c>
@@ -3603,14 +7112,14 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="32"/>
-      <c r="B85" s="15" t="s">
+      <c r="A85" s="16"/>
+      <c r="B85" s="24" t="s">
         <v>446</v>
       </c>
-      <c r="C85" s="13" t="s">
+      <c r="C85" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D85" s="13" t="s">
+      <c r="D85" s="27" t="s">
         <v>58</v>
       </c>
       <c r="E85" s="3">
@@ -3621,10 +7130,10 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="32"/>
-      <c r="B86" s="12"/>
-      <c r="C86" s="12"/>
-      <c r="D86" s="12"/>
+      <c r="A86" s="16"/>
+      <c r="B86" s="25"/>
+      <c r="C86" s="25"/>
+      <c r="D86" s="25"/>
       <c r="E86" s="3">
         <v>2</v>
       </c>
@@ -3633,10 +7142,10 @@
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="32"/>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
+      <c r="A87" s="16"/>
+      <c r="B87" s="26"/>
+      <c r="C87" s="26"/>
+      <c r="D87" s="26"/>
       <c r="E87" s="3">
         <v>3</v>
       </c>
@@ -3651,14 +7160,14 @@
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="32"/>
-      <c r="B88" s="15" t="s">
+      <c r="A88" s="16"/>
+      <c r="B88" s="24" t="s">
         <v>447</v>
       </c>
-      <c r="C88" s="13" t="s">
+      <c r="C88" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D88" s="13" t="s">
+      <c r="D88" s="27" t="s">
         <v>60</v>
       </c>
       <c r="E88" s="3">
@@ -3669,10 +7178,10 @@
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="32"/>
-      <c r="B89" s="12"/>
-      <c r="C89" s="12"/>
-      <c r="D89" s="12"/>
+      <c r="A89" s="16"/>
+      <c r="B89" s="25"/>
+      <c r="C89" s="25"/>
+      <c r="D89" s="25"/>
       <c r="E89" s="3">
         <v>2</v>
       </c>
@@ -3681,10 +7190,10 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="32"/>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
+      <c r="A90" s="16"/>
+      <c r="B90" s="26"/>
+      <c r="C90" s="26"/>
+      <c r="D90" s="26"/>
       <c r="E90" s="3">
         <v>3</v>
       </c>
@@ -3699,14 +7208,14 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="32"/>
-      <c r="B91" s="15" t="s">
+      <c r="A91" s="16"/>
+      <c r="B91" s="24" t="s">
         <v>448</v>
       </c>
-      <c r="C91" s="13" t="s">
+      <c r="C91" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D91" s="13" t="s">
+      <c r="D91" s="27" t="s">
         <v>62</v>
       </c>
       <c r="E91" s="3">
@@ -3717,10 +7226,10 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="32"/>
-      <c r="B92" s="12"/>
-      <c r="C92" s="12"/>
-      <c r="D92" s="12"/>
+      <c r="A92" s="16"/>
+      <c r="B92" s="25"/>
+      <c r="C92" s="25"/>
+      <c r="D92" s="25"/>
       <c r="E92" s="3">
         <v>2</v>
       </c>
@@ -3729,10 +7238,10 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="32"/>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
+      <c r="A93" s="16"/>
+      <c r="B93" s="26"/>
+      <c r="C93" s="26"/>
+      <c r="D93" s="26"/>
       <c r="E93" s="3">
         <v>3</v>
       </c>
@@ -3747,14 +7256,14 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="32"/>
-      <c r="B94" s="15" t="s">
+      <c r="A94" s="16"/>
+      <c r="B94" s="24" t="s">
         <v>449</v>
       </c>
-      <c r="C94" s="13" t="s">
+      <c r="C94" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D94" s="13" t="s">
+      <c r="D94" s="27" t="s">
         <v>64</v>
       </c>
       <c r="E94" s="3">
@@ -3765,10 +7274,10 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="32"/>
-      <c r="B95" s="12"/>
-      <c r="C95" s="12"/>
-      <c r="D95" s="12"/>
+      <c r="A95" s="16"/>
+      <c r="B95" s="25"/>
+      <c r="C95" s="25"/>
+      <c r="D95" s="25"/>
       <c r="E95" s="3">
         <v>2</v>
       </c>
@@ -3777,10 +7286,10 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="32"/>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
+      <c r="A96" s="16"/>
+      <c r="B96" s="26"/>
+      <c r="C96" s="26"/>
+      <c r="D96" s="26"/>
       <c r="E96" s="3">
         <v>3</v>
       </c>
@@ -3795,14 +7304,14 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="32"/>
-      <c r="B97" s="15" t="s">
+      <c r="A97" s="16"/>
+      <c r="B97" s="24" t="s">
         <v>450</v>
       </c>
-      <c r="C97" s="13" t="s">
+      <c r="C97" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D97" s="13" t="s">
+      <c r="D97" s="27" t="s">
         <v>66</v>
       </c>
       <c r="E97" s="3">
@@ -3813,10 +7322,10 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="32"/>
-      <c r="B98" s="12"/>
-      <c r="C98" s="12"/>
-      <c r="D98" s="12"/>
+      <c r="A98" s="16"/>
+      <c r="B98" s="25"/>
+      <c r="C98" s="25"/>
+      <c r="D98" s="25"/>
       <c r="E98" s="3">
         <v>2</v>
       </c>
@@ -3825,10 +7334,10 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="32"/>
-      <c r="B99" s="14"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
+      <c r="A99" s="16"/>
+      <c r="B99" s="26"/>
+      <c r="C99" s="26"/>
+      <c r="D99" s="26"/>
       <c r="E99" s="3">
         <v>3</v>
       </c>
@@ -3843,14 +7352,14 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="32"/>
-      <c r="B100" s="15" t="s">
+      <c r="A100" s="16"/>
+      <c r="B100" s="24" t="s">
         <v>451</v>
       </c>
-      <c r="C100" s="13" t="s">
+      <c r="C100" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D100" s="13" t="s">
+      <c r="D100" s="27" t="s">
         <v>68</v>
       </c>
       <c r="E100" s="3">
@@ -3861,10 +7370,10 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="32"/>
-      <c r="B101" s="12"/>
-      <c r="C101" s="12"/>
-      <c r="D101" s="12"/>
+      <c r="A101" s="16"/>
+      <c r="B101" s="25"/>
+      <c r="C101" s="25"/>
+      <c r="D101" s="25"/>
       <c r="E101" s="3">
         <v>2</v>
       </c>
@@ -3873,10 +7382,10 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="32"/>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
+      <c r="A102" s="16"/>
+      <c r="B102" s="26"/>
+      <c r="C102" s="26"/>
+      <c r="D102" s="26"/>
       <c r="E102" s="3">
         <v>3</v>
       </c>
@@ -3891,14 +7400,14 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="32"/>
-      <c r="B103" s="15" t="s">
+      <c r="A103" s="16"/>
+      <c r="B103" s="24" t="s">
         <v>452</v>
       </c>
-      <c r="C103" s="13" t="s">
+      <c r="C103" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D103" s="13" t="s">
+      <c r="D103" s="27" t="s">
         <v>70</v>
       </c>
       <c r="E103" s="3">
@@ -3909,10 +7418,10 @@
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="32"/>
-      <c r="B104" s="12"/>
-      <c r="C104" s="12"/>
-      <c r="D104" s="12"/>
+      <c r="A104" s="16"/>
+      <c r="B104" s="25"/>
+      <c r="C104" s="25"/>
+      <c r="D104" s="25"/>
       <c r="E104" s="3">
         <v>2</v>
       </c>
@@ -3921,10 +7430,10 @@
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="32"/>
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
+      <c r="A105" s="16"/>
+      <c r="B105" s="26"/>
+      <c r="C105" s="26"/>
+      <c r="D105" s="26"/>
       <c r="E105" s="3">
         <v>3</v>
       </c>
@@ -3939,14 +7448,14 @@
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="32"/>
-      <c r="B106" s="15" t="s">
+      <c r="A106" s="16"/>
+      <c r="B106" s="24" t="s">
         <v>453</v>
       </c>
-      <c r="C106" s="13" t="s">
+      <c r="C106" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D106" s="13" t="s">
+      <c r="D106" s="27" t="s">
         <v>72</v>
       </c>
       <c r="E106" s="3">
@@ -3957,10 +7466,10 @@
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="32"/>
-      <c r="B107" s="12"/>
-      <c r="C107" s="12"/>
-      <c r="D107" s="12"/>
+      <c r="A107" s="16"/>
+      <c r="B107" s="25"/>
+      <c r="C107" s="25"/>
+      <c r="D107" s="25"/>
       <c r="E107" s="3">
         <v>2</v>
       </c>
@@ -3969,10 +7478,10 @@
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="32"/>
-      <c r="B108" s="14"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
+      <c r="A108" s="16"/>
+      <c r="B108" s="26"/>
+      <c r="C108" s="26"/>
+      <c r="D108" s="26"/>
       <c r="E108" s="3">
         <v>3</v>
       </c>
@@ -3987,14 +7496,14 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="32"/>
-      <c r="B109" s="15" t="s">
+      <c r="A109" s="16"/>
+      <c r="B109" s="24" t="s">
         <v>454</v>
       </c>
-      <c r="C109" s="13" t="s">
+      <c r="C109" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D109" s="13" t="s">
+      <c r="D109" s="27" t="s">
         <v>74</v>
       </c>
       <c r="E109" s="3">
@@ -4005,10 +7514,10 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="32"/>
-      <c r="B110" s="12"/>
-      <c r="C110" s="12"/>
-      <c r="D110" s="12"/>
+      <c r="A110" s="16"/>
+      <c r="B110" s="25"/>
+      <c r="C110" s="25"/>
+      <c r="D110" s="25"/>
       <c r="E110" s="3">
         <v>2</v>
       </c>
@@ -4017,10 +7526,10 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="32"/>
-      <c r="B111" s="14"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
+      <c r="A111" s="16"/>
+      <c r="B111" s="26"/>
+      <c r="C111" s="26"/>
+      <c r="D111" s="26"/>
       <c r="E111" s="3">
         <v>3</v>
       </c>
@@ -4035,14 +7544,14 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="32"/>
-      <c r="B112" s="15" t="s">
+      <c r="A112" s="16"/>
+      <c r="B112" s="24" t="s">
         <v>418</v>
       </c>
-      <c r="C112" s="15" t="s">
+      <c r="C112" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D112" s="13" t="s">
+      <c r="D112" s="27" t="s">
         <v>82</v>
       </c>
       <c r="E112" s="3">
@@ -4055,10 +7564,10 @@
       <c r="H112" s="3"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="32"/>
-      <c r="B113" s="12"/>
-      <c r="C113" s="12"/>
-      <c r="D113" s="12"/>
+      <c r="A113" s="16"/>
+      <c r="B113" s="25"/>
+      <c r="C113" s="25"/>
+      <c r="D113" s="25"/>
       <c r="E113" s="3">
         <v>2</v>
       </c>
@@ -4069,10 +7578,10 @@
       <c r="H113" s="3"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="32"/>
-      <c r="B114" s="12"/>
-      <c r="C114" s="12"/>
-      <c r="D114" s="12"/>
+      <c r="A114" s="16"/>
+      <c r="B114" s="25"/>
+      <c r="C114" s="25"/>
+      <c r="D114" s="25"/>
       <c r="E114" s="3">
         <v>3</v>
       </c>
@@ -4087,10 +7596,10 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="32"/>
-      <c r="B115" s="14"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="14"/>
+      <c r="A115" s="16"/>
+      <c r="B115" s="26"/>
+      <c r="C115" s="26"/>
+      <c r="D115" s="26"/>
       <c r="E115" s="3">
         <v>4</v>
       </c>
@@ -4105,14 +7614,14 @@
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="32"/>
-      <c r="B116" s="15" t="s">
+      <c r="A116" s="16"/>
+      <c r="B116" s="24" t="s">
         <v>419</v>
       </c>
-      <c r="C116" s="15" t="s">
+      <c r="C116" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D116" s="13" t="s">
+      <c r="D116" s="27" t="s">
         <v>84</v>
       </c>
       <c r="E116" s="3">
@@ -4125,10 +7634,10 @@
       <c r="H116" s="3"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="32"/>
-      <c r="B117" s="12"/>
-      <c r="C117" s="12"/>
-      <c r="D117" s="12"/>
+      <c r="A117" s="16"/>
+      <c r="B117" s="25"/>
+      <c r="C117" s="25"/>
+      <c r="D117" s="25"/>
       <c r="E117" s="3">
         <v>2</v>
       </c>
@@ -4139,10 +7648,10 @@
       <c r="H117" s="3"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="32"/>
-      <c r="B118" s="12"/>
-      <c r="C118" s="12"/>
-      <c r="D118" s="12"/>
+      <c r="A118" s="16"/>
+      <c r="B118" s="25"/>
+      <c r="C118" s="25"/>
+      <c r="D118" s="25"/>
       <c r="E118" s="3">
         <v>3</v>
       </c>
@@ -4157,10 +7666,10 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="32"/>
-      <c r="B119" s="14"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="14"/>
+      <c r="A119" s="16"/>
+      <c r="B119" s="26"/>
+      <c r="C119" s="26"/>
+      <c r="D119" s="26"/>
       <c r="E119" s="3">
         <v>4</v>
       </c>
@@ -4175,14 +7684,14 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="32"/>
-      <c r="B120" s="15" t="s">
+      <c r="A120" s="16"/>
+      <c r="B120" s="24" t="s">
         <v>420</v>
       </c>
-      <c r="C120" s="15" t="s">
+      <c r="C120" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D120" s="13" t="s">
+      <c r="D120" s="27" t="s">
         <v>85</v>
       </c>
       <c r="E120" s="3">
@@ -4195,10 +7704,10 @@
       <c r="H120" s="3"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="32"/>
-      <c r="B121" s="12"/>
-      <c r="C121" s="12"/>
-      <c r="D121" s="12"/>
+      <c r="A121" s="16"/>
+      <c r="B121" s="25"/>
+      <c r="C121" s="25"/>
+      <c r="D121" s="25"/>
       <c r="E121" s="3">
         <v>2</v>
       </c>
@@ -4209,10 +7718,10 @@
       <c r="H121" s="3"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="32"/>
-      <c r="B122" s="12"/>
-      <c r="C122" s="12"/>
-      <c r="D122" s="12"/>
+      <c r="A122" s="16"/>
+      <c r="B122" s="25"/>
+      <c r="C122" s="25"/>
+      <c r="D122" s="25"/>
       <c r="E122" s="3">
         <v>3</v>
       </c>
@@ -4227,10 +7736,10 @@
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="32"/>
-      <c r="B123" s="14"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="14"/>
+      <c r="A123" s="16"/>
+      <c r="B123" s="26"/>
+      <c r="C123" s="26"/>
+      <c r="D123" s="26"/>
       <c r="E123" s="3">
         <v>4</v>
       </c>
@@ -4245,14 +7754,14 @@
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="32"/>
-      <c r="B124" s="15" t="s">
+      <c r="A124" s="16"/>
+      <c r="B124" s="24" t="s">
         <v>421</v>
       </c>
-      <c r="C124" s="15" t="s">
+      <c r="C124" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D124" s="13" t="s">
+      <c r="D124" s="27" t="s">
         <v>86</v>
       </c>
       <c r="E124" s="3">
@@ -4265,10 +7774,10 @@
       <c r="H124" s="3"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="32"/>
-      <c r="B125" s="12"/>
-      <c r="C125" s="12"/>
-      <c r="D125" s="12"/>
+      <c r="A125" s="16"/>
+      <c r="B125" s="25"/>
+      <c r="C125" s="25"/>
+      <c r="D125" s="25"/>
       <c r="E125" s="3">
         <v>2</v>
       </c>
@@ -4279,10 +7788,10 @@
       <c r="H125" s="3"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="32"/>
-      <c r="B126" s="12"/>
-      <c r="C126" s="12"/>
-      <c r="D126" s="12"/>
+      <c r="A126" s="16"/>
+      <c r="B126" s="25"/>
+      <c r="C126" s="25"/>
+      <c r="D126" s="25"/>
       <c r="E126" s="3">
         <v>3</v>
       </c>
@@ -4297,10 +7806,10 @@
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="32"/>
-      <c r="B127" s="14"/>
-      <c r="C127" s="14"/>
-      <c r="D127" s="14"/>
+      <c r="A127" s="16"/>
+      <c r="B127" s="26"/>
+      <c r="C127" s="26"/>
+      <c r="D127" s="26"/>
       <c r="E127" s="3">
         <v>4</v>
       </c>
@@ -4315,14 +7824,14 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="32"/>
-      <c r="B128" s="15" t="s">
+      <c r="A128" s="16"/>
+      <c r="B128" s="24" t="s">
         <v>422</v>
       </c>
-      <c r="C128" s="15" t="s">
+      <c r="C128" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D128" s="13" t="s">
+      <c r="D128" s="27" t="s">
         <v>87</v>
       </c>
       <c r="E128" s="3">
@@ -4335,10 +7844,10 @@
       <c r="H128" s="3"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="32"/>
-      <c r="B129" s="12"/>
-      <c r="C129" s="12"/>
-      <c r="D129" s="12"/>
+      <c r="A129" s="16"/>
+      <c r="B129" s="25"/>
+      <c r="C129" s="25"/>
+      <c r="D129" s="25"/>
       <c r="E129" s="3">
         <v>2</v>
       </c>
@@ -4349,10 +7858,10 @@
       <c r="H129" s="3"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="32"/>
-      <c r="B130" s="12"/>
-      <c r="C130" s="12"/>
-      <c r="D130" s="12"/>
+      <c r="A130" s="16"/>
+      <c r="B130" s="25"/>
+      <c r="C130" s="25"/>
+      <c r="D130" s="25"/>
       <c r="E130" s="3">
         <v>3</v>
       </c>
@@ -4367,10 +7876,10 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="32"/>
-      <c r="B131" s="14"/>
-      <c r="C131" s="14"/>
-      <c r="D131" s="14"/>
+      <c r="A131" s="16"/>
+      <c r="B131" s="26"/>
+      <c r="C131" s="26"/>
+      <c r="D131" s="26"/>
       <c r="E131" s="3">
         <v>4</v>
       </c>
@@ -4385,14 +7894,14 @@
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="32"/>
-      <c r="B132" s="15" t="s">
+      <c r="A132" s="16"/>
+      <c r="B132" s="24" t="s">
         <v>423</v>
       </c>
-      <c r="C132" s="15" t="s">
+      <c r="C132" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D132" s="13" t="s">
+      <c r="D132" s="27" t="s">
         <v>88</v>
       </c>
       <c r="E132" s="3">
@@ -4405,10 +7914,10 @@
       <c r="H132" s="3"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="32"/>
-      <c r="B133" s="12"/>
-      <c r="C133" s="12"/>
-      <c r="D133" s="12"/>
+      <c r="A133" s="16"/>
+      <c r="B133" s="25"/>
+      <c r="C133" s="25"/>
+      <c r="D133" s="25"/>
       <c r="E133" s="3">
         <v>2</v>
       </c>
@@ -4419,10 +7928,10 @@
       <c r="H133" s="3"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="32"/>
-      <c r="B134" s="12"/>
-      <c r="C134" s="12"/>
-      <c r="D134" s="12"/>
+      <c r="A134" s="16"/>
+      <c r="B134" s="25"/>
+      <c r="C134" s="25"/>
+      <c r="D134" s="25"/>
       <c r="E134" s="3">
         <v>3</v>
       </c>
@@ -4437,10 +7946,10 @@
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="32"/>
-      <c r="B135" s="14"/>
-      <c r="C135" s="14"/>
-      <c r="D135" s="14"/>
+      <c r="A135" s="16"/>
+      <c r="B135" s="26"/>
+      <c r="C135" s="26"/>
+      <c r="D135" s="26"/>
       <c r="E135" s="3">
         <v>4</v>
       </c>
@@ -4455,14 +7964,14 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="32"/>
-      <c r="B136" s="13" t="s">
+      <c r="A136" s="16"/>
+      <c r="B136" s="27" t="s">
         <v>380</v>
       </c>
-      <c r="C136" s="13" t="s">
+      <c r="C136" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D136" s="13" t="s">
+      <c r="D136" s="27" t="s">
         <v>381</v>
       </c>
       <c r="E136" s="3">
@@ -4473,10 +7982,10 @@
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="32"/>
-      <c r="B137" s="12"/>
-      <c r="C137" s="12"/>
-      <c r="D137" s="12"/>
+      <c r="A137" s="16"/>
+      <c r="B137" s="25"/>
+      <c r="C137" s="25"/>
+      <c r="D137" s="25"/>
       <c r="E137" s="3">
         <v>2</v>
       </c>
@@ -4485,10 +7994,10 @@
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="32"/>
-      <c r="B138" s="12"/>
-      <c r="C138" s="12"/>
-      <c r="D138" s="12"/>
+      <c r="A138" s="16"/>
+      <c r="B138" s="25"/>
+      <c r="C138" s="25"/>
+      <c r="D138" s="25"/>
       <c r="E138" s="8">
         <v>3</v>
       </c>
@@ -4503,14 +8012,14 @@
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="32"/>
-      <c r="B139" s="12" t="s">
+      <c r="A139" s="16"/>
+      <c r="B139" s="25" t="s">
         <v>345</v>
       </c>
-      <c r="C139" s="12" t="s">
+      <c r="C139" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D139" s="12" t="s">
+      <c r="D139" s="25" t="s">
         <v>402</v>
       </c>
       <c r="E139" s="8">
@@ -4523,10 +8032,10 @@
       <c r="H139" s="8"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="32"/>
-      <c r="B140" s="12"/>
-      <c r="C140" s="12"/>
-      <c r="D140" s="12"/>
+      <c r="A140" s="16"/>
+      <c r="B140" s="25"/>
+      <c r="C140" s="25"/>
+      <c r="D140" s="25"/>
       <c r="E140" s="8">
         <v>2</v>
       </c>
@@ -4537,10 +8046,10 @@
       <c r="H140" s="8"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="32"/>
-      <c r="B141" s="14"/>
-      <c r="C141" s="14"/>
-      <c r="D141" s="14"/>
+      <c r="A141" s="16"/>
+      <c r="B141" s="26"/>
+      <c r="C141" s="26"/>
+      <c r="D141" s="26"/>
       <c r="E141" s="3">
         <v>3</v>
       </c>
@@ -4555,14 +8064,14 @@
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="32"/>
-      <c r="B142" s="13" t="s">
+      <c r="A142" s="16"/>
+      <c r="B142" s="27" t="s">
         <v>316</v>
       </c>
-      <c r="C142" s="13" t="s">
+      <c r="C142" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D142" s="13" t="s">
+      <c r="D142" s="27" t="s">
         <v>382</v>
       </c>
       <c r="E142" s="3">
@@ -4573,10 +8082,10 @@
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="32"/>
-      <c r="B143" s="12"/>
-      <c r="C143" s="12"/>
-      <c r="D143" s="12"/>
+      <c r="A143" s="16"/>
+      <c r="B143" s="25"/>
+      <c r="C143" s="25"/>
+      <c r="D143" s="25"/>
       <c r="E143" s="3">
         <v>2</v>
       </c>
@@ -4585,10 +8094,10 @@
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="32"/>
-      <c r="B144" s="14"/>
-      <c r="C144" s="14"/>
-      <c r="D144" s="14"/>
+      <c r="A144" s="16"/>
+      <c r="B144" s="26"/>
+      <c r="C144" s="26"/>
+      <c r="D144" s="26"/>
       <c r="E144" s="3">
         <v>3</v>
       </c>
@@ -4603,14 +8112,14 @@
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="32"/>
-      <c r="B145" s="13" t="s">
+      <c r="A145" s="16"/>
+      <c r="B145" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="C145" s="13" t="s">
+      <c r="C145" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D145" s="13" t="s">
+      <c r="D145" s="27" t="s">
         <v>383</v>
       </c>
       <c r="E145" s="3">
@@ -4621,10 +8130,10 @@
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="32"/>
-      <c r="B146" s="12"/>
-      <c r="C146" s="12"/>
-      <c r="D146" s="12"/>
+      <c r="A146" s="16"/>
+      <c r="B146" s="25"/>
+      <c r="C146" s="25"/>
+      <c r="D146" s="25"/>
       <c r="E146" s="3">
         <v>2</v>
       </c>
@@ -4633,10 +8142,10 @@
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="32"/>
-      <c r="B147" s="14"/>
-      <c r="C147" s="14"/>
-      <c r="D147" s="14"/>
+      <c r="A147" s="16"/>
+      <c r="B147" s="26"/>
+      <c r="C147" s="26"/>
+      <c r="D147" s="26"/>
       <c r="E147" s="3">
         <v>3</v>
       </c>
@@ -4651,14 +8160,14 @@
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="32"/>
-      <c r="B148" s="13" t="s">
+      <c r="A148" s="16"/>
+      <c r="B148" s="27" t="s">
         <v>335</v>
       </c>
-      <c r="C148" s="13" t="s">
+      <c r="C148" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D148" s="13" t="s">
+      <c r="D148" s="27" t="s">
         <v>384</v>
       </c>
       <c r="E148" s="3">
@@ -4669,10 +8178,10 @@
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="32"/>
-      <c r="B149" s="12"/>
-      <c r="C149" s="12"/>
-      <c r="D149" s="12"/>
+      <c r="A149" s="16"/>
+      <c r="B149" s="25"/>
+      <c r="C149" s="25"/>
+      <c r="D149" s="25"/>
       <c r="E149" s="3">
         <v>2</v>
       </c>
@@ -4681,10 +8190,10 @@
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="32"/>
-      <c r="B150" s="14"/>
-      <c r="C150" s="14"/>
-      <c r="D150" s="14"/>
+      <c r="A150" s="16"/>
+      <c r="B150" s="26"/>
+      <c r="C150" s="26"/>
+      <c r="D150" s="26"/>
       <c r="E150" s="3">
         <v>3</v>
       </c>
@@ -4699,14 +8208,14 @@
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="32"/>
-      <c r="B151" s="15" t="s">
+      <c r="A151" s="16"/>
+      <c r="B151" s="24" t="s">
         <v>466</v>
       </c>
-      <c r="C151" s="15" t="s">
+      <c r="C151" s="24" t="s">
         <v>388</v>
       </c>
-      <c r="D151" s="13" t="s">
+      <c r="D151" s="27" t="s">
         <v>389</v>
       </c>
       <c r="E151" s="2">
@@ -4723,10 +8232,10 @@
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="32"/>
-      <c r="B152" s="11"/>
-      <c r="C152" s="12"/>
-      <c r="D152" s="12"/>
+      <c r="A152" s="16"/>
+      <c r="B152" s="28"/>
+      <c r="C152" s="25"/>
+      <c r="D152" s="25"/>
       <c r="E152" s="2">
         <v>2</v>
       </c>
@@ -4735,10 +8244,10 @@
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" s="32"/>
-      <c r="B153" s="11"/>
-      <c r="C153" s="14"/>
-      <c r="D153" s="14"/>
+      <c r="A153" s="16"/>
+      <c r="B153" s="28"/>
+      <c r="C153" s="26"/>
+      <c r="D153" s="26"/>
       <c r="E153" s="2">
         <v>3</v>
       </c>
@@ -4747,12 +8256,12 @@
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="32"/>
-      <c r="B154" s="11"/>
-      <c r="C154" s="15" t="s">
+      <c r="A154" s="16"/>
+      <c r="B154" s="28"/>
+      <c r="C154" s="24" t="s">
         <v>388</v>
       </c>
-      <c r="D154" s="13" t="s">
+      <c r="D154" s="27" t="s">
         <v>389</v>
       </c>
       <c r="E154" s="3">
@@ -4769,10 +8278,10 @@
       </c>
     </row>
     <row r="155" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="32"/>
-      <c r="B155" s="11"/>
-      <c r="C155" s="12"/>
-      <c r="D155" s="12"/>
+      <c r="A155" s="16"/>
+      <c r="B155" s="28"/>
+      <c r="C155" s="25"/>
+      <c r="D155" s="25"/>
       <c r="E155" s="3">
         <v>2</v>
       </c>
@@ -4781,10 +8290,10 @@
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="32"/>
-      <c r="B156" s="11"/>
-      <c r="C156" s="14"/>
-      <c r="D156" s="14"/>
+      <c r="A156" s="16"/>
+      <c r="B156" s="28"/>
+      <c r="C156" s="26"/>
+      <c r="D156" s="26"/>
       <c r="E156" s="3">
         <v>3</v>
       </c>
@@ -4793,12 +8302,12 @@
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="32"/>
-      <c r="B157" s="11"/>
-      <c r="C157" s="15" t="s">
+      <c r="A157" s="16"/>
+      <c r="B157" s="28"/>
+      <c r="C157" s="24" t="s">
         <v>388</v>
       </c>
-      <c r="D157" s="13" t="s">
+      <c r="D157" s="27" t="s">
         <v>389</v>
       </c>
       <c r="E157" s="3">
@@ -4815,10 +8324,10 @@
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="32"/>
-      <c r="B158" s="11"/>
-      <c r="C158" s="12"/>
-      <c r="D158" s="12"/>
+      <c r="A158" s="16"/>
+      <c r="B158" s="28"/>
+      <c r="C158" s="25"/>
+      <c r="D158" s="25"/>
       <c r="E158" s="3">
         <v>2</v>
       </c>
@@ -4827,10 +8336,10 @@
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="32"/>
-      <c r="B159" s="11"/>
-      <c r="C159" s="14"/>
-      <c r="D159" s="14"/>
+      <c r="A159" s="16"/>
+      <c r="B159" s="28"/>
+      <c r="C159" s="26"/>
+      <c r="D159" s="26"/>
       <c r="E159" s="3">
         <v>3</v>
       </c>
@@ -4839,12 +8348,12 @@
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" s="32"/>
-      <c r="B160" s="11"/>
-      <c r="C160" s="15" t="s">
+      <c r="A160" s="16"/>
+      <c r="B160" s="28"/>
+      <c r="C160" s="24" t="s">
         <v>388</v>
       </c>
-      <c r="D160" s="13" t="s">
+      <c r="D160" s="27" t="s">
         <v>389</v>
       </c>
       <c r="E160" s="3">
@@ -4861,10 +8370,10 @@
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" s="32"/>
-      <c r="B161" s="11"/>
-      <c r="C161" s="12"/>
-      <c r="D161" s="12"/>
+      <c r="A161" s="16"/>
+      <c r="B161" s="28"/>
+      <c r="C161" s="25"/>
+      <c r="D161" s="25"/>
       <c r="E161" s="3">
         <v>2</v>
       </c>
@@ -4873,10 +8382,10 @@
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" s="32"/>
-      <c r="B162" s="11"/>
-      <c r="C162" s="14"/>
-      <c r="D162" s="14"/>
+      <c r="A162" s="16"/>
+      <c r="B162" s="28"/>
+      <c r="C162" s="26"/>
+      <c r="D162" s="26"/>
       <c r="E162" s="3">
         <v>3</v>
       </c>
@@ -4885,12 +8394,12 @@
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163" s="32"/>
-      <c r="B163" s="11"/>
-      <c r="C163" s="15" t="s">
+      <c r="A163" s="16"/>
+      <c r="B163" s="28"/>
+      <c r="C163" s="24" t="s">
         <v>388</v>
       </c>
-      <c r="D163" s="13" t="s">
+      <c r="D163" s="27" t="s">
         <v>389</v>
       </c>
       <c r="E163" s="3">
@@ -4907,10 +8416,10 @@
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164" s="32"/>
-      <c r="B164" s="11"/>
-      <c r="C164" s="12"/>
-      <c r="D164" s="12"/>
+      <c r="A164" s="16"/>
+      <c r="B164" s="28"/>
+      <c r="C164" s="25"/>
+      <c r="D164" s="25"/>
       <c r="E164" s="3">
         <v>2</v>
       </c>
@@ -4919,10 +8428,10 @@
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165" s="32"/>
-      <c r="B165" s="11"/>
-      <c r="C165" s="14"/>
-      <c r="D165" s="14"/>
+      <c r="A165" s="16"/>
+      <c r="B165" s="28"/>
+      <c r="C165" s="26"/>
+      <c r="D165" s="26"/>
       <c r="E165" s="3">
         <v>3</v>
       </c>
@@ -4931,12 +8440,12 @@
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" s="32"/>
-      <c r="B166" s="11"/>
-      <c r="C166" s="15" t="s">
+      <c r="A166" s="16"/>
+      <c r="B166" s="28"/>
+      <c r="C166" s="24" t="s">
         <v>388</v>
       </c>
-      <c r="D166" s="13" t="s">
+      <c r="D166" s="27" t="s">
         <v>389</v>
       </c>
       <c r="E166" s="3">
@@ -4953,10 +8462,10 @@
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167" s="32"/>
-      <c r="B167" s="11"/>
-      <c r="C167" s="12"/>
-      <c r="D167" s="12"/>
+      <c r="A167" s="16"/>
+      <c r="B167" s="28"/>
+      <c r="C167" s="25"/>
+      <c r="D167" s="25"/>
       <c r="E167" s="3">
         <v>2</v>
       </c>
@@ -4965,10 +8474,10 @@
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A168" s="32"/>
-      <c r="B168" s="11"/>
-      <c r="C168" s="14"/>
-      <c r="D168" s="14"/>
+      <c r="A168" s="16"/>
+      <c r="B168" s="28"/>
+      <c r="C168" s="26"/>
+      <c r="D168" s="26"/>
       <c r="E168" s="3">
         <v>3</v>
       </c>
@@ -4977,12 +8486,12 @@
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169" s="32"/>
-      <c r="B169" s="11"/>
-      <c r="C169" s="15" t="s">
+      <c r="A169" s="16"/>
+      <c r="B169" s="28"/>
+      <c r="C169" s="24" t="s">
         <v>388</v>
       </c>
-      <c r="D169" s="13" t="s">
+      <c r="D169" s="27" t="s">
         <v>389</v>
       </c>
       <c r="E169" s="3">
@@ -4999,10 +8508,10 @@
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A170" s="32"/>
-      <c r="B170" s="11"/>
-      <c r="C170" s="12"/>
-      <c r="D170" s="12"/>
+      <c r="A170" s="16"/>
+      <c r="B170" s="28"/>
+      <c r="C170" s="25"/>
+      <c r="D170" s="25"/>
       <c r="E170" s="3">
         <v>2</v>
       </c>
@@ -5011,10 +8520,10 @@
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A171" s="32"/>
-      <c r="B171" s="11"/>
-      <c r="C171" s="14"/>
-      <c r="D171" s="14"/>
+      <c r="A171" s="16"/>
+      <c r="B171" s="28"/>
+      <c r="C171" s="26"/>
+      <c r="D171" s="26"/>
       <c r="E171" s="3">
         <v>3</v>
       </c>
@@ -5023,12 +8532,12 @@
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172" s="32"/>
-      <c r="B172" s="11"/>
-      <c r="C172" s="15" t="s">
+      <c r="A172" s="16"/>
+      <c r="B172" s="28"/>
+      <c r="C172" s="24" t="s">
         <v>388</v>
       </c>
-      <c r="D172" s="13" t="s">
+      <c r="D172" s="27" t="s">
         <v>389</v>
       </c>
       <c r="E172" s="3">
@@ -5045,10 +8554,10 @@
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A173" s="32"/>
-      <c r="B173" s="11"/>
-      <c r="C173" s="12"/>
-      <c r="D173" s="12"/>
+      <c r="A173" s="16"/>
+      <c r="B173" s="28"/>
+      <c r="C173" s="25"/>
+      <c r="D173" s="25"/>
       <c r="E173" s="3">
         <v>2</v>
       </c>
@@ -5057,10 +8566,10 @@
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A174" s="32"/>
-      <c r="B174" s="11"/>
-      <c r="C174" s="14"/>
-      <c r="D174" s="14"/>
+      <c r="A174" s="16"/>
+      <c r="B174" s="28"/>
+      <c r="C174" s="26"/>
+      <c r="D174" s="26"/>
       <c r="E174" s="3">
         <v>3</v>
       </c>
@@ -5069,12 +8578,12 @@
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A175" s="32"/>
-      <c r="B175" s="11"/>
-      <c r="C175" s="15" t="s">
+      <c r="A175" s="16"/>
+      <c r="B175" s="28"/>
+      <c r="C175" s="24" t="s">
         <v>388</v>
       </c>
-      <c r="D175" s="13" t="s">
+      <c r="D175" s="27" t="s">
         <v>389</v>
       </c>
       <c r="E175" s="3">
@@ -5091,10 +8600,10 @@
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A176" s="32"/>
-      <c r="B176" s="11"/>
-      <c r="C176" s="12"/>
-      <c r="D176" s="12"/>
+      <c r="A176" s="16"/>
+      <c r="B176" s="28"/>
+      <c r="C176" s="25"/>
+      <c r="D176" s="25"/>
       <c r="E176" s="3">
         <v>2</v>
       </c>
@@ -5103,10 +8612,10 @@
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A177" s="32"/>
-      <c r="B177" s="11"/>
-      <c r="C177" s="14"/>
-      <c r="D177" s="14"/>
+      <c r="A177" s="16"/>
+      <c r="B177" s="28"/>
+      <c r="C177" s="26"/>
+      <c r="D177" s="26"/>
       <c r="E177" s="3">
         <v>3</v>
       </c>
@@ -5115,12 +8624,12 @@
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A178" s="32"/>
-      <c r="B178" s="11"/>
-      <c r="C178" s="15" t="s">
+      <c r="A178" s="16"/>
+      <c r="B178" s="28"/>
+      <c r="C178" s="24" t="s">
         <v>388</v>
       </c>
-      <c r="D178" s="13" t="s">
+      <c r="D178" s="27" t="s">
         <v>389</v>
       </c>
       <c r="E178" s="3">
@@ -5137,10 +8646,10 @@
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A179" s="32"/>
-      <c r="B179" s="11"/>
-      <c r="C179" s="11"/>
-      <c r="D179" s="12"/>
+      <c r="A179" s="16"/>
+      <c r="B179" s="28"/>
+      <c r="C179" s="28"/>
+      <c r="D179" s="25"/>
       <c r="E179" s="9">
         <v>2</v>
       </c>
@@ -5151,10 +8660,10 @@
       <c r="H179" s="9"/>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A180" s="32"/>
-      <c r="B180" s="11"/>
-      <c r="C180" s="11"/>
-      <c r="D180" s="12"/>
+      <c r="A180" s="16"/>
+      <c r="B180" s="28"/>
+      <c r="C180" s="28"/>
+      <c r="D180" s="25"/>
       <c r="E180" s="9">
         <v>3</v>
       </c>
@@ -5163,14 +8672,14 @@
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A181" s="32"/>
-      <c r="B181" s="11" t="s">
+      <c r="A181" s="16"/>
+      <c r="B181" s="28" t="s">
         <v>465</v>
       </c>
-      <c r="C181" s="12" t="s">
+      <c r="C181" s="25" t="s">
         <v>467</v>
       </c>
-      <c r="D181" s="12"/>
+      <c r="D181" s="25"/>
       <c r="E181" s="9">
         <v>1</v>
       </c>
@@ -5185,10 +8694,10 @@
       </c>
     </row>
     <row r="182" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="32"/>
-      <c r="B182" s="11"/>
-      <c r="C182" s="12"/>
-      <c r="D182" s="12"/>
+      <c r="A182" s="16"/>
+      <c r="B182" s="28"/>
+      <c r="C182" s="25"/>
+      <c r="D182" s="25"/>
       <c r="E182" s="9">
         <v>2</v>
       </c>
@@ -5203,10 +8712,10 @@
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A183" s="32"/>
-      <c r="B183" s="11"/>
-      <c r="C183" s="12"/>
-      <c r="D183" s="12"/>
+      <c r="A183" s="16"/>
+      <c r="B183" s="28"/>
+      <c r="C183" s="25"/>
+      <c r="D183" s="25"/>
       <c r="E183" s="9">
         <v>3</v>
       </c>
@@ -5221,14 +8730,14 @@
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A184" s="32"/>
+      <c r="A184" s="16"/>
       <c r="B184" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="C184" s="13" t="s">
+      <c r="C184" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="D184" s="13" t="s">
+      <c r="D184" s="27" t="s">
         <v>407</v>
       </c>
       <c r="E184" s="2">
@@ -5245,12 +8754,12 @@
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A185" s="32"/>
+      <c r="A185" s="16"/>
       <c r="B185" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="C185" s="12"/>
-      <c r="D185" s="12"/>
+      <c r="C185" s="25"/>
+      <c r="D185" s="25"/>
       <c r="E185" s="2">
         <v>2</v>
       </c>
@@ -5265,12 +8774,12 @@
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A186" s="32"/>
+      <c r="A186" s="16"/>
       <c r="B186" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="C186" s="12"/>
-      <c r="D186" s="12"/>
+      <c r="C186" s="25"/>
+      <c r="D186" s="25"/>
       <c r="E186" s="2">
         <v>3</v>
       </c>
@@ -5285,12 +8794,12 @@
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A187" s="32"/>
+      <c r="A187" s="16"/>
       <c r="B187" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C187" s="12"/>
-      <c r="D187" s="12"/>
+      <c r="C187" s="25"/>
+      <c r="D187" s="25"/>
       <c r="E187" s="2">
         <v>4</v>
       </c>
@@ -5299,12 +8808,12 @@
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A188" s="32"/>
+      <c r="A188" s="16"/>
       <c r="B188" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="C188" s="12"/>
-      <c r="D188" s="12"/>
+      <c r="C188" s="25"/>
+      <c r="D188" s="25"/>
       <c r="E188" s="2">
         <v>5</v>
       </c>
@@ -5319,12 +8828,12 @@
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A189" s="33"/>
+      <c r="A189" s="17"/>
       <c r="B189" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="C189" s="14"/>
-      <c r="D189" s="14"/>
+      <c r="C189" s="26"/>
+      <c r="D189" s="26"/>
       <c r="E189" s="2">
         <v>6</v>
       </c>
@@ -5339,16 +8848,16 @@
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A190" s="34" t="s">
+      <c r="A190" s="21" t="s">
         <v>496</v>
       </c>
-      <c r="B190" s="15" t="s">
+      <c r="B190" s="24" t="s">
         <v>424</v>
       </c>
-      <c r="C190" s="15" t="s">
+      <c r="C190" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D190" s="13" t="s">
+      <c r="D190" s="27" t="s">
         <v>89</v>
       </c>
       <c r="E190" s="3">
@@ -5359,10 +8868,10 @@
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A191" s="35"/>
-      <c r="B191" s="12"/>
-      <c r="C191" s="12"/>
-      <c r="D191" s="12"/>
+      <c r="A191" s="22"/>
+      <c r="B191" s="25"/>
+      <c r="C191" s="25"/>
+      <c r="D191" s="25"/>
       <c r="E191" s="3">
         <v>2</v>
       </c>
@@ -5377,10 +8886,10 @@
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A192" s="35"/>
-      <c r="B192" s="12"/>
-      <c r="C192" s="12"/>
-      <c r="D192" s="12"/>
+      <c r="A192" s="22"/>
+      <c r="B192" s="25"/>
+      <c r="C192" s="25"/>
+      <c r="D192" s="25"/>
       <c r="E192" s="3">
         <v>3</v>
       </c>
@@ -5395,10 +8904,10 @@
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A193" s="35"/>
-      <c r="B193" s="14"/>
-      <c r="C193" s="14"/>
-      <c r="D193" s="14"/>
+      <c r="A193" s="22"/>
+      <c r="B193" s="26"/>
+      <c r="C193" s="26"/>
+      <c r="D193" s="26"/>
       <c r="E193" s="3">
         <v>4</v>
       </c>
@@ -5407,14 +8916,14 @@
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A194" s="35"/>
-      <c r="B194" s="15" t="s">
+      <c r="A194" s="22"/>
+      <c r="B194" s="24" t="s">
         <v>425</v>
       </c>
-      <c r="C194" s="15" t="s">
+      <c r="C194" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D194" s="13" t="s">
+      <c r="D194" s="27" t="s">
         <v>94</v>
       </c>
       <c r="E194" s="3">
@@ -5427,10 +8936,10 @@
       <c r="H194" s="3"/>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A195" s="35"/>
-      <c r="B195" s="12"/>
-      <c r="C195" s="12"/>
-      <c r="D195" s="12"/>
+      <c r="A195" s="22"/>
+      <c r="B195" s="25"/>
+      <c r="C195" s="25"/>
+      <c r="D195" s="25"/>
       <c r="E195" s="3">
         <v>2</v>
       </c>
@@ -5445,10 +8954,10 @@
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A196" s="35"/>
-      <c r="B196" s="12"/>
-      <c r="C196" s="12"/>
-      <c r="D196" s="12"/>
+      <c r="A196" s="22"/>
+      <c r="B196" s="25"/>
+      <c r="C196" s="25"/>
+      <c r="D196" s="25"/>
       <c r="E196" s="3">
         <v>3</v>
       </c>
@@ -5463,10 +8972,10 @@
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A197" s="35"/>
-      <c r="B197" s="14"/>
-      <c r="C197" s="14"/>
-      <c r="D197" s="14"/>
+      <c r="A197" s="22"/>
+      <c r="B197" s="26"/>
+      <c r="C197" s="26"/>
+      <c r="D197" s="26"/>
       <c r="E197" s="3">
         <v>4</v>
       </c>
@@ -5477,14 +8986,14 @@
       <c r="H197" s="3"/>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A198" s="35"/>
-      <c r="B198" s="15" t="s">
+      <c r="A198" s="22"/>
+      <c r="B198" s="24" t="s">
         <v>426</v>
       </c>
-      <c r="C198" s="15" t="s">
+      <c r="C198" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D198" s="13" t="s">
+      <c r="D198" s="27" t="s">
         <v>95</v>
       </c>
       <c r="E198" s="3">
@@ -5497,10 +9006,10 @@
       <c r="H198" s="3"/>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A199" s="35"/>
-      <c r="B199" s="12"/>
-      <c r="C199" s="12"/>
-      <c r="D199" s="12"/>
+      <c r="A199" s="22"/>
+      <c r="B199" s="25"/>
+      <c r="C199" s="25"/>
+      <c r="D199" s="25"/>
       <c r="E199" s="3">
         <v>2</v>
       </c>
@@ -5515,10 +9024,10 @@
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A200" s="35"/>
-      <c r="B200" s="12"/>
-      <c r="C200" s="12"/>
-      <c r="D200" s="12"/>
+      <c r="A200" s="22"/>
+      <c r="B200" s="25"/>
+      <c r="C200" s="25"/>
+      <c r="D200" s="25"/>
       <c r="E200" s="3">
         <v>3</v>
       </c>
@@ -5533,10 +9042,10 @@
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A201" s="35"/>
-      <c r="B201" s="14"/>
-      <c r="C201" s="14"/>
-      <c r="D201" s="14"/>
+      <c r="A201" s="22"/>
+      <c r="B201" s="26"/>
+      <c r="C201" s="26"/>
+      <c r="D201" s="26"/>
       <c r="E201" s="3">
         <v>4</v>
       </c>
@@ -5547,14 +9056,14 @@
       <c r="H201" s="3"/>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A202" s="35"/>
-      <c r="B202" s="15" t="s">
+      <c r="A202" s="22"/>
+      <c r="B202" s="24" t="s">
         <v>427</v>
       </c>
-      <c r="C202" s="15" t="s">
+      <c r="C202" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D202" s="13" t="s">
+      <c r="D202" s="27" t="s">
         <v>96</v>
       </c>
       <c r="E202" s="3">
@@ -5567,10 +9076,10 @@
       <c r="H202" s="3"/>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A203" s="35"/>
-      <c r="B203" s="12"/>
-      <c r="C203" s="12"/>
-      <c r="D203" s="12"/>
+      <c r="A203" s="22"/>
+      <c r="B203" s="25"/>
+      <c r="C203" s="25"/>
+      <c r="D203" s="25"/>
       <c r="E203" s="3">
         <v>2</v>
       </c>
@@ -5585,10 +9094,10 @@
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A204" s="35"/>
-      <c r="B204" s="12"/>
-      <c r="C204" s="12"/>
-      <c r="D204" s="12"/>
+      <c r="A204" s="22"/>
+      <c r="B204" s="25"/>
+      <c r="C204" s="25"/>
+      <c r="D204" s="25"/>
       <c r="E204" s="3">
         <v>3</v>
       </c>
@@ -5603,10 +9112,10 @@
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A205" s="35"/>
-      <c r="B205" s="14"/>
-      <c r="C205" s="14"/>
-      <c r="D205" s="14"/>
+      <c r="A205" s="22"/>
+      <c r="B205" s="26"/>
+      <c r="C205" s="26"/>
+      <c r="D205" s="26"/>
       <c r="E205" s="3">
         <v>4</v>
       </c>
@@ -5617,14 +9126,14 @@
       <c r="H205" s="3"/>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A206" s="35"/>
-      <c r="B206" s="15" t="s">
+      <c r="A206" s="22"/>
+      <c r="B206" s="24" t="s">
         <v>428</v>
       </c>
-      <c r="C206" s="15" t="s">
+      <c r="C206" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D206" s="13" t="s">
+      <c r="D206" s="27" t="s">
         <v>97</v>
       </c>
       <c r="E206" s="3">
@@ -5637,10 +9146,10 @@
       <c r="H206" s="3"/>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A207" s="35"/>
-      <c r="B207" s="12"/>
-      <c r="C207" s="12"/>
-      <c r="D207" s="12"/>
+      <c r="A207" s="22"/>
+      <c r="B207" s="25"/>
+      <c r="C207" s="25"/>
+      <c r="D207" s="25"/>
       <c r="E207" s="3">
         <v>2</v>
       </c>
@@ -5655,10 +9164,10 @@
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A208" s="35"/>
-      <c r="B208" s="12"/>
-      <c r="C208" s="12"/>
-      <c r="D208" s="12"/>
+      <c r="A208" s="22"/>
+      <c r="B208" s="25"/>
+      <c r="C208" s="25"/>
+      <c r="D208" s="25"/>
       <c r="E208" s="3">
         <v>3</v>
       </c>
@@ -5668,18 +9177,18 @@
       <c r="G208" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H208" s="37" t="s">
+      <c r="H208" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="I208" s="38" t="s">
+      <c r="I208" s="14" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A209" s="35"/>
-      <c r="B209" s="14"/>
-      <c r="C209" s="14"/>
-      <c r="D209" s="14"/>
+      <c r="A209" s="22"/>
+      <c r="B209" s="26"/>
+      <c r="C209" s="26"/>
+      <c r="D209" s="26"/>
       <c r="E209" s="3">
         <v>4</v>
       </c>
@@ -5690,14 +9199,14 @@
       <c r="H209" s="3"/>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A210" s="35"/>
-      <c r="B210" s="15" t="s">
+      <c r="A210" s="22"/>
+      <c r="B210" s="24" t="s">
         <v>429</v>
       </c>
-      <c r="C210" s="15" t="s">
+      <c r="C210" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D210" s="13" t="s">
+      <c r="D210" s="27" t="s">
         <v>89</v>
       </c>
       <c r="E210" s="3">
@@ -5710,10 +9219,10 @@
       <c r="H210" s="3"/>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A211" s="35"/>
-      <c r="B211" s="12"/>
-      <c r="C211" s="12"/>
-      <c r="D211" s="12"/>
+      <c r="A211" s="22"/>
+      <c r="B211" s="25"/>
+      <c r="C211" s="25"/>
+      <c r="D211" s="25"/>
       <c r="E211" s="3">
         <v>2</v>
       </c>
@@ -5728,10 +9237,10 @@
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A212" s="35"/>
-      <c r="B212" s="12"/>
-      <c r="C212" s="12"/>
-      <c r="D212" s="12"/>
+      <c r="A212" s="22"/>
+      <c r="B212" s="25"/>
+      <c r="C212" s="25"/>
+      <c r="D212" s="25"/>
       <c r="E212" s="3">
         <v>3</v>
       </c>
@@ -5746,10 +9255,10 @@
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A213" s="35"/>
-      <c r="B213" s="14"/>
-      <c r="C213" s="14"/>
-      <c r="D213" s="14"/>
+      <c r="A213" s="22"/>
+      <c r="B213" s="26"/>
+      <c r="C213" s="26"/>
+      <c r="D213" s="26"/>
       <c r="E213" s="3">
         <v>4</v>
       </c>
@@ -5760,14 +9269,14 @@
       <c r="H213" s="3"/>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A214" s="35"/>
-      <c r="B214" s="15" t="s">
+      <c r="A214" s="22"/>
+      <c r="B214" s="24" t="s">
         <v>430</v>
       </c>
-      <c r="C214" s="15" t="s">
+      <c r="C214" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D214" s="13" t="s">
+      <c r="D214" s="27" t="s">
         <v>89</v>
       </c>
       <c r="E214" s="3">
@@ -5778,10 +9287,10 @@
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A215" s="35"/>
-      <c r="B215" s="12"/>
-      <c r="C215" s="12"/>
-      <c r="D215" s="12"/>
+      <c r="A215" s="22"/>
+      <c r="B215" s="25"/>
+      <c r="C215" s="25"/>
+      <c r="D215" s="25"/>
       <c r="E215" s="3">
         <v>2</v>
       </c>
@@ -5796,10 +9305,10 @@
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A216" s="35"/>
-      <c r="B216" s="12"/>
-      <c r="C216" s="12"/>
-      <c r="D216" s="12"/>
+      <c r="A216" s="22"/>
+      <c r="B216" s="25"/>
+      <c r="C216" s="25"/>
+      <c r="D216" s="25"/>
       <c r="E216" s="3">
         <v>3</v>
       </c>
@@ -5814,10 +9323,10 @@
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A217" s="35"/>
-      <c r="B217" s="14"/>
-      <c r="C217" s="14"/>
-      <c r="D217" s="14"/>
+      <c r="A217" s="22"/>
+      <c r="B217" s="26"/>
+      <c r="C217" s="26"/>
+      <c r="D217" s="26"/>
       <c r="E217" s="3">
         <v>4</v>
       </c>
@@ -5826,14 +9335,14 @@
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A218" s="35"/>
-      <c r="B218" s="15" t="s">
+      <c r="A218" s="22"/>
+      <c r="B218" s="24" t="s">
         <v>431</v>
       </c>
-      <c r="C218" s="15" t="s">
+      <c r="C218" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D218" s="13" t="s">
+      <c r="D218" s="27" t="s">
         <v>89</v>
       </c>
       <c r="E218" s="3">
@@ -5844,10 +9353,10 @@
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A219" s="35"/>
-      <c r="B219" s="12"/>
-      <c r="C219" s="12"/>
-      <c r="D219" s="12"/>
+      <c r="A219" s="22"/>
+      <c r="B219" s="25"/>
+      <c r="C219" s="25"/>
+      <c r="D219" s="25"/>
       <c r="E219" s="3">
         <v>2</v>
       </c>
@@ -5862,10 +9371,10 @@
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A220" s="35"/>
-      <c r="B220" s="12"/>
-      <c r="C220" s="12"/>
-      <c r="D220" s="12"/>
+      <c r="A220" s="22"/>
+      <c r="B220" s="25"/>
+      <c r="C220" s="25"/>
+      <c r="D220" s="25"/>
       <c r="E220" s="3">
         <v>3</v>
       </c>
@@ -5880,10 +9389,10 @@
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A221" s="35"/>
-      <c r="B221" s="14"/>
-      <c r="C221" s="14"/>
-      <c r="D221" s="14"/>
+      <c r="A221" s="22"/>
+      <c r="B221" s="26"/>
+      <c r="C221" s="26"/>
+      <c r="D221" s="26"/>
       <c r="E221" s="3">
         <v>4</v>
       </c>
@@ -5892,14 +9401,14 @@
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A222" s="35"/>
-      <c r="B222" s="15" t="s">
+      <c r="A222" s="22"/>
+      <c r="B222" s="24" t="s">
         <v>438</v>
       </c>
-      <c r="C222" s="15" t="s">
+      <c r="C222" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D222" s="13" t="s">
+      <c r="D222" s="27" t="s">
         <v>75</v>
       </c>
       <c r="E222" s="2">
@@ -5910,10 +9419,10 @@
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A223" s="35"/>
-      <c r="B223" s="12"/>
-      <c r="C223" s="12"/>
-      <c r="D223" s="12"/>
+      <c r="A223" s="22"/>
+      <c r="B223" s="25"/>
+      <c r="C223" s="25"/>
+      <c r="D223" s="25"/>
       <c r="E223" s="2">
         <v>2</v>
       </c>
@@ -5922,10 +9431,10 @@
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A224" s="35"/>
-      <c r="B224" s="12"/>
-      <c r="C224" s="12"/>
-      <c r="D224" s="12"/>
+      <c r="A224" s="22"/>
+      <c r="B224" s="25"/>
+      <c r="C224" s="25"/>
+      <c r="D224" s="25"/>
       <c r="E224" s="2">
         <v>3</v>
       </c>
@@ -5940,10 +9449,10 @@
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A225" s="35"/>
-      <c r="B225" s="14"/>
-      <c r="C225" s="14"/>
-      <c r="D225" s="14"/>
+      <c r="A225" s="22"/>
+      <c r="B225" s="26"/>
+      <c r="C225" s="26"/>
+      <c r="D225" s="26"/>
       <c r="E225" s="2">
         <v>4</v>
       </c>
@@ -5958,14 +9467,14 @@
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A226" s="35"/>
-      <c r="B226" s="15" t="s">
+      <c r="A226" s="22"/>
+      <c r="B226" s="24" t="s">
         <v>439</v>
       </c>
-      <c r="C226" s="15" t="s">
+      <c r="C226" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D226" s="13" t="s">
+      <c r="D226" s="27" t="s">
         <v>78</v>
       </c>
       <c r="E226" s="3">
@@ -5978,10 +9487,10 @@
       <c r="H226" s="3"/>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A227" s="35"/>
-      <c r="B227" s="12"/>
-      <c r="C227" s="12"/>
-      <c r="D227" s="12"/>
+      <c r="A227" s="22"/>
+      <c r="B227" s="25"/>
+      <c r="C227" s="25"/>
+      <c r="D227" s="25"/>
       <c r="E227" s="3">
         <v>2</v>
       </c>
@@ -5992,10 +9501,10 @@
       <c r="H227" s="3"/>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A228" s="35"/>
-      <c r="B228" s="12"/>
-      <c r="C228" s="12"/>
-      <c r="D228" s="12"/>
+      <c r="A228" s="22"/>
+      <c r="B228" s="25"/>
+      <c r="C228" s="25"/>
+      <c r="D228" s="25"/>
       <c r="E228" s="3">
         <v>3</v>
       </c>
@@ -6005,18 +9514,18 @@
       <c r="G228" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H228" s="37" t="s">
+      <c r="H228" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="I228" s="38" t="s">
+      <c r="I228" s="14" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A229" s="35"/>
-      <c r="B229" s="14"/>
-      <c r="C229" s="14"/>
-      <c r="D229" s="14"/>
+      <c r="A229" s="22"/>
+      <c r="B229" s="26"/>
+      <c r="C229" s="26"/>
+      <c r="D229" s="26"/>
       <c r="E229" s="3">
         <v>4</v>
       </c>
@@ -6031,14 +9540,14 @@
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A230" s="35"/>
-      <c r="B230" s="15" t="s">
+      <c r="A230" s="22"/>
+      <c r="B230" s="24" t="s">
         <v>440</v>
       </c>
-      <c r="C230" s="15" t="s">
+      <c r="C230" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D230" s="13" t="s">
+      <c r="D230" s="27" t="s">
         <v>79</v>
       </c>
       <c r="E230" s="3">
@@ -6051,10 +9560,10 @@
       <c r="H230" s="3"/>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A231" s="35"/>
-      <c r="B231" s="12"/>
-      <c r="C231" s="12"/>
-      <c r="D231" s="12"/>
+      <c r="A231" s="22"/>
+      <c r="B231" s="25"/>
+      <c r="C231" s="25"/>
+      <c r="D231" s="25"/>
       <c r="E231" s="3">
         <v>2</v>
       </c>
@@ -6065,10 +9574,10 @@
       <c r="H231" s="3"/>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A232" s="35"/>
-      <c r="B232" s="12"/>
-      <c r="C232" s="12"/>
-      <c r="D232" s="12"/>
+      <c r="A232" s="22"/>
+      <c r="B232" s="25"/>
+      <c r="C232" s="25"/>
+      <c r="D232" s="25"/>
       <c r="E232" s="3">
         <v>3</v>
       </c>
@@ -6078,18 +9587,18 @@
       <c r="G232" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H232" s="37" t="s">
+      <c r="H232" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="I232" s="38" t="s">
+      <c r="I232" s="14" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A233" s="35"/>
-      <c r="B233" s="14"/>
-      <c r="C233" s="14"/>
-      <c r="D233" s="14"/>
+      <c r="A233" s="22"/>
+      <c r="B233" s="26"/>
+      <c r="C233" s="26"/>
+      <c r="D233" s="26"/>
       <c r="E233" s="3">
         <v>4</v>
       </c>
@@ -6099,22 +9608,22 @@
       <c r="G233" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H233" s="37" t="s">
+      <c r="H233" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="I233" s="38" t="s">
+      <c r="I233" s="14" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A234" s="35"/>
-      <c r="B234" s="15" t="s">
+      <c r="A234" s="22"/>
+      <c r="B234" s="24" t="s">
         <v>441</v>
       </c>
-      <c r="C234" s="15" t="s">
+      <c r="C234" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D234" s="13" t="s">
+      <c r="D234" s="27" t="s">
         <v>80</v>
       </c>
       <c r="E234" s="3">
@@ -6127,10 +9636,10 @@
       <c r="H234" s="3"/>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A235" s="35"/>
-      <c r="B235" s="12"/>
-      <c r="C235" s="12"/>
-      <c r="D235" s="12"/>
+      <c r="A235" s="22"/>
+      <c r="B235" s="25"/>
+      <c r="C235" s="25"/>
+      <c r="D235" s="25"/>
       <c r="E235" s="3">
         <v>2</v>
       </c>
@@ -6141,10 +9650,10 @@
       <c r="H235" s="3"/>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A236" s="35"/>
-      <c r="B236" s="12"/>
-      <c r="C236" s="12"/>
-      <c r="D236" s="12"/>
+      <c r="A236" s="22"/>
+      <c r="B236" s="25"/>
+      <c r="C236" s="25"/>
+      <c r="D236" s="25"/>
       <c r="E236" s="3">
         <v>3</v>
       </c>
@@ -6159,10 +9668,10 @@
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A237" s="35"/>
-      <c r="B237" s="14"/>
-      <c r="C237" s="14"/>
-      <c r="D237" s="14"/>
+      <c r="A237" s="22"/>
+      <c r="B237" s="26"/>
+      <c r="C237" s="26"/>
+      <c r="D237" s="26"/>
       <c r="E237" s="3">
         <v>4</v>
       </c>
@@ -6177,14 +9686,14 @@
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A238" s="35"/>
-      <c r="B238" s="15" t="s">
+      <c r="A238" s="22"/>
+      <c r="B238" s="24" t="s">
         <v>442</v>
       </c>
-      <c r="C238" s="15" t="s">
+      <c r="C238" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D238" s="13" t="s">
+      <c r="D238" s="27" t="s">
         <v>81</v>
       </c>
       <c r="E238" s="3">
@@ -6197,10 +9706,10 @@
       <c r="H238" s="3"/>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A239" s="35"/>
-      <c r="B239" s="12"/>
-      <c r="C239" s="12"/>
-      <c r="D239" s="12"/>
+      <c r="A239" s="22"/>
+      <c r="B239" s="25"/>
+      <c r="C239" s="25"/>
+      <c r="D239" s="25"/>
       <c r="E239" s="3">
         <v>2</v>
       </c>
@@ -6211,10 +9720,10 @@
       <c r="H239" s="3"/>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A240" s="35"/>
-      <c r="B240" s="12"/>
-      <c r="C240" s="12"/>
-      <c r="D240" s="12"/>
+      <c r="A240" s="22"/>
+      <c r="B240" s="25"/>
+      <c r="C240" s="25"/>
+      <c r="D240" s="25"/>
       <c r="E240" s="3">
         <v>3</v>
       </c>
@@ -6229,10 +9738,10 @@
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A241" s="35"/>
-      <c r="B241" s="14"/>
-      <c r="C241" s="14"/>
-      <c r="D241" s="14"/>
+      <c r="A241" s="22"/>
+      <c r="B241" s="26"/>
+      <c r="C241" s="26"/>
+      <c r="D241" s="26"/>
       <c r="E241" s="3">
         <v>4</v>
       </c>
@@ -6247,14 +9756,14 @@
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A242" s="35"/>
-      <c r="B242" s="13" t="s">
+      <c r="A242" s="22"/>
+      <c r="B242" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="C242" s="15" t="s">
+      <c r="C242" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="D242" s="13" t="s">
+      <c r="D242" s="27" t="s">
         <v>102</v>
       </c>
       <c r="E242" s="3">
@@ -6265,10 +9774,10 @@
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A243" s="35"/>
-      <c r="B243" s="12"/>
-      <c r="C243" s="11"/>
-      <c r="D243" s="12"/>
+      <c r="A243" s="22"/>
+      <c r="B243" s="25"/>
+      <c r="C243" s="28"/>
+      <c r="D243" s="25"/>
       <c r="E243" s="3">
         <v>2</v>
       </c>
@@ -6277,10 +9786,10 @@
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A244" s="35"/>
-      <c r="B244" s="12"/>
-      <c r="C244" s="11"/>
-      <c r="D244" s="12"/>
+      <c r="A244" s="22"/>
+      <c r="B244" s="25"/>
+      <c r="C244" s="28"/>
+      <c r="D244" s="25"/>
       <c r="E244" s="3">
         <v>3</v>
       </c>
@@ -6295,10 +9804,10 @@
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A245" s="35"/>
-      <c r="B245" s="12"/>
-      <c r="C245" s="11"/>
-      <c r="D245" s="12"/>
+      <c r="A245" s="22"/>
+      <c r="B245" s="25"/>
+      <c r="C245" s="28"/>
+      <c r="D245" s="25"/>
       <c r="E245" s="3">
         <v>4</v>
       </c>
@@ -6313,10 +9822,10 @@
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A246" s="35"/>
-      <c r="B246" s="14"/>
-      <c r="C246" s="16"/>
-      <c r="D246" s="14"/>
+      <c r="A246" s="22"/>
+      <c r="B246" s="26"/>
+      <c r="C246" s="29"/>
+      <c r="D246" s="26"/>
       <c r="E246" s="2">
         <v>5</v>
       </c>
@@ -6331,14 +9840,14 @@
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A247" s="35"/>
-      <c r="B247" s="13" t="s">
+      <c r="A247" s="22"/>
+      <c r="B247" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="C247" s="15" t="s">
+      <c r="C247" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="D247" s="13" t="s">
+      <c r="D247" s="27" t="s">
         <v>105</v>
       </c>
       <c r="E247" s="3">
@@ -6349,10 +9858,10 @@
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A248" s="35"/>
-      <c r="B248" s="12"/>
-      <c r="C248" s="11"/>
-      <c r="D248" s="12"/>
+      <c r="A248" s="22"/>
+      <c r="B248" s="25"/>
+      <c r="C248" s="28"/>
+      <c r="D248" s="25"/>
       <c r="E248" s="3">
         <v>2</v>
       </c>
@@ -6361,10 +9870,10 @@
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A249" s="35"/>
-      <c r="B249" s="12"/>
-      <c r="C249" s="11"/>
-      <c r="D249" s="12"/>
+      <c r="A249" s="22"/>
+      <c r="B249" s="25"/>
+      <c r="C249" s="28"/>
+      <c r="D249" s="25"/>
       <c r="E249" s="3">
         <v>3</v>
       </c>
@@ -6379,10 +9888,10 @@
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A250" s="35"/>
-      <c r="B250" s="12"/>
-      <c r="C250" s="11"/>
-      <c r="D250" s="12"/>
+      <c r="A250" s="22"/>
+      <c r="B250" s="25"/>
+      <c r="C250" s="28"/>
+      <c r="D250" s="25"/>
       <c r="E250" s="3">
         <v>4</v>
       </c>
@@ -6397,10 +9906,10 @@
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A251" s="35"/>
-      <c r="B251" s="12"/>
-      <c r="C251" s="11"/>
-      <c r="D251" s="12"/>
+      <c r="A251" s="22"/>
+      <c r="B251" s="25"/>
+      <c r="C251" s="28"/>
+      <c r="D251" s="25"/>
       <c r="E251" s="8">
         <v>5</v>
       </c>
@@ -6415,14 +9924,14 @@
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A252" s="35"/>
-      <c r="B252" s="12" t="s">
+      <c r="A252" s="22"/>
+      <c r="B252" s="25" t="s">
         <v>317</v>
       </c>
-      <c r="C252" s="11" t="s">
+      <c r="C252" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D252" s="12" t="s">
+      <c r="D252" s="25" t="s">
         <v>377</v>
       </c>
       <c r="E252" s="8">
@@ -6435,10 +9944,10 @@
       <c r="H252" s="8"/>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A253" s="35"/>
-      <c r="B253" s="12"/>
-      <c r="C253" s="11"/>
-      <c r="D253" s="12"/>
+      <c r="A253" s="22"/>
+      <c r="B253" s="25"/>
+      <c r="C253" s="28"/>
+      <c r="D253" s="25"/>
       <c r="E253" s="8">
         <v>2</v>
       </c>
@@ -6449,10 +9958,10 @@
       <c r="H253" s="8"/>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A254" s="35"/>
-      <c r="B254" s="14"/>
-      <c r="C254" s="16"/>
-      <c r="D254" s="14"/>
+      <c r="A254" s="22"/>
+      <c r="B254" s="26"/>
+      <c r="C254" s="29"/>
+      <c r="D254" s="26"/>
       <c r="E254" s="3">
         <v>3</v>
       </c>
@@ -6467,14 +9976,14 @@
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A255" s="35"/>
-      <c r="B255" s="13" t="s">
+      <c r="A255" s="22"/>
+      <c r="B255" s="27" t="s">
         <v>328</v>
       </c>
-      <c r="C255" s="13" t="s">
+      <c r="C255" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D255" s="13" t="s">
+      <c r="D255" s="27" t="s">
         <v>107</v>
       </c>
       <c r="E255" s="2">
@@ -6485,10 +9994,10 @@
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A256" s="35"/>
-      <c r="B256" s="12"/>
-      <c r="C256" s="12"/>
-      <c r="D256" s="12"/>
+      <c r="A256" s="22"/>
+      <c r="B256" s="25"/>
+      <c r="C256" s="25"/>
+      <c r="D256" s="25"/>
       <c r="E256" s="2">
         <v>2</v>
       </c>
@@ -6497,10 +10006,10 @@
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A257" s="35"/>
-      <c r="B257" s="14"/>
-      <c r="C257" s="14"/>
-      <c r="D257" s="14"/>
+      <c r="A257" s="22"/>
+      <c r="B257" s="26"/>
+      <c r="C257" s="26"/>
+      <c r="D257" s="26"/>
       <c r="E257" s="2">
         <v>3</v>
       </c>
@@ -6515,14 +10024,14 @@
       </c>
     </row>
     <row r="258" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="35"/>
-      <c r="B258" s="13" t="s">
+      <c r="A258" s="22"/>
+      <c r="B258" s="27" t="s">
         <v>318</v>
       </c>
-      <c r="C258" s="13" t="s">
+      <c r="C258" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D258" s="13" t="s">
+      <c r="D258" s="27" t="s">
         <v>376</v>
       </c>
       <c r="E258" s="3">
@@ -6533,10 +10042,10 @@
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A259" s="35"/>
-      <c r="B259" s="12"/>
-      <c r="C259" s="12"/>
-      <c r="D259" s="12"/>
+      <c r="A259" s="22"/>
+      <c r="B259" s="25"/>
+      <c r="C259" s="25"/>
+      <c r="D259" s="25"/>
       <c r="E259" s="3">
         <v>2</v>
       </c>
@@ -6545,10 +10054,10 @@
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A260" s="35"/>
-      <c r="B260" s="14"/>
-      <c r="C260" s="14"/>
-      <c r="D260" s="14"/>
+      <c r="A260" s="22"/>
+      <c r="B260" s="26"/>
+      <c r="C260" s="26"/>
+      <c r="D260" s="26"/>
       <c r="E260" s="3">
         <v>3</v>
       </c>
@@ -6563,14 +10072,14 @@
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A261" s="35"/>
-      <c r="B261" s="13" t="s">
+      <c r="A261" s="22"/>
+      <c r="B261" s="27" t="s">
         <v>332</v>
       </c>
-      <c r="C261" s="13" t="s">
+      <c r="C261" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D261" s="13" t="s">
+      <c r="D261" s="27" t="s">
         <v>378</v>
       </c>
       <c r="E261" s="3">
@@ -6581,10 +10090,10 @@
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A262" s="35"/>
-      <c r="B262" s="12"/>
-      <c r="C262" s="12"/>
-      <c r="D262" s="12"/>
+      <c r="A262" s="22"/>
+      <c r="B262" s="25"/>
+      <c r="C262" s="25"/>
+      <c r="D262" s="25"/>
       <c r="E262" s="3">
         <v>2</v>
       </c>
@@ -6593,10 +10102,10 @@
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A263" s="35"/>
-      <c r="B263" s="14"/>
-      <c r="C263" s="14"/>
-      <c r="D263" s="14"/>
+      <c r="A263" s="22"/>
+      <c r="B263" s="26"/>
+      <c r="C263" s="26"/>
+      <c r="D263" s="26"/>
       <c r="E263" s="3">
         <v>3</v>
       </c>
@@ -6611,14 +10120,14 @@
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A264" s="35"/>
-      <c r="B264" s="13" t="s">
+      <c r="A264" s="22"/>
+      <c r="B264" s="27" t="s">
         <v>338</v>
       </c>
-      <c r="C264" s="13" t="s">
+      <c r="C264" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D264" s="13" t="s">
+      <c r="D264" s="27" t="s">
         <v>379</v>
       </c>
       <c r="E264" s="3">
@@ -6629,10 +10138,10 @@
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A265" s="35"/>
-      <c r="B265" s="12"/>
-      <c r="C265" s="12"/>
-      <c r="D265" s="12"/>
+      <c r="A265" s="22"/>
+      <c r="B265" s="25"/>
+      <c r="C265" s="25"/>
+      <c r="D265" s="25"/>
       <c r="E265" s="3">
         <v>2</v>
       </c>
@@ -6641,10 +10150,10 @@
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A266" s="35"/>
-      <c r="B266" s="14"/>
-      <c r="C266" s="14"/>
-      <c r="D266" s="14"/>
+      <c r="A266" s="22"/>
+      <c r="B266" s="26"/>
+      <c r="C266" s="26"/>
+      <c r="D266" s="26"/>
       <c r="E266" s="3">
         <v>3</v>
       </c>
@@ -6659,14 +10168,14 @@
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A267" s="35"/>
-      <c r="B267" s="13" t="s">
+      <c r="A267" s="22"/>
+      <c r="B267" s="27" t="s">
         <v>339</v>
       </c>
-      <c r="C267" s="13" t="s">
+      <c r="C267" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D267" s="13" t="s">
+      <c r="D267" s="27" t="s">
         <v>401</v>
       </c>
       <c r="E267" s="3">
@@ -6677,10 +10186,10 @@
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A268" s="35"/>
-      <c r="B268" s="12"/>
-      <c r="C268" s="12"/>
-      <c r="D268" s="12"/>
+      <c r="A268" s="22"/>
+      <c r="B268" s="25"/>
+      <c r="C268" s="25"/>
+      <c r="D268" s="25"/>
       <c r="E268" s="3">
         <v>2</v>
       </c>
@@ -6689,10 +10198,10 @@
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A269" s="35"/>
-      <c r="B269" s="14"/>
-      <c r="C269" s="14"/>
-      <c r="D269" s="14"/>
+      <c r="A269" s="22"/>
+      <c r="B269" s="26"/>
+      <c r="C269" s="26"/>
+      <c r="D269" s="26"/>
       <c r="E269" s="3">
         <v>3</v>
       </c>
@@ -6707,14 +10216,14 @@
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A270" s="35"/>
-      <c r="B270" s="15" t="s">
+      <c r="A270" s="22"/>
+      <c r="B270" s="24" t="s">
         <v>434</v>
       </c>
-      <c r="C270" s="13" t="s">
+      <c r="C270" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="D270" s="13" t="s">
+      <c r="D270" s="27" t="s">
         <v>395</v>
       </c>
       <c r="E270" s="2">
@@ -6725,10 +10234,10 @@
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A271" s="35"/>
-      <c r="B271" s="12"/>
-      <c r="C271" s="12"/>
-      <c r="D271" s="12"/>
+      <c r="A271" s="22"/>
+      <c r="B271" s="25"/>
+      <c r="C271" s="25"/>
+      <c r="D271" s="25"/>
       <c r="E271" s="2">
         <v>2</v>
       </c>
@@ -6737,10 +10246,10 @@
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A272" s="35"/>
-      <c r="B272" s="12"/>
-      <c r="C272" s="12"/>
-      <c r="D272" s="12"/>
+      <c r="A272" s="22"/>
+      <c r="B272" s="25"/>
+      <c r="C272" s="25"/>
+      <c r="D272" s="25"/>
       <c r="E272" s="2">
         <v>3</v>
       </c>
@@ -6752,10 +10261,10 @@
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A273" s="35"/>
-      <c r="B273" s="14"/>
-      <c r="C273" s="14"/>
-      <c r="D273" s="14"/>
+      <c r="A273" s="22"/>
+      <c r="B273" s="26"/>
+      <c r="C273" s="26"/>
+      <c r="D273" s="26"/>
       <c r="E273" s="2">
         <v>4</v>
       </c>
@@ -6767,14 +10276,14 @@
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A274" s="35"/>
-      <c r="B274" s="15" t="s">
+      <c r="A274" s="22"/>
+      <c r="B274" s="24" t="s">
         <v>435</v>
       </c>
-      <c r="C274" s="13" t="s">
+      <c r="C274" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="D274" s="13" t="s">
+      <c r="D274" s="27" t="s">
         <v>396</v>
       </c>
       <c r="E274" s="8">
@@ -6785,10 +10294,10 @@
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A275" s="35"/>
-      <c r="B275" s="12"/>
-      <c r="C275" s="12"/>
-      <c r="D275" s="12"/>
+      <c r="A275" s="22"/>
+      <c r="B275" s="25"/>
+      <c r="C275" s="25"/>
+      <c r="D275" s="25"/>
       <c r="E275" s="8">
         <v>2</v>
       </c>
@@ -6797,10 +10306,10 @@
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A276" s="35"/>
-      <c r="B276" s="12"/>
-      <c r="C276" s="12"/>
-      <c r="D276" s="12"/>
+      <c r="A276" s="22"/>
+      <c r="B276" s="25"/>
+      <c r="C276" s="25"/>
+      <c r="D276" s="25"/>
       <c r="E276" s="8">
         <v>3</v>
       </c>
@@ -6812,10 +10321,10 @@
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A277" s="35"/>
-      <c r="B277" s="14"/>
-      <c r="C277" s="14"/>
-      <c r="D277" s="14"/>
+      <c r="A277" s="22"/>
+      <c r="B277" s="26"/>
+      <c r="C277" s="26"/>
+      <c r="D277" s="26"/>
       <c r="E277" s="8">
         <v>4</v>
       </c>
@@ -6827,14 +10336,14 @@
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A278" s="35"/>
-      <c r="B278" s="15" t="s">
+      <c r="A278" s="22"/>
+      <c r="B278" s="24" t="s">
         <v>436</v>
       </c>
-      <c r="C278" s="13" t="s">
+      <c r="C278" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="D278" s="13" t="s">
+      <c r="D278" s="27" t="s">
         <v>397</v>
       </c>
       <c r="E278" s="2">
@@ -6845,10 +10354,10 @@
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A279" s="35"/>
-      <c r="B279" s="12"/>
-      <c r="C279" s="12"/>
-      <c r="D279" s="12"/>
+      <c r="A279" s="22"/>
+      <c r="B279" s="25"/>
+      <c r="C279" s="25"/>
+      <c r="D279" s="25"/>
       <c r="E279" s="2">
         <v>2</v>
       </c>
@@ -6857,10 +10366,10 @@
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A280" s="35"/>
-      <c r="B280" s="12"/>
-      <c r="C280" s="12"/>
-      <c r="D280" s="12"/>
+      <c r="A280" s="22"/>
+      <c r="B280" s="25"/>
+      <c r="C280" s="25"/>
+      <c r="D280" s="25"/>
       <c r="E280" s="2">
         <v>3</v>
       </c>
@@ -6875,10 +10384,10 @@
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A281" s="35"/>
-      <c r="B281" s="12"/>
-      <c r="C281" s="12"/>
-      <c r="D281" s="12"/>
+      <c r="A281" s="22"/>
+      <c r="B281" s="25"/>
+      <c r="C281" s="25"/>
+      <c r="D281" s="25"/>
       <c r="E281" s="2">
         <v>4</v>
       </c>
@@ -6887,10 +10396,10 @@
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A282" s="35"/>
-      <c r="B282" s="14"/>
-      <c r="C282" s="14"/>
-      <c r="D282" s="14"/>
+      <c r="A282" s="22"/>
+      <c r="B282" s="26"/>
+      <c r="C282" s="26"/>
+      <c r="D282" s="26"/>
       <c r="E282" s="2">
         <v>5</v>
       </c>
@@ -6905,14 +10414,14 @@
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A283" s="35"/>
-      <c r="B283" s="15" t="s">
+      <c r="A283" s="22"/>
+      <c r="B283" s="24" t="s">
         <v>437</v>
       </c>
-      <c r="C283" s="13" t="s">
+      <c r="C283" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="D283" s="13" t="s">
+      <c r="D283" s="27" t="s">
         <v>400</v>
       </c>
       <c r="E283" s="8">
@@ -6923,10 +10432,10 @@
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A284" s="35"/>
-      <c r="B284" s="12"/>
-      <c r="C284" s="12"/>
-      <c r="D284" s="12"/>
+      <c r="A284" s="22"/>
+      <c r="B284" s="25"/>
+      <c r="C284" s="25"/>
+      <c r="D284" s="25"/>
       <c r="E284" s="8">
         <v>2</v>
       </c>
@@ -6935,10 +10444,10 @@
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A285" s="35"/>
-      <c r="B285" s="12"/>
-      <c r="C285" s="12"/>
-      <c r="D285" s="12"/>
+      <c r="A285" s="22"/>
+      <c r="B285" s="25"/>
+      <c r="C285" s="25"/>
+      <c r="D285" s="25"/>
       <c r="E285" s="8">
         <v>3</v>
       </c>
@@ -6953,10 +10462,10 @@
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A286" s="35"/>
-      <c r="B286" s="12"/>
-      <c r="C286" s="12"/>
-      <c r="D286" s="12"/>
+      <c r="A286" s="22"/>
+      <c r="B286" s="25"/>
+      <c r="C286" s="25"/>
+      <c r="D286" s="25"/>
       <c r="E286" s="8">
         <v>4</v>
       </c>
@@ -6965,10 +10474,10 @@
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A287" s="36"/>
-      <c r="B287" s="14"/>
-      <c r="C287" s="14"/>
-      <c r="D287" s="14"/>
+      <c r="A287" s="23"/>
+      <c r="B287" s="26"/>
+      <c r="C287" s="26"/>
+      <c r="D287" s="26"/>
       <c r="E287" s="8">
         <v>5</v>
       </c>
@@ -6984,6 +10493,228 @@
     </row>
   </sheetData>
   <mergeCells count="246">
+    <mergeCell ref="C154:C156"/>
+    <mergeCell ref="C157:C159"/>
+    <mergeCell ref="C142:C144"/>
+    <mergeCell ref="D142:D144"/>
+    <mergeCell ref="B181:B183"/>
+    <mergeCell ref="C181:C183"/>
+    <mergeCell ref="D181:D183"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="B68:B71"/>
+    <mergeCell ref="D166:D168"/>
+    <mergeCell ref="D169:D171"/>
+    <mergeCell ref="D172:D174"/>
+    <mergeCell ref="D175:D177"/>
+    <mergeCell ref="C166:C168"/>
+    <mergeCell ref="C169:C171"/>
+    <mergeCell ref="C172:C174"/>
+    <mergeCell ref="C175:C177"/>
+    <mergeCell ref="C178:C180"/>
+    <mergeCell ref="D178:D180"/>
+    <mergeCell ref="B151:B180"/>
+    <mergeCell ref="D151:D153"/>
+    <mergeCell ref="D154:D156"/>
+    <mergeCell ref="D157:D159"/>
+    <mergeCell ref="D160:D162"/>
+    <mergeCell ref="D163:D165"/>
+    <mergeCell ref="C151:C153"/>
+    <mergeCell ref="B264:B266"/>
+    <mergeCell ref="C264:C266"/>
+    <mergeCell ref="D264:D266"/>
+    <mergeCell ref="B267:B269"/>
+    <mergeCell ref="C267:C269"/>
+    <mergeCell ref="D267:D269"/>
+    <mergeCell ref="B258:B260"/>
+    <mergeCell ref="C258:C260"/>
+    <mergeCell ref="D258:D260"/>
+    <mergeCell ref="B261:B263"/>
+    <mergeCell ref="C261:C263"/>
+    <mergeCell ref="D261:D263"/>
+    <mergeCell ref="B255:B257"/>
+    <mergeCell ref="C255:C257"/>
+    <mergeCell ref="D255:D257"/>
+    <mergeCell ref="B218:B221"/>
+    <mergeCell ref="C218:C221"/>
+    <mergeCell ref="D218:D221"/>
+    <mergeCell ref="B242:B246"/>
+    <mergeCell ref="C242:C246"/>
+    <mergeCell ref="D242:D246"/>
+    <mergeCell ref="C210:C213"/>
+    <mergeCell ref="D210:D213"/>
+    <mergeCell ref="B214:B217"/>
+    <mergeCell ref="C214:C217"/>
+    <mergeCell ref="D214:D217"/>
+    <mergeCell ref="B202:B205"/>
+    <mergeCell ref="C202:C205"/>
+    <mergeCell ref="D202:D205"/>
+    <mergeCell ref="B206:B209"/>
+    <mergeCell ref="C206:C209"/>
+    <mergeCell ref="D206:D209"/>
+    <mergeCell ref="B116:B119"/>
+    <mergeCell ref="C116:C119"/>
+    <mergeCell ref="D116:D119"/>
+    <mergeCell ref="B120:B123"/>
+    <mergeCell ref="C120:C123"/>
+    <mergeCell ref="D120:D123"/>
+    <mergeCell ref="B194:B197"/>
+    <mergeCell ref="C194:C197"/>
+    <mergeCell ref="D194:D197"/>
+    <mergeCell ref="B132:B135"/>
+    <mergeCell ref="C132:C135"/>
+    <mergeCell ref="D132:D135"/>
+    <mergeCell ref="B190:B193"/>
+    <mergeCell ref="C190:C193"/>
+    <mergeCell ref="D190:D193"/>
+    <mergeCell ref="C160:C162"/>
+    <mergeCell ref="C163:C165"/>
+    <mergeCell ref="B145:B147"/>
+    <mergeCell ref="C145:C147"/>
+    <mergeCell ref="D145:D147"/>
+    <mergeCell ref="B148:B150"/>
+    <mergeCell ref="C148:C150"/>
+    <mergeCell ref="D148:D150"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B97:B99"/>
+    <mergeCell ref="C97:C99"/>
+    <mergeCell ref="D97:D99"/>
+    <mergeCell ref="B222:B225"/>
+    <mergeCell ref="C222:C225"/>
+    <mergeCell ref="D222:D225"/>
+    <mergeCell ref="B226:B229"/>
+    <mergeCell ref="C226:C229"/>
+    <mergeCell ref="D226:D229"/>
+    <mergeCell ref="B106:B108"/>
+    <mergeCell ref="C106:C108"/>
+    <mergeCell ref="D106:D108"/>
+    <mergeCell ref="B109:B111"/>
+    <mergeCell ref="C109:C111"/>
+    <mergeCell ref="D109:D111"/>
+    <mergeCell ref="B112:B115"/>
+    <mergeCell ref="C112:C115"/>
+    <mergeCell ref="D112:D115"/>
+    <mergeCell ref="B124:B127"/>
+    <mergeCell ref="C124:C127"/>
+    <mergeCell ref="D124:D127"/>
+    <mergeCell ref="B128:B131"/>
+    <mergeCell ref="C128:C131"/>
+    <mergeCell ref="D128:D131"/>
+    <mergeCell ref="B46:B51"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="C88:C90"/>
+    <mergeCell ref="D88:D90"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="C91:C93"/>
+    <mergeCell ref="D91:D93"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="D82:D84"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="C85:C87"/>
+    <mergeCell ref="D85:D87"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="C68:F71"/>
+    <mergeCell ref="D139:D141"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="B270:B273"/>
+    <mergeCell ref="C270:C273"/>
+    <mergeCell ref="D270:D273"/>
+    <mergeCell ref="B274:B277"/>
+    <mergeCell ref="C274:C277"/>
+    <mergeCell ref="D274:D277"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="D76:D78"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="D79:D81"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="C100:C102"/>
+    <mergeCell ref="D100:D102"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="C103:C105"/>
+    <mergeCell ref="D103:D105"/>
+    <mergeCell ref="B94:B96"/>
+    <mergeCell ref="C94:C96"/>
+    <mergeCell ref="D94:D96"/>
+    <mergeCell ref="B247:B251"/>
+    <mergeCell ref="C247:C251"/>
+    <mergeCell ref="D247:D251"/>
+    <mergeCell ref="B252:B254"/>
+    <mergeCell ref="C252:C254"/>
+    <mergeCell ref="D252:D254"/>
+    <mergeCell ref="B136:B138"/>
+    <mergeCell ref="C136:C138"/>
+    <mergeCell ref="D136:D138"/>
+    <mergeCell ref="B139:B141"/>
+    <mergeCell ref="C139:C141"/>
+    <mergeCell ref="B238:B241"/>
+    <mergeCell ref="C238:C241"/>
+    <mergeCell ref="D238:D241"/>
+    <mergeCell ref="B230:B233"/>
+    <mergeCell ref="C230:C233"/>
+    <mergeCell ref="D230:D233"/>
+    <mergeCell ref="B234:B237"/>
+    <mergeCell ref="C234:C237"/>
+    <mergeCell ref="D234:D237"/>
+    <mergeCell ref="B198:B201"/>
+    <mergeCell ref="C198:C201"/>
+    <mergeCell ref="D198:D201"/>
+    <mergeCell ref="B210:B213"/>
     <mergeCell ref="A76:A189"/>
     <mergeCell ref="A12:A75"/>
     <mergeCell ref="A190:A287"/>
@@ -7008,239 +10739,17 @@
     <mergeCell ref="B283:B287"/>
     <mergeCell ref="C283:C287"/>
     <mergeCell ref="D283:D287"/>
-    <mergeCell ref="B247:B251"/>
-    <mergeCell ref="C247:C251"/>
-    <mergeCell ref="D247:D251"/>
-    <mergeCell ref="B252:B254"/>
-    <mergeCell ref="C252:C254"/>
-    <mergeCell ref="D252:D254"/>
-    <mergeCell ref="B136:B138"/>
-    <mergeCell ref="C136:C138"/>
-    <mergeCell ref="D136:D138"/>
-    <mergeCell ref="B139:B141"/>
-    <mergeCell ref="C139:C141"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="C72:C75"/>
-    <mergeCell ref="D72:D75"/>
-    <mergeCell ref="B270:B273"/>
-    <mergeCell ref="C270:C273"/>
-    <mergeCell ref="D270:D273"/>
-    <mergeCell ref="B274:B277"/>
-    <mergeCell ref="C274:C277"/>
-    <mergeCell ref="D274:D277"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="C68:F71"/>
-    <mergeCell ref="D139:D141"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="D76:D78"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="D79:D81"/>
-    <mergeCell ref="B46:B51"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="C88:C90"/>
-    <mergeCell ref="D88:D90"/>
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="C91:C93"/>
-    <mergeCell ref="D91:D93"/>
-    <mergeCell ref="B82:B84"/>
-    <mergeCell ref="C82:C84"/>
-    <mergeCell ref="D82:D84"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="C85:C87"/>
-    <mergeCell ref="D85:D87"/>
-    <mergeCell ref="B100:B102"/>
-    <mergeCell ref="C100:C102"/>
-    <mergeCell ref="D100:D102"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="C103:C105"/>
-    <mergeCell ref="D103:D105"/>
-    <mergeCell ref="B94:B96"/>
-    <mergeCell ref="C94:C96"/>
-    <mergeCell ref="D94:D96"/>
-    <mergeCell ref="B97:B99"/>
-    <mergeCell ref="C97:C99"/>
-    <mergeCell ref="D97:D99"/>
-    <mergeCell ref="B222:B225"/>
-    <mergeCell ref="C222:C225"/>
-    <mergeCell ref="D222:D225"/>
-    <mergeCell ref="B226:B229"/>
-    <mergeCell ref="C226:C229"/>
-    <mergeCell ref="D226:D229"/>
-    <mergeCell ref="B106:B108"/>
-    <mergeCell ref="C106:C108"/>
-    <mergeCell ref="D106:D108"/>
-    <mergeCell ref="B109:B111"/>
-    <mergeCell ref="C109:C111"/>
-    <mergeCell ref="D109:D111"/>
-    <mergeCell ref="B238:B241"/>
-    <mergeCell ref="C238:C241"/>
-    <mergeCell ref="D238:D241"/>
-    <mergeCell ref="B112:B115"/>
-    <mergeCell ref="C112:C115"/>
-    <mergeCell ref="D112:D115"/>
-    <mergeCell ref="B230:B233"/>
-    <mergeCell ref="C230:C233"/>
-    <mergeCell ref="D230:D233"/>
-    <mergeCell ref="B234:B237"/>
-    <mergeCell ref="C234:C237"/>
-    <mergeCell ref="D234:D237"/>
-    <mergeCell ref="B124:B127"/>
-    <mergeCell ref="C124:C127"/>
-    <mergeCell ref="D124:D127"/>
-    <mergeCell ref="B128:B131"/>
-    <mergeCell ref="C128:C131"/>
-    <mergeCell ref="D128:D131"/>
-    <mergeCell ref="B116:B119"/>
-    <mergeCell ref="C116:C119"/>
-    <mergeCell ref="D116:D119"/>
-    <mergeCell ref="B120:B123"/>
-    <mergeCell ref="C120:C123"/>
-    <mergeCell ref="D120:D123"/>
-    <mergeCell ref="B194:B197"/>
-    <mergeCell ref="C194:C197"/>
-    <mergeCell ref="D194:D197"/>
-    <mergeCell ref="B198:B201"/>
-    <mergeCell ref="C198:C201"/>
-    <mergeCell ref="D198:D201"/>
-    <mergeCell ref="B132:B135"/>
-    <mergeCell ref="C132:C135"/>
-    <mergeCell ref="D132:D135"/>
-    <mergeCell ref="B190:B193"/>
-    <mergeCell ref="C190:C193"/>
-    <mergeCell ref="D190:D193"/>
-    <mergeCell ref="B210:B213"/>
-    <mergeCell ref="C210:C213"/>
-    <mergeCell ref="D210:D213"/>
-    <mergeCell ref="B214:B217"/>
-    <mergeCell ref="C214:C217"/>
-    <mergeCell ref="D214:D217"/>
-    <mergeCell ref="B202:B205"/>
-    <mergeCell ref="C202:C205"/>
-    <mergeCell ref="D202:D205"/>
-    <mergeCell ref="B206:B209"/>
-    <mergeCell ref="C206:C209"/>
-    <mergeCell ref="D206:D209"/>
-    <mergeCell ref="B255:B257"/>
-    <mergeCell ref="C255:C257"/>
-    <mergeCell ref="D255:D257"/>
-    <mergeCell ref="B218:B221"/>
-    <mergeCell ref="C218:C221"/>
-    <mergeCell ref="D218:D221"/>
-    <mergeCell ref="B242:B246"/>
-    <mergeCell ref="C242:C246"/>
-    <mergeCell ref="D242:D246"/>
-    <mergeCell ref="C160:C162"/>
-    <mergeCell ref="C163:C165"/>
-    <mergeCell ref="B264:B266"/>
-    <mergeCell ref="C264:C266"/>
-    <mergeCell ref="D264:D266"/>
-    <mergeCell ref="B267:B269"/>
-    <mergeCell ref="C267:C269"/>
-    <mergeCell ref="D267:D269"/>
-    <mergeCell ref="B258:B260"/>
-    <mergeCell ref="C258:C260"/>
-    <mergeCell ref="D258:D260"/>
-    <mergeCell ref="B261:B263"/>
-    <mergeCell ref="C261:C263"/>
-    <mergeCell ref="D261:D263"/>
-    <mergeCell ref="B145:B147"/>
-    <mergeCell ref="C145:C147"/>
-    <mergeCell ref="D145:D147"/>
-    <mergeCell ref="B148:B150"/>
-    <mergeCell ref="C148:C150"/>
-    <mergeCell ref="D148:D150"/>
-    <mergeCell ref="B142:B144"/>
-    <mergeCell ref="C142:C144"/>
-    <mergeCell ref="D142:D144"/>
-    <mergeCell ref="B181:B183"/>
-    <mergeCell ref="C181:C183"/>
-    <mergeCell ref="D181:D183"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="B68:B71"/>
-    <mergeCell ref="D166:D168"/>
-    <mergeCell ref="D169:D171"/>
-    <mergeCell ref="D172:D174"/>
-    <mergeCell ref="D175:D177"/>
-    <mergeCell ref="C166:C168"/>
-    <mergeCell ref="C169:C171"/>
-    <mergeCell ref="C172:C174"/>
-    <mergeCell ref="C175:C177"/>
-    <mergeCell ref="C178:C180"/>
-    <mergeCell ref="D178:D180"/>
-    <mergeCell ref="B151:B180"/>
-    <mergeCell ref="D151:D153"/>
-    <mergeCell ref="D154:D156"/>
-    <mergeCell ref="D157:D159"/>
-    <mergeCell ref="D160:D162"/>
-    <mergeCell ref="D163:D165"/>
-    <mergeCell ref="C151:C153"/>
-    <mergeCell ref="C154:C156"/>
-    <mergeCell ref="C157:C159"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04B76100-6DF6-4D9A-B7DB-F64C86DCE71D}">
   <dimension ref="A1:B179"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A119" sqref="A119"/>
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/2-PROJ/15-Carte_Mere/HW-SW_interface_CM-2020.xlsx
+++ b/2-PROJ/15-Carte_Mere/HW-SW_interface_CM-2020.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\DOC\Audran\GIT\ELEC\2-PROJ\15-Carte_Mere\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7321C576-7DC0-40D5-9813-A53C431AEECF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6C9040-10D5-4606-9CB5-93309BE34FE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38565" yWindow="5745" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Interface_HW_2020" sheetId="3" r:id="rId1"/>
-    <sheet name="pinout_DE0_Nano" sheetId="4" state="hidden" r:id="rId2"/>
+    <sheet name="pinout_DE0_Nano" sheetId="4" r:id="rId2"/>
     <sheet name="Interface_HW_2019" sheetId="1" r:id="rId3"/>
     <sheet name="pin_CI_2019" sheetId="2" r:id="rId4"/>
   </sheets>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1578" uniqueCount="810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="857">
   <si>
     <t>Type</t>
   </si>
@@ -2314,18 +2314,6 @@
   </si>
   <si>
     <t>GPIO_29</t>
-  </si>
-  <si>
-    <t>GPIO_30</t>
-  </si>
-  <si>
-    <t>GPIO_31</t>
-  </si>
-  <si>
-    <t>GPIO_32</t>
-  </si>
-  <si>
-    <t>GPIO_33</t>
   </si>
   <si>
     <t>GPIO_1_IN0</t>
@@ -2529,13 +2517,166 @@
   </si>
   <si>
     <t>Legende</t>
+  </si>
+  <si>
+    <t>PF1</t>
+  </si>
+  <si>
+    <t>GPIO_010</t>
+  </si>
+  <si>
+    <t>GPIO_011</t>
+  </si>
+  <si>
+    <t>GPIO_012</t>
+  </si>
+  <si>
+    <t>GPIO_013</t>
+  </si>
+  <si>
+    <t>GPIO_014</t>
+  </si>
+  <si>
+    <t>GPIO_015</t>
+  </si>
+  <si>
+    <t>GPIO_016</t>
+  </si>
+  <si>
+    <t>GPIO_017</t>
+  </si>
+  <si>
+    <t>GPIO_018</t>
+  </si>
+  <si>
+    <t>GPIO_019</t>
+  </si>
+  <si>
+    <t>GPIO_020</t>
+  </si>
+  <si>
+    <t>GPIO_021</t>
+  </si>
+  <si>
+    <t>GPIO_022</t>
+  </si>
+  <si>
+    <t>GPIO_023</t>
+  </si>
+  <si>
+    <t>GPIO_024</t>
+  </si>
+  <si>
+    <t>GPIO_025</t>
+  </si>
+  <si>
+    <t>GPIO_026</t>
+  </si>
+  <si>
+    <t>GPIO_027</t>
+  </si>
+  <si>
+    <t>GPIO_028</t>
+  </si>
+  <si>
+    <t>GPIO_029</t>
+  </si>
+  <si>
+    <t>GPIO_030</t>
+  </si>
+  <si>
+    <t>GPIO_031</t>
+  </si>
+  <si>
+    <t>GPIO_032</t>
+  </si>
+  <si>
+    <t>GPIO_033</t>
+  </si>
+  <si>
+    <t>A14</t>
+  </si>
+  <si>
+    <t>D16</t>
+  </si>
+  <si>
+    <t>D15</t>
+  </si>
+  <si>
+    <t>D14</t>
+  </si>
+  <si>
+    <t>F15</t>
+  </si>
+  <si>
+    <t>F16</t>
+  </si>
+  <si>
+    <t>F14</t>
+  </si>
+  <si>
+    <t>G16</t>
+  </si>
+  <si>
+    <t>G15</t>
+  </si>
+  <si>
+    <t>E15</t>
+  </si>
+  <si>
+    <t>E16</t>
+  </si>
+  <si>
+    <t>M16</t>
+  </si>
+  <si>
+    <t>GPIO_210</t>
+  </si>
+  <si>
+    <t>GPIO_211</t>
+  </si>
+  <si>
+    <t>GPIO_212</t>
+  </si>
+  <si>
+    <t>GPIO_2_IN0</t>
+  </si>
+  <si>
+    <t>GPIO_2_IN1</t>
+  </si>
+  <si>
+    <t>GPIO_2_IN2</t>
+  </si>
+  <si>
+    <t>Analog_In0</t>
+  </si>
+  <si>
+    <t>Analog_In1</t>
+  </si>
+  <si>
+    <t>Analog_In2</t>
+  </si>
+  <si>
+    <t>Analog_In3</t>
+  </si>
+  <si>
+    <t>Analog_In4</t>
+  </si>
+  <si>
+    <t>Analog_In5</t>
+  </si>
+  <si>
+    <t>Analog_In6</t>
+  </si>
+  <si>
+    <t>Analog_In7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2567,6 +2708,13 @@
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2645,7 +2793,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -2785,12 +2933,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2864,8 +3021,26 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2874,12 +3049,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2891,7 +3060,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2900,16 +3102,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2939,62 +3144,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3279,10 +3441,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{368042C2-3540-4847-B564-756E4B0B8E4D}">
   <dimension ref="A1:N208"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="P6" sqref="P6"/>
+      <selection pane="bottomLeft" activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3302,7 +3464,7 @@
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="65" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -3330,26 +3492,26 @@
       <c r="I1" s="22" t="s">
         <v>500</v>
       </c>
-      <c r="J1" s="67" t="s">
+      <c r="J1" s="30" t="s">
         <v>700</v>
       </c>
       <c r="K1" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="L1" s="68"/>
+      <c r="L1" s="31"/>
       <c r="N1" s="22" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
       <c r="E2" s="12">
         <v>1</v>
       </c>
@@ -3360,18 +3522,18 @@
         <v>690</v>
       </c>
       <c r="J2" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I2,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(I2,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="N2" s="21" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="39"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
       <c r="E3" s="12">
         <v>2</v>
       </c>
@@ -3379,20 +3541,20 @@
         <v>10</v>
       </c>
       <c r="J3" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I3,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(I3,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="N3" s="63" t="s">
-        <v>805</v>
+      <c r="N3" s="27" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="26" t="s">
+      <c r="A4" s="47"/>
+      <c r="B4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
       <c r="E4" s="12">
         <v>1</v>
       </c>
@@ -3403,18 +3565,18 @@
         <v>690</v>
       </c>
       <c r="J4" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I4,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(I4,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="N4" s="22" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
       <c r="E5" s="12">
         <v>2</v>
       </c>
@@ -3422,20 +3584,20 @@
         <v>10</v>
       </c>
       <c r="J5" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I5,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(I5,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="N5" s="23" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
-      <c r="B6" s="26" t="s">
+      <c r="A6" s="47"/>
+      <c r="B6" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
       <c r="E6" s="12">
         <v>1</v>
       </c>
@@ -3446,16 +3608,16 @@
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
       <c r="J6" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I6,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(I6,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="K6" s="12"/>
     </row>
     <row r="7" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
+      <c r="A7" s="47"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
       <c r="E7" s="12">
         <v>2</v>
       </c>
@@ -3466,18 +3628,18 @@
         <v>690</v>
       </c>
       <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
+      <c r="I7" s="26"/>
       <c r="J7" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I7,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(I7,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="K7" s="12"/>
     </row>
     <row r="8" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
       <c r="E8" s="12">
         <v>3</v>
       </c>
@@ -3490,20 +3652,22 @@
       <c r="H8" s="24" t="s">
         <v>294</v>
       </c>
-      <c r="I8" s="66"/>
+      <c r="I8" s="70" t="s">
+        <v>791</v>
+      </c>
       <c r="J8" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I8,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
-        <v/>
+        <f>IFERROR(VLOOKUP(I8,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
+        <v>GPIO_111</v>
       </c>
       <c r="K8" s="12"/>
     </row>
     <row r="9" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
-      <c r="B9" s="26" t="s">
+      <c r="A9" s="47"/>
+      <c r="B9" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
       <c r="E9" s="12">
         <v>4</v>
       </c>
@@ -3512,19 +3676,19 @@
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
+      <c r="I9" s="26"/>
       <c r="J9" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I9,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(I9,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="K9" s="12"/>
       <c r="M9" s="20"/>
     </row>
     <row r="10" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
       <c r="E10" s="12">
         <v>5</v>
       </c>
@@ -3535,18 +3699,18 @@
         <v>690</v>
       </c>
       <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
+      <c r="I10" s="26"/>
       <c r="J10" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I10,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(I10,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="K10" s="12"/>
     </row>
     <row r="11" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
       <c r="E11" s="12">
         <v>6</v>
       </c>
@@ -3556,23 +3720,25 @@
       <c r="G11" s="15" t="s">
         <v>616</v>
       </c>
-      <c r="H11" s="55" t="s">
+      <c r="H11" s="25" t="s">
         <v>287</v>
       </c>
-      <c r="I11" s="66"/>
+      <c r="I11" s="70" t="s">
+        <v>790</v>
+      </c>
       <c r="J11" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I11,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
-        <v/>
+        <f>IFERROR(VLOOKUP(I11,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
+        <v>GPIO_19</v>
       </c>
       <c r="K11" s="12"/>
     </row>
     <row r="12" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
-      <c r="B12" s="26" t="s">
+      <c r="A12" s="47"/>
+      <c r="B12" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
       <c r="E12" s="12">
         <v>7</v>
       </c>
@@ -3581,18 +3747,18 @@
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="16"/>
-      <c r="I12" s="12"/>
+      <c r="I12" s="26"/>
       <c r="J12" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I12,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(I12,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="K12" s="12"/>
     </row>
     <row r="13" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
       <c r="E13" s="12">
         <v>8</v>
       </c>
@@ -3603,18 +3769,18 @@
         <v>690</v>
       </c>
       <c r="H13" s="16"/>
-      <c r="I13" s="12"/>
+      <c r="I13" s="26"/>
       <c r="J13" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I13,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(I13,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="K13" s="12"/>
     </row>
     <row r="14" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
+      <c r="A14" s="47"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
       <c r="E14" s="12">
         <v>9</v>
       </c>
@@ -3624,23 +3790,25 @@
       <c r="G14" s="15" t="s">
         <v>616</v>
       </c>
-      <c r="H14" s="55" t="s">
+      <c r="H14" s="25" t="s">
         <v>288</v>
       </c>
-      <c r="I14" s="66"/>
+      <c r="I14" s="70" t="s">
+        <v>789</v>
+      </c>
       <c r="J14" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I14,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
-        <v/>
+        <f>IFERROR(VLOOKUP(I14,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
+        <v>GPIO_18</v>
       </c>
       <c r="K14" s="12"/>
     </row>
     <row r="15" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
-      <c r="B15" s="26" t="s">
+      <c r="A15" s="47"/>
+      <c r="B15" s="32" t="s">
         <v>501</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
       <c r="E15" s="12">
         <v>10</v>
       </c>
@@ -3649,18 +3817,18 @@
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="16"/>
-      <c r="I15" s="12"/>
+      <c r="I15" s="26"/>
       <c r="J15" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I15,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(I15,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="K15" s="12"/>
     </row>
     <row r="16" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
       <c r="E16" s="12">
         <v>11</v>
       </c>
@@ -3671,18 +3839,18 @@
         <v>690</v>
       </c>
       <c r="H16" s="16"/>
-      <c r="I16" s="12"/>
+      <c r="I16" s="26"/>
       <c r="J16" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I16,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(I16,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="K16" s="12"/>
     </row>
     <row r="17" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
       <c r="E17" s="12">
         <v>12</v>
       </c>
@@ -3692,18 +3860,20 @@
       <c r="G17" s="15" t="s">
         <v>616</v>
       </c>
-      <c r="H17" s="55" t="s">
-        <v>289</v>
-      </c>
-      <c r="I17" s="66"/>
+      <c r="H17" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="I17" s="70" t="s">
+        <v>788</v>
+      </c>
       <c r="J17" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I17,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
-        <v/>
+        <f>IFERROR(VLOOKUP(I17,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
+        <v>GPIO_17</v>
       </c>
       <c r="K17" s="12"/>
     </row>
     <row r="18" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="50" t="s">
         <v>494</v>
       </c>
       <c r="B18" s="17" t="s">
@@ -3713,24 +3883,26 @@
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
       <c r="F18" s="16" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>616</v>
       </c>
-      <c r="H18" s="55" t="s">
+      <c r="H18" s="25" t="s">
         <v>359</v>
       </c>
-      <c r="I18" s="66"/>
+      <c r="I18" s="71" t="s">
+        <v>792</v>
+      </c>
       <c r="J18" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I18,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
-        <v/>
+        <f>IFERROR(VLOOKUP(I18,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
+        <v>GPIO_116</v>
       </c>
       <c r="K18" s="12"/>
     </row>
     <row r="19" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
-      <c r="B19" s="31" t="s">
+      <c r="A19" s="51"/>
+      <c r="B19" s="35" t="s">
         <v>610</v>
       </c>
       <c r="C19" s="18"/>
@@ -3749,14 +3921,14 @@
         <v>704</v>
       </c>
       <c r="J19" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I19,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(I19,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
         <v>GPIO_115</v>
       </c>
       <c r="K19" s="12"/>
     </row>
     <row r="20" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
-      <c r="B20" s="27"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
@@ -3773,14 +3945,14 @@
         <v>703</v>
       </c>
       <c r="J20" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I20,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(I20,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
         <v>GPIO_117</v>
       </c>
       <c r="K20" s="12"/>
     </row>
     <row r="21" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
-      <c r="B21" s="28"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="34"/>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
@@ -3797,14 +3969,14 @@
         <v>706</v>
       </c>
       <c r="J21" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I21,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(I21,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
         <v>GPIO_119</v>
       </c>
       <c r="K21" s="12"/>
     </row>
     <row r="22" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
-      <c r="B22" s="31" t="s">
+      <c r="A22" s="51"/>
+      <c r="B22" s="35" t="s">
         <v>611</v>
       </c>
       <c r="C22" s="18"/>
@@ -3823,14 +3995,14 @@
         <v>535</v>
       </c>
       <c r="J22" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I22,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(I22,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
         <v>GPIO_132</v>
       </c>
       <c r="K22" s="12"/>
     </row>
     <row r="23" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="36"/>
-      <c r="B23" s="32"/>
+      <c r="A23" s="51"/>
+      <c r="B23" s="36"/>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
       <c r="E23" s="12"/>
@@ -3847,14 +4019,14 @@
         <v>534</v>
       </c>
       <c r="J23" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I23,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(I23,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
         <v>GPIO_130</v>
       </c>
       <c r="K23" s="12"/>
     </row>
     <row r="24" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
-      <c r="B24" s="32"/>
+      <c r="A24" s="51"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
       <c r="E24" s="12"/>
@@ -3871,14 +4043,14 @@
         <v>533</v>
       </c>
       <c r="J24" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I24,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(I24,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
         <v>GPIO_128</v>
       </c>
       <c r="K24" s="12"/>
     </row>
     <row r="25" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="36"/>
-      <c r="B25" s="33"/>
+      <c r="A25" s="51"/>
+      <c r="B25" s="37"/>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
       <c r="E25" s="12"/>
@@ -3895,14 +4067,14 @@
         <v>532</v>
       </c>
       <c r="J25" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I25,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(I25,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
         <v>GPIO_118</v>
       </c>
       <c r="K25" s="12"/>
     </row>
     <row r="26" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="36"/>
-      <c r="B26" s="31" t="s">
+      <c r="A26" s="51"/>
+      <c r="B26" s="35" t="s">
         <v>612</v>
       </c>
       <c r="C26" s="18"/>
@@ -3919,14 +4091,14 @@
         <v>540</v>
       </c>
       <c r="J26" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I26,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(I26,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
         <v>GPIO_133</v>
       </c>
       <c r="K26" s="12"/>
     </row>
     <row r="27" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="36"/>
-      <c r="B27" s="32"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="36"/>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
       <c r="E27" s="12"/>
@@ -3941,14 +4113,14 @@
         <v>541</v>
       </c>
       <c r="J27" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I27,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(I27,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
         <v>GPIO_129</v>
       </c>
       <c r="K27" s="12"/>
     </row>
     <row r="28" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="36"/>
-      <c r="B28" s="32"/>
+      <c r="A28" s="51"/>
+      <c r="B28" s="36"/>
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
       <c r="E28" s="12"/>
@@ -3963,14 +4135,14 @@
         <v>542</v>
       </c>
       <c r="J28" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I28,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(I28,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
         <v>GPIO_131</v>
       </c>
       <c r="K28" s="12"/>
     </row>
     <row r="29" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="36"/>
-      <c r="B29" s="33"/>
+      <c r="A29" s="51"/>
+      <c r="B29" s="37"/>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
       <c r="E29" s="12"/>
@@ -3985,14 +4157,14 @@
         <v>543</v>
       </c>
       <c r="J29" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I29,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(I29,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
         <v>GPIO_126</v>
       </c>
       <c r="K29" s="12"/>
     </row>
     <row r="30" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="36"/>
-      <c r="B30" s="31" t="s">
+      <c r="A30" s="51"/>
+      <c r="B30" s="35" t="s">
         <v>613</v>
       </c>
       <c r="C30" s="18"/>
@@ -4001,116 +4173,128 @@
       <c r="F30" s="16" t="s">
         <v>547</v>
       </c>
-      <c r="G30" s="26" t="s">
+      <c r="G30" s="32" t="s">
         <v>615</v>
       </c>
       <c r="H30" s="22" t="s">
         <v>350</v>
       </c>
-      <c r="I30" s="12"/>
+      <c r="I30" s="23" t="s">
+        <v>763</v>
+      </c>
       <c r="J30" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I30,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
-        <v/>
+        <f>IFERROR(VLOOKUP(I30,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
+        <v>GPIO_00</v>
       </c>
       <c r="K30" s="12"/>
     </row>
     <row r="31" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="36"/>
-      <c r="B31" s="27"/>
+      <c r="A31" s="51"/>
+      <c r="B31" s="33"/>
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
       <c r="E31" s="12"/>
       <c r="F31" s="16" t="s">
         <v>548</v>
       </c>
-      <c r="G31" s="28"/>
+      <c r="G31" s="34"/>
       <c r="H31" s="22" t="s">
         <v>349</v>
       </c>
-      <c r="I31" s="12"/>
+      <c r="I31" s="23" t="s">
+        <v>764</v>
+      </c>
       <c r="J31" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I31,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
-        <v/>
+        <f>IFERROR(VLOOKUP(I31,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
+        <v>GPIO_01</v>
       </c>
       <c r="K31" s="12"/>
     </row>
     <row r="32" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="36"/>
-      <c r="B32" s="27"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="33"/>
       <c r="C32" s="18"/>
       <c r="D32" s="18"/>
       <c r="E32" s="12"/>
       <c r="F32" s="16" t="s">
         <v>549</v>
       </c>
-      <c r="G32" s="26" t="s">
+      <c r="G32" s="32" t="s">
         <v>553</v>
       </c>
       <c r="H32" s="16"/>
-      <c r="I32" s="25"/>
+      <c r="I32" s="28" t="s">
+        <v>795</v>
+      </c>
       <c r="J32" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I32,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
-        <v/>
+        <f>IFERROR(VLOOKUP(I32,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
+        <v>GPIO_127</v>
       </c>
       <c r="K32" s="12"/>
     </row>
     <row r="33" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="36"/>
-      <c r="B33" s="27"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="33"/>
       <c r="C33" s="18"/>
       <c r="D33" s="18"/>
       <c r="E33" s="12"/>
       <c r="F33" s="16" t="s">
         <v>550</v>
       </c>
-      <c r="G33" s="27"/>
+      <c r="G33" s="33"/>
       <c r="H33" s="16"/>
-      <c r="I33" s="25"/>
+      <c r="I33" s="28" t="s">
+        <v>794</v>
+      </c>
       <c r="J33" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I33,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
-        <v/>
+        <f>IFERROR(VLOOKUP(I33,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
+        <v>GPIO_124</v>
       </c>
       <c r="K33" s="12"/>
     </row>
     <row r="34" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="36"/>
-      <c r="B34" s="27"/>
+      <c r="A34" s="51"/>
+      <c r="B34" s="33"/>
       <c r="C34" s="18"/>
       <c r="D34" s="18"/>
       <c r="E34" s="12"/>
       <c r="F34" s="16" t="s">
         <v>551</v>
       </c>
-      <c r="G34" s="27"/>
+      <c r="G34" s="33"/>
       <c r="H34" s="16"/>
-      <c r="I34" s="25"/>
+      <c r="I34" s="28" t="s">
+        <v>765</v>
+      </c>
       <c r="J34" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I34,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
-        <v/>
+        <f>IFERROR(VLOOKUP(I34,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
+        <v>GPIO_02</v>
       </c>
       <c r="K34" s="12"/>
     </row>
     <row r="35" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="36"/>
-      <c r="B35" s="28"/>
+      <c r="A35" s="51"/>
+      <c r="B35" s="34"/>
       <c r="C35" s="18"/>
       <c r="D35" s="18"/>
       <c r="E35" s="12"/>
       <c r="F35" s="16" t="s">
         <v>552</v>
       </c>
-      <c r="G35" s="28"/>
+      <c r="G35" s="34"/>
       <c r="H35" s="16"/>
-      <c r="I35" s="25"/>
+      <c r="I35" s="28" t="s">
+        <v>766</v>
+      </c>
       <c r="J35" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I35,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
-        <v/>
+        <f>IFERROR(VLOOKUP(I35,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
+        <v>GPIO_04</v>
       </c>
       <c r="K35" s="12"/>
     </row>
     <row r="36" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="36"/>
-      <c r="B36" s="31" t="s">
+      <c r="A36" s="51"/>
+      <c r="B36" s="35" t="s">
         <v>614</v>
       </c>
       <c r="C36" s="18"/>
@@ -4119,7 +4303,7 @@
       <c r="F36" s="16" t="s">
         <v>554</v>
       </c>
-      <c r="G36" s="26" t="s">
+      <c r="G36" s="32" t="s">
         <v>615</v>
       </c>
       <c r="H36" s="12"/>
@@ -4127,34 +4311,34 @@
         <v>556</v>
       </c>
       <c r="J36" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I36,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
-        <v>GPIO_28</v>
+        <f>IFERROR(VLOOKUP(I36,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
+        <v>GPIO_028</v>
       </c>
       <c r="K36" s="12"/>
     </row>
     <row r="37" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="36"/>
-      <c r="B37" s="28"/>
+      <c r="A37" s="51"/>
+      <c r="B37" s="34"/>
       <c r="C37" s="18"/>
       <c r="D37" s="18"/>
       <c r="E37" s="12"/>
       <c r="F37" s="16" t="s">
         <v>555</v>
       </c>
-      <c r="G37" s="28"/>
+      <c r="G37" s="34"/>
       <c r="H37" s="12"/>
       <c r="I37" s="22" t="s">
         <v>557</v>
       </c>
       <c r="J37" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I37,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
-        <v>GPIO_29</v>
+        <f>IFERROR(VLOOKUP(I37,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
+        <v>GPIO_029</v>
       </c>
       <c r="K37" s="12"/>
     </row>
     <row r="38" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="36"/>
-      <c r="B38" s="31" t="s">
+      <c r="A38" s="51"/>
+      <c r="B38" s="35" t="s">
         <v>599</v>
       </c>
       <c r="C38" s="18"/>
@@ -4173,14 +4357,14 @@
         <v>558</v>
       </c>
       <c r="J38" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I38,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
-        <v>GPIO_25</v>
+        <f>IFERROR(VLOOKUP(I38,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
+        <v>GPIO_025</v>
       </c>
       <c r="K38" s="12"/>
     </row>
     <row r="39" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="36"/>
-      <c r="B39" s="33"/>
+      <c r="A39" s="51"/>
+      <c r="B39" s="37"/>
       <c r="C39" s="18"/>
       <c r="D39" s="18"/>
       <c r="E39" s="12"/>
@@ -4197,14 +4381,14 @@
         <v>559</v>
       </c>
       <c r="J39" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I39,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
-        <v>GPIO_24</v>
+        <f>IFERROR(VLOOKUP(I39,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
+        <v>GPIO_024</v>
       </c>
       <c r="K39" s="12"/>
     </row>
     <row r="40" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="36"/>
-      <c r="B40" s="31" t="s">
+      <c r="A40" s="51"/>
+      <c r="B40" s="35" t="s">
         <v>598</v>
       </c>
       <c r="C40" s="18"/>
@@ -4221,14 +4405,14 @@
       </c>
       <c r="I40" s="22"/>
       <c r="J40" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I40,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(I40,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="K40" s="12"/>
     </row>
     <row r="41" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="36"/>
-      <c r="B41" s="28"/>
+      <c r="A41" s="51"/>
+      <c r="B41" s="34"/>
       <c r="C41" s="18"/>
       <c r="D41" s="18"/>
       <c r="E41" s="12"/>
@@ -4243,14 +4427,14 @@
       </c>
       <c r="I41" s="12"/>
       <c r="J41" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I41,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(I41,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="K41" s="12"/>
     </row>
     <row r="42" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="36"/>
-      <c r="B42" s="26" t="s">
+      <c r="A42" s="51"/>
+      <c r="B42" s="32" t="s">
         <v>524</v>
       </c>
       <c r="C42" s="18"/>
@@ -4267,14 +4451,14 @@
         <v>561</v>
       </c>
       <c r="J42" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I42,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
-        <v>GPIO_17</v>
+        <f>IFERROR(VLOOKUP(I42,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
+        <v>GPIO_017</v>
       </c>
       <c r="K42" s="12"/>
     </row>
     <row r="43" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="36"/>
-      <c r="B43" s="28"/>
+      <c r="A43" s="51"/>
+      <c r="B43" s="34"/>
       <c r="C43" s="18"/>
       <c r="D43" s="18"/>
       <c r="E43" s="12"/>
@@ -4289,14 +4473,14 @@
         <v>560</v>
       </c>
       <c r="J43" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I43,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
-        <v>GPIO_16</v>
+        <f>IFERROR(VLOOKUP(I43,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
+        <v>GPIO_016</v>
       </c>
       <c r="K43" s="12"/>
     </row>
     <row r="44" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="36"/>
-      <c r="B44" s="26" t="s">
+      <c r="A44" s="51"/>
+      <c r="B44" s="32" t="s">
         <v>544</v>
       </c>
       <c r="C44" s="18"/>
@@ -4313,14 +4497,14 @@
       </c>
       <c r="I44" s="12"/>
       <c r="J44" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I44,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(I44,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="K44" s="12"/>
     </row>
     <row r="45" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="36"/>
-      <c r="B45" s="28"/>
+      <c r="A45" s="51"/>
+      <c r="B45" s="34"/>
       <c r="C45" s="18"/>
       <c r="D45" s="18"/>
       <c r="E45" s="12"/>
@@ -4335,16 +4519,16 @@
       </c>
       <c r="I45" s="12"/>
       <c r="J45" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I45,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(I45,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="K45" s="12"/>
     </row>
     <row r="46" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="56" t="s">
+      <c r="A46" s="38" t="s">
         <v>495</v>
       </c>
-      <c r="B46" s="31" t="s">
+      <c r="B46" s="35" t="s">
         <v>562</v>
       </c>
       <c r="C46" s="18"/>
@@ -4353,7 +4537,7 @@
       <c r="F46" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="G46" s="26" t="s">
+      <c r="G46" s="32" t="s">
         <v>52</v>
       </c>
       <c r="H46" s="16"/>
@@ -4361,156 +4545,156 @@
         <v>581</v>
       </c>
       <c r="J46" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I46,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
-        <v>GPIO_31</v>
+        <f>IFERROR(VLOOKUP(I46,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
+        <v>GPIO_031</v>
       </c>
       <c r="K46" s="12"/>
     </row>
     <row r="47" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="57"/>
-      <c r="B47" s="32"/>
+      <c r="A47" s="39"/>
+      <c r="B47" s="36"/>
       <c r="C47" s="18"/>
       <c r="D47" s="18"/>
       <c r="E47" s="12"/>
       <c r="F47" s="16" t="s">
         <v>564</v>
       </c>
-      <c r="G47" s="27"/>
+      <c r="G47" s="33"/>
       <c r="H47" s="16"/>
       <c r="I47" s="22" t="s">
         <v>582</v>
       </c>
       <c r="J47" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I47,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
-        <v>GPIO_30</v>
+        <f>IFERROR(VLOOKUP(I47,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
+        <v>GPIO_030</v>
       </c>
       <c r="K47" s="12"/>
     </row>
     <row r="48" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="57"/>
-      <c r="B48" s="32"/>
+      <c r="A48" s="39"/>
+      <c r="B48" s="36"/>
       <c r="C48" s="18"/>
       <c r="D48" s="18"/>
       <c r="E48" s="12"/>
       <c r="F48" s="16" t="s">
         <v>565</v>
       </c>
-      <c r="G48" s="27"/>
+      <c r="G48" s="33"/>
       <c r="H48" s="16"/>
       <c r="I48" s="22" t="s">
         <v>583</v>
       </c>
       <c r="J48" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I48,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
-        <v>GPIO_33</v>
+        <f>IFERROR(VLOOKUP(I48,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
+        <v>GPIO_033</v>
       </c>
       <c r="K48" s="12"/>
     </row>
     <row r="49" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="57"/>
-      <c r="B49" s="32"/>
+      <c r="A49" s="39"/>
+      <c r="B49" s="36"/>
       <c r="C49" s="18"/>
       <c r="D49" s="18"/>
       <c r="E49" s="12"/>
       <c r="F49" s="16" t="s">
         <v>566</v>
       </c>
-      <c r="G49" s="28"/>
+      <c r="G49" s="34"/>
       <c r="H49" s="16"/>
       <c r="I49" s="22" t="s">
         <v>584</v>
       </c>
       <c r="J49" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I49,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
-        <v>GPIO_32</v>
+        <f>IFERROR(VLOOKUP(I49,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
+        <v>GPIO_032</v>
       </c>
       <c r="K49" s="12"/>
     </row>
     <row r="50" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="57"/>
-      <c r="B50" s="32"/>
+      <c r="A50" s="39"/>
+      <c r="B50" s="36"/>
       <c r="C50" s="18"/>
       <c r="D50" s="18"/>
       <c r="E50" s="12"/>
       <c r="F50" s="16" t="s">
         <v>568</v>
       </c>
-      <c r="G50" s="29" t="s">
+      <c r="G50" s="44" t="s">
         <v>572</v>
       </c>
       <c r="H50" s="16"/>
-      <c r="I50" s="55" t="s">
+      <c r="I50" s="25" t="s">
         <v>676</v>
       </c>
-      <c r="J50" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I50,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
-        <v/>
+      <c r="J50" s="69" t="str">
+        <f>IFERROR(VLOOKUP(I50,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
+        <v>Analog_In0</v>
       </c>
       <c r="K50" s="12"/>
     </row>
     <row r="51" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="57"/>
-      <c r="B51" s="32"/>
+      <c r="A51" s="39"/>
+      <c r="B51" s="36"/>
       <c r="C51" s="18"/>
       <c r="D51" s="18"/>
       <c r="E51" s="12"/>
       <c r="F51" s="16" t="s">
         <v>569</v>
       </c>
-      <c r="G51" s="34"/>
+      <c r="G51" s="46"/>
       <c r="H51" s="16"/>
-      <c r="I51" s="55" t="s">
+      <c r="I51" s="25" t="s">
         <v>677</v>
       </c>
-      <c r="J51" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I51,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
-        <v/>
+      <c r="J51" s="69" t="str">
+        <f>IFERROR(VLOOKUP(I51,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
+        <v>Analog_In1</v>
       </c>
       <c r="K51" s="12"/>
     </row>
     <row r="52" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="57"/>
-      <c r="B52" s="32"/>
+      <c r="A52" s="39"/>
+      <c r="B52" s="36"/>
       <c r="C52" s="18"/>
       <c r="D52" s="18"/>
       <c r="E52" s="12"/>
       <c r="F52" s="16" t="s">
         <v>570</v>
       </c>
-      <c r="G52" s="34"/>
+      <c r="G52" s="46"/>
       <c r="H52" s="16"/>
-      <c r="I52" s="55" t="s">
+      <c r="I52" s="25" t="s">
         <v>678</v>
       </c>
-      <c r="J52" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I52,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
-        <v/>
+      <c r="J52" s="69" t="str">
+        <f>IFERROR(VLOOKUP(I52,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
+        <v>Analog_In2</v>
       </c>
       <c r="K52" s="12"/>
     </row>
     <row r="53" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="57"/>
-      <c r="B53" s="33"/>
+      <c r="A53" s="39"/>
+      <c r="B53" s="37"/>
       <c r="C53" s="18"/>
       <c r="D53" s="18"/>
       <c r="E53" s="12"/>
       <c r="F53" s="16" t="s">
         <v>571</v>
       </c>
-      <c r="G53" s="30"/>
+      <c r="G53" s="45"/>
       <c r="H53" s="16"/>
-      <c r="I53" s="55" t="s">
-        <v>679</v>
-      </c>
-      <c r="J53" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I53,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
-        <v/>
+      <c r="I53" s="25" t="s">
+        <v>680</v>
+      </c>
+      <c r="J53" s="69" t="str">
+        <f>IFERROR(VLOOKUP(I53,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
+        <v>Analog_In4</v>
       </c>
       <c r="K53" s="12"/>
     </row>
     <row r="54" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="57"/>
-      <c r="B54" s="26" t="s">
+      <c r="A54" s="39"/>
+      <c r="B54" s="32" t="s">
         <v>580</v>
       </c>
       <c r="C54" s="18"/>
@@ -4519,7 +4703,7 @@
       <c r="F54" s="16" t="s">
         <v>567</v>
       </c>
-      <c r="G54" s="26" t="s">
+      <c r="G54" s="32" t="s">
         <v>52</v>
       </c>
       <c r="H54" s="16"/>
@@ -4527,154 +4711,154 @@
         <v>585</v>
       </c>
       <c r="J54" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I54,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
-        <v/>
+        <f>IFERROR(VLOOKUP(I54,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
+        <v>GPIO_21</v>
       </c>
       <c r="K54" s="12"/>
     </row>
     <row r="55" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="57"/>
-      <c r="B55" s="27"/>
+      <c r="A55" s="39"/>
+      <c r="B55" s="33"/>
       <c r="C55" s="18"/>
       <c r="D55" s="18"/>
       <c r="E55" s="12"/>
       <c r="F55" s="16" t="s">
         <v>573</v>
       </c>
-      <c r="G55" s="27"/>
+      <c r="G55" s="33"/>
       <c r="H55" s="12"/>
       <c r="I55" s="22" t="s">
         <v>586</v>
       </c>
       <c r="J55" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I55,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
-        <v/>
+        <f>IFERROR(VLOOKUP(I55,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
+        <v>GPIO_22</v>
       </c>
       <c r="K55" s="12"/>
     </row>
     <row r="56" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="57"/>
-      <c r="B56" s="27"/>
+      <c r="A56" s="39"/>
+      <c r="B56" s="33"/>
       <c r="C56" s="18"/>
       <c r="D56" s="18"/>
       <c r="E56" s="12"/>
       <c r="F56" s="16" t="s">
         <v>574</v>
       </c>
-      <c r="G56" s="27"/>
+      <c r="G56" s="33"/>
       <c r="H56" s="12"/>
       <c r="I56" s="22" t="s">
         <v>587</v>
       </c>
       <c r="J56" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I56,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
-        <v/>
+        <f>IFERROR(VLOOKUP(I56,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
+        <v>GPIO_23</v>
       </c>
       <c r="K56" s="12"/>
     </row>
     <row r="57" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="57"/>
-      <c r="B57" s="27"/>
+      <c r="A57" s="39"/>
+      <c r="B57" s="33"/>
       <c r="C57" s="18"/>
       <c r="D57" s="18"/>
       <c r="E57" s="12"/>
       <c r="F57" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="G57" s="27"/>
+      <c r="G57" s="33"/>
       <c r="H57" s="12"/>
       <c r="I57" s="22" t="s">
         <v>588</v>
       </c>
       <c r="J57" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I57,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
-        <v/>
+        <f>IFERROR(VLOOKUP(I57,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
+        <v>GPIO_24</v>
       </c>
       <c r="K57" s="12"/>
     </row>
     <row r="58" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="57"/>
-      <c r="B58" s="27"/>
+      <c r="A58" s="39"/>
+      <c r="B58" s="33"/>
       <c r="C58" s="18"/>
       <c r="D58" s="18"/>
       <c r="E58" s="12"/>
       <c r="F58" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="G58" s="27"/>
+      <c r="G58" s="33"/>
       <c r="H58" s="12"/>
       <c r="I58" s="22" t="s">
         <v>589</v>
       </c>
       <c r="J58" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I58,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(I58,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
         <v>GPIO_114</v>
       </c>
       <c r="K58" s="12"/>
     </row>
     <row r="59" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="57"/>
-      <c r="B59" s="27"/>
+      <c r="A59" s="39"/>
+      <c r="B59" s="33"/>
       <c r="C59" s="18"/>
       <c r="D59" s="18"/>
       <c r="E59" s="12"/>
       <c r="F59" s="16" t="s">
         <v>577</v>
       </c>
-      <c r="G59" s="27"/>
+      <c r="G59" s="33"/>
       <c r="H59" s="12"/>
       <c r="I59" s="22" t="s">
         <v>590</v>
       </c>
       <c r="J59" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I59,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(I59,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
         <v>GPIO_112</v>
       </c>
       <c r="K59" s="12"/>
     </row>
     <row r="60" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="57"/>
-      <c r="B60" s="27"/>
+      <c r="A60" s="39"/>
+      <c r="B60" s="33"/>
       <c r="C60" s="18"/>
       <c r="D60" s="18"/>
       <c r="E60" s="12"/>
       <c r="F60" s="16" t="s">
         <v>578</v>
       </c>
-      <c r="G60" s="27"/>
+      <c r="G60" s="33"/>
       <c r="H60" s="12"/>
       <c r="I60" s="22" t="s">
         <v>591</v>
       </c>
       <c r="J60" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I60,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(I60,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
         <v>GPIO_113</v>
       </c>
       <c r="K60" s="12"/>
     </row>
     <row r="61" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="57"/>
-      <c r="B61" s="28"/>
+      <c r="A61" s="39"/>
+      <c r="B61" s="34"/>
       <c r="C61" s="18"/>
       <c r="D61" s="18"/>
       <c r="E61" s="12"/>
       <c r="F61" s="16" t="s">
         <v>579</v>
       </c>
-      <c r="G61" s="28"/>
+      <c r="G61" s="34"/>
       <c r="H61" s="12"/>
       <c r="I61" s="22" t="s">
         <v>592</v>
       </c>
       <c r="J61" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I61,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(I61,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
         <v>GPIO_110</v>
       </c>
       <c r="K61" s="12"/>
     </row>
     <row r="62" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="57"/>
-      <c r="B62" s="26" t="s">
+      <c r="A62" s="39"/>
+      <c r="B62" s="32" t="s">
         <v>593</v>
       </c>
       <c r="C62" s="18"/>
@@ -4691,14 +4875,14 @@
       </c>
       <c r="I62" s="12"/>
       <c r="J62" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I62,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(I62,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="K62" s="12"/>
     </row>
     <row r="63" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="57"/>
-      <c r="B63" s="27"/>
+      <c r="A63" s="39"/>
+      <c r="B63" s="33"/>
       <c r="C63" s="18"/>
       <c r="D63" s="18"/>
       <c r="E63" s="12"/>
@@ -4713,14 +4897,14 @@
       </c>
       <c r="I63" s="12"/>
       <c r="J63" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I63,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(I63,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="K63" s="12"/>
     </row>
     <row r="64" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="57"/>
-      <c r="B64" s="28"/>
+      <c r="A64" s="39"/>
+      <c r="B64" s="34"/>
       <c r="C64" s="18"/>
       <c r="D64" s="18"/>
       <c r="E64" s="12"/>
@@ -4735,14 +4919,14 @@
       </c>
       <c r="I64" s="12"/>
       <c r="J64" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I64,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(I64,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="K64" s="12"/>
     </row>
     <row r="65" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="57"/>
-      <c r="B65" s="26" t="s">
+      <c r="A65" s="39"/>
+      <c r="B65" s="32" t="s">
         <v>600</v>
       </c>
       <c r="C65" s="18"/>
@@ -4759,14 +4943,14 @@
       </c>
       <c r="I65" s="12"/>
       <c r="J65" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I65,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(I65,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="K65" s="12"/>
     </row>
     <row r="66" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="57"/>
-      <c r="B66" s="28"/>
+      <c r="A66" s="39"/>
+      <c r="B66" s="34"/>
       <c r="C66" s="18"/>
       <c r="D66" s="18"/>
       <c r="E66" s="12"/>
@@ -4781,14 +4965,14 @@
       </c>
       <c r="I66" s="12"/>
       <c r="J66" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I66,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(I66,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="K66" s="12"/>
     </row>
     <row r="67" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="57"/>
-      <c r="B67" s="31" t="s">
+      <c r="A67" s="39"/>
+      <c r="B67" s="35" t="s">
         <v>673</v>
       </c>
       <c r="C67" s="18"/>
@@ -4807,67 +4991,67 @@
         <v>619</v>
       </c>
       <c r="J67" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I67,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(I67,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
         <v>GPIO_05</v>
       </c>
       <c r="K67" s="12"/>
     </row>
     <row r="68" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="57"/>
-      <c r="B68" s="32"/>
+      <c r="A68" s="39"/>
+      <c r="B68" s="36"/>
       <c r="C68" s="18"/>
       <c r="D68" s="18"/>
       <c r="E68" s="12"/>
       <c r="F68" s="4" t="s">
         <v>606</v>
       </c>
-      <c r="G68" s="29" t="s">
+      <c r="G68" s="44" t="s">
         <v>52</v>
       </c>
       <c r="H68" s="22" t="s">
         <v>355</v>
       </c>
-      <c r="I68" s="23" t="s">
+      <c r="I68" s="70" t="s">
         <v>620</v>
       </c>
       <c r="J68" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I68,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(I68,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
         <v>GPIO_120</v>
       </c>
       <c r="K68" s="12"/>
     </row>
     <row r="69" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="57"/>
-      <c r="B69" s="32"/>
+      <c r="A69" s="39"/>
+      <c r="B69" s="36"/>
       <c r="C69" s="18"/>
       <c r="D69" s="18"/>
       <c r="E69" s="12"/>
       <c r="F69" s="16" t="s">
         <v>607</v>
       </c>
-      <c r="G69" s="30"/>
+      <c r="G69" s="45"/>
       <c r="H69" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="I69" s="23" t="s">
-        <v>621</v>
+      <c r="I69" s="70" t="s">
+        <v>793</v>
       </c>
       <c r="J69" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I69,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
-        <v>GPIO_0_IN1</v>
+        <f>IFERROR(VLOOKUP(I69,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
+        <v>GPIO_121</v>
       </c>
       <c r="K69" s="12"/>
     </row>
     <row r="70" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="57"/>
-      <c r="B70" s="32"/>
+      <c r="A70" s="39"/>
+      <c r="B70" s="36"/>
       <c r="C70" s="18"/>
       <c r="D70" s="18"/>
       <c r="E70" s="12"/>
       <c r="F70" s="16" t="s">
         <v>608</v>
       </c>
-      <c r="G70" s="26" t="s">
+      <c r="G70" s="32" t="s">
         <v>553</v>
       </c>
       <c r="H70" s="22" t="s">
@@ -4877,21 +5061,21 @@
         <v>622</v>
       </c>
       <c r="J70" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I70,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(I70,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
         <v>GPIO_123</v>
       </c>
       <c r="K70" s="12"/>
     </row>
     <row r="71" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="57"/>
-      <c r="B71" s="33"/>
+      <c r="A71" s="39"/>
+      <c r="B71" s="37"/>
       <c r="C71" s="18"/>
       <c r="D71" s="18"/>
       <c r="E71" s="12"/>
       <c r="F71" s="4" t="s">
         <v>609</v>
       </c>
-      <c r="G71" s="28"/>
+      <c r="G71" s="34"/>
       <c r="H71" s="22" t="s">
         <v>306</v>
       </c>
@@ -4899,14 +5083,14 @@
         <v>623</v>
       </c>
       <c r="J71" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I71,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(I71,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
         <v>GPIO_03</v>
       </c>
       <c r="K71" s="12"/>
     </row>
     <row r="72" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="57"/>
-      <c r="B72" s="26" t="s">
+      <c r="A72" s="39"/>
+      <c r="B72" s="32" t="s">
         <v>624</v>
       </c>
       <c r="C72" s="18"/>
@@ -4915,7 +5099,7 @@
       <c r="F72" s="16" t="s">
         <v>625</v>
       </c>
-      <c r="G72" s="26" t="s">
+      <c r="G72" s="32" t="s">
         <v>597</v>
       </c>
       <c r="H72" s="22" t="s">
@@ -4925,21 +5109,21 @@
         <v>629</v>
       </c>
       <c r="J72" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I72,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(I72,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
         <v>GPIO_122</v>
       </c>
       <c r="K72" s="12"/>
     </row>
     <row r="73" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="57"/>
-      <c r="B73" s="27"/>
+      <c r="A73" s="39"/>
+      <c r="B73" s="33"/>
       <c r="C73" s="18"/>
       <c r="D73" s="18"/>
       <c r="E73" s="12"/>
       <c r="F73" s="16" t="s">
         <v>626</v>
       </c>
-      <c r="G73" s="27"/>
+      <c r="G73" s="33"/>
       <c r="H73" s="22" t="s">
         <v>357</v>
       </c>
@@ -4947,21 +5131,21 @@
         <v>630</v>
       </c>
       <c r="J73" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I73,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(I73,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
         <v>GPIO_125</v>
       </c>
       <c r="K73" s="12"/>
     </row>
     <row r="74" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="57"/>
-      <c r="B74" s="27"/>
+      <c r="A74" s="39"/>
+      <c r="B74" s="33"/>
       <c r="C74" s="18"/>
       <c r="D74" s="18"/>
       <c r="E74" s="12"/>
       <c r="F74" s="4" t="s">
         <v>627</v>
       </c>
-      <c r="G74" s="27"/>
+      <c r="G74" s="33"/>
       <c r="H74" s="22" t="s">
         <v>354</v>
       </c>
@@ -4969,21 +5153,21 @@
         <v>631</v>
       </c>
       <c r="J74" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I74,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
-        <v>GPIO_14</v>
+        <f>IFERROR(VLOOKUP(I74,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
+        <v>GPIO_014</v>
       </c>
       <c r="K74" s="12"/>
     </row>
     <row r="75" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="57"/>
-      <c r="B75" s="28"/>
+      <c r="A75" s="39"/>
+      <c r="B75" s="34"/>
       <c r="C75" s="18"/>
       <c r="D75" s="18"/>
       <c r="E75" s="12"/>
       <c r="F75" s="16" t="s">
         <v>628</v>
       </c>
-      <c r="G75" s="28"/>
+      <c r="G75" s="34"/>
       <c r="H75" s="22" t="s">
         <v>292</v>
       </c>
@@ -4991,14 +5175,14 @@
         <v>632</v>
       </c>
       <c r="J75" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I75,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
-        <v>GPIO_15</v>
+        <f>IFERROR(VLOOKUP(I75,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
+        <v>GPIO_015</v>
       </c>
       <c r="K75" s="12"/>
     </row>
     <row r="76" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="57"/>
-      <c r="B76" s="31" t="s">
+      <c r="A76" s="39"/>
+      <c r="B76" s="35" t="s">
         <v>672</v>
       </c>
       <c r="C76" s="18"/>
@@ -5015,14 +5199,14 @@
         <v>639</v>
       </c>
       <c r="J76" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I76,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
-        <v>GPIO_11</v>
+        <f>IFERROR(VLOOKUP(I76,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
+        <v>GPIO_011</v>
       </c>
       <c r="K76" s="12"/>
     </row>
     <row r="77" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="57"/>
-      <c r="B77" s="32"/>
+      <c r="A77" s="39"/>
+      <c r="B77" s="36"/>
       <c r="C77" s="18"/>
       <c r="D77" s="18"/>
       <c r="E77" s="12"/>
@@ -5037,14 +5221,14 @@
         <v>640</v>
       </c>
       <c r="J77" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I77,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
-        <v>GPIO_13</v>
+        <f>IFERROR(VLOOKUP(I77,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
+        <v>GPIO_013</v>
       </c>
       <c r="K77" s="12"/>
     </row>
     <row r="78" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="57"/>
-      <c r="B78" s="32"/>
+      <c r="A78" s="39"/>
+      <c r="B78" s="36"/>
       <c r="C78" s="18"/>
       <c r="D78" s="18"/>
       <c r="E78" s="12"/>
@@ -5059,14 +5243,14 @@
         <v>642</v>
       </c>
       <c r="J78" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I78,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
-        <v>GPIO_10</v>
+        <f>IFERROR(VLOOKUP(I78,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
+        <v>GPIO_010</v>
       </c>
       <c r="K78" s="12"/>
     </row>
     <row r="79" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="57"/>
-      <c r="B79" s="32"/>
+      <c r="A79" s="39"/>
+      <c r="B79" s="36"/>
       <c r="C79" s="18"/>
       <c r="D79" s="18"/>
       <c r="E79" s="12"/>
@@ -5081,56 +5265,56 @@
         <v>641</v>
       </c>
       <c r="J79" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I79,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
-        <v>GPIO_12</v>
+        <f>IFERROR(VLOOKUP(I79,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
+        <v>GPIO_012</v>
       </c>
       <c r="K79" s="12"/>
     </row>
     <row r="80" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="57"/>
-      <c r="B80" s="32"/>
+      <c r="A80" s="39"/>
+      <c r="B80" s="36"/>
       <c r="C80" s="18"/>
       <c r="D80" s="18"/>
       <c r="E80" s="12"/>
       <c r="F80" s="4" t="s">
         <v>637</v>
       </c>
-      <c r="G80" s="29" t="s">
+      <c r="G80" s="44" t="s">
         <v>572</v>
       </c>
       <c r="H80" s="12"/>
-      <c r="I80" s="55" t="s">
-        <v>680</v>
-      </c>
-      <c r="J80" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I80,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
-        <v/>
+      <c r="I80" s="25" t="s">
+        <v>679</v>
+      </c>
+      <c r="J80" s="69" t="str">
+        <f>IFERROR(VLOOKUP(I80,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
+        <v>Analog_In3</v>
       </c>
       <c r="K80" s="12"/>
     </row>
     <row r="81" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="57"/>
-      <c r="B81" s="33"/>
+      <c r="A81" s="39"/>
+      <c r="B81" s="37"/>
       <c r="C81" s="18"/>
       <c r="D81" s="18"/>
       <c r="E81" s="12"/>
       <c r="F81" s="16" t="s">
         <v>638</v>
       </c>
-      <c r="G81" s="30"/>
+      <c r="G81" s="45"/>
       <c r="H81" s="12"/>
-      <c r="I81" s="55" t="s">
-        <v>681</v>
-      </c>
-      <c r="J81" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I81,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
-        <v/>
+      <c r="I81" s="25" t="s">
+        <v>683</v>
+      </c>
+      <c r="J81" s="69" t="str">
+        <f>IFERROR(VLOOKUP(I81,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
+        <v>Analog_In7</v>
       </c>
       <c r="K81" s="12"/>
     </row>
     <row r="82" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="57"/>
-      <c r="B82" s="31" t="s">
+      <c r="A82" s="39"/>
+      <c r="B82" s="35" t="s">
         <v>647</v>
       </c>
       <c r="C82" s="19"/>
@@ -5139,74 +5323,82 @@
       <c r="F82" s="4" t="s">
         <v>643</v>
       </c>
-      <c r="G82" s="29" t="s">
+      <c r="G82" s="44" t="s">
         <v>597</v>
       </c>
       <c r="H82" s="12"/>
-      <c r="I82" s="25"/>
+      <c r="I82" s="28" t="s">
+        <v>767</v>
+      </c>
       <c r="J82" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I82,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
-        <v/>
+        <f>IFERROR(VLOOKUP(I82,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
+        <v>GPIO_06</v>
       </c>
       <c r="K82" s="12"/>
     </row>
     <row r="83" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="57"/>
-      <c r="B83" s="32"/>
+      <c r="A83" s="39"/>
+      <c r="B83" s="36"/>
       <c r="C83" s="18"/>
       <c r="D83" s="18"/>
       <c r="E83" s="12"/>
       <c r="F83" s="4" t="s">
         <v>644</v>
       </c>
-      <c r="G83" s="34"/>
+      <c r="G83" s="46"/>
       <c r="H83" s="12"/>
-      <c r="I83" s="25"/>
+      <c r="I83" s="28" t="s">
+        <v>768</v>
+      </c>
       <c r="J83" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I83,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
-        <v/>
+        <f>IFERROR(VLOOKUP(I83,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
+        <v>GPIO_07</v>
       </c>
       <c r="K83" s="12"/>
     </row>
     <row r="84" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="57"/>
-      <c r="B84" s="32"/>
+      <c r="A84" s="39"/>
+      <c r="B84" s="36"/>
       <c r="C84" s="18"/>
       <c r="D84" s="18"/>
       <c r="E84" s="12"/>
       <c r="F84" s="16" t="s">
         <v>645</v>
       </c>
-      <c r="G84" s="34"/>
+      <c r="G84" s="46"/>
       <c r="H84" s="12"/>
-      <c r="I84" s="25"/>
+      <c r="I84" s="28" t="s">
+        <v>769</v>
+      </c>
       <c r="J84" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I84,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
-        <v/>
+        <f>IFERROR(VLOOKUP(I84,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
+        <v>GPIO_08</v>
       </c>
       <c r="K84" s="12"/>
     </row>
     <row r="85" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="57"/>
-      <c r="B85" s="33"/>
+      <c r="A85" s="39"/>
+      <c r="B85" s="37"/>
       <c r="C85" s="18"/>
       <c r="D85" s="18"/>
       <c r="E85" s="12"/>
       <c r="F85" s="16" t="s">
         <v>646</v>
       </c>
-      <c r="G85" s="30"/>
+      <c r="G85" s="45"/>
       <c r="H85" s="12"/>
-      <c r="I85" s="25"/>
+      <c r="I85" s="28" t="s">
+        <v>770</v>
+      </c>
       <c r="J85" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I85,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
-        <v/>
+        <f>IFERROR(VLOOKUP(I85,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
+        <v>GPIO_09</v>
       </c>
       <c r="K85" s="12"/>
     </row>
     <row r="86" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="57"/>
-      <c r="B86" s="31" t="s">
+      <c r="A86" s="39"/>
+      <c r="B86" s="35" t="s">
         <v>648</v>
       </c>
       <c r="C86" s="19"/>
@@ -5219,16 +5411,18 @@
         <v>553</v>
       </c>
       <c r="H86" s="12"/>
-      <c r="I86" s="25"/>
+      <c r="I86" s="28" t="s">
+        <v>771</v>
+      </c>
       <c r="J86" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I86,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
-        <v/>
+        <f>IFERROR(VLOOKUP(I86,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
+        <v>GPIO_018</v>
       </c>
       <c r="K86" s="12"/>
     </row>
     <row r="87" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="57"/>
-      <c r="B87" s="32"/>
+      <c r="A87" s="39"/>
+      <c r="B87" s="36"/>
       <c r="C87" s="18"/>
       <c r="D87" s="18"/>
       <c r="E87" s="12"/>
@@ -5239,16 +5433,18 @@
         <v>597</v>
       </c>
       <c r="H87" s="12"/>
-      <c r="I87" s="25"/>
+      <c r="I87" s="28" t="s">
+        <v>772</v>
+      </c>
       <c r="J87" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I87,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
-        <v/>
+        <f>IFERROR(VLOOKUP(I87,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
+        <v>GPIO_019</v>
       </c>
       <c r="K87" s="12"/>
     </row>
     <row r="88" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="57"/>
-      <c r="B88" s="32"/>
+      <c r="A88" s="39"/>
+      <c r="B88" s="36"/>
       <c r="C88" s="18"/>
       <c r="D88" s="18"/>
       <c r="E88" s="12"/>
@@ -5259,16 +5455,18 @@
         <v>553</v>
       </c>
       <c r="H88" s="12"/>
-      <c r="I88" s="25"/>
+      <c r="I88" s="28" t="s">
+        <v>773</v>
+      </c>
       <c r="J88" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I88,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
-        <v/>
+        <f>IFERROR(VLOOKUP(I88,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
+        <v>GPIO_020</v>
       </c>
       <c r="K88" s="12"/>
     </row>
     <row r="89" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="57"/>
-      <c r="B89" s="32"/>
+      <c r="A89" s="39"/>
+      <c r="B89" s="36"/>
       <c r="C89" s="18"/>
       <c r="D89" s="18"/>
       <c r="E89" s="12"/>
@@ -5279,16 +5477,18 @@
         <v>597</v>
       </c>
       <c r="H89" s="12"/>
-      <c r="I89" s="25"/>
+      <c r="I89" s="28" t="s">
+        <v>774</v>
+      </c>
       <c r="J89" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I89,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
-        <v/>
+        <f>IFERROR(VLOOKUP(I89,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
+        <v>GPIO_021</v>
       </c>
       <c r="K89" s="12"/>
     </row>
     <row r="90" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="57"/>
-      <c r="B90" s="32"/>
+      <c r="A90" s="39"/>
+      <c r="B90" s="36"/>
       <c r="C90" s="19"/>
       <c r="D90" s="18"/>
       <c r="E90" s="12"/>
@@ -5299,16 +5499,18 @@
         <v>553</v>
       </c>
       <c r="H90" s="12"/>
-      <c r="I90" s="25"/>
+      <c r="I90" s="28" t="s">
+        <v>775</v>
+      </c>
       <c r="J90" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I90,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
-        <v/>
+        <f>IFERROR(VLOOKUP(I90,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
+        <v>GPIO_022</v>
       </c>
       <c r="K90" s="12"/>
     </row>
     <row r="91" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="57"/>
-      <c r="B91" s="32"/>
+      <c r="A91" s="39"/>
+      <c r="B91" s="36"/>
       <c r="C91" s="18"/>
       <c r="D91" s="18"/>
       <c r="E91" s="12"/>
@@ -5319,16 +5521,18 @@
         <v>597</v>
       </c>
       <c r="H91" s="12"/>
-      <c r="I91" s="25"/>
+      <c r="I91" s="28" t="s">
+        <v>776</v>
+      </c>
       <c r="J91" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I91,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
-        <v/>
+        <f>IFERROR(VLOOKUP(I91,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
+        <v>GPIO_023</v>
       </c>
       <c r="K91" s="12"/>
     </row>
     <row r="92" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="57"/>
-      <c r="B92" s="32"/>
+      <c r="A92" s="39"/>
+      <c r="B92" s="36"/>
       <c r="C92" s="18"/>
       <c r="D92" s="18"/>
       <c r="E92" s="12"/>
@@ -5339,16 +5543,18 @@
         <v>553</v>
       </c>
       <c r="H92" s="12"/>
-      <c r="I92" s="25"/>
+      <c r="I92" s="28" t="s">
+        <v>777</v>
+      </c>
       <c r="J92" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I92,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
-        <v/>
+        <f>IFERROR(VLOOKUP(I92,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
+        <v>GPIO_026</v>
       </c>
       <c r="K92" s="12"/>
     </row>
     <row r="93" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="58"/>
-      <c r="B93" s="33"/>
+      <c r="A93" s="40"/>
+      <c r="B93" s="37"/>
       <c r="C93" s="18"/>
       <c r="D93" s="18"/>
       <c r="E93" s="12"/>
@@ -5359,18 +5565,20 @@
         <v>597</v>
       </c>
       <c r="H93" s="12"/>
-      <c r="I93" s="25"/>
+      <c r="I93" s="28" t="s">
+        <v>778</v>
+      </c>
       <c r="J93" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I93,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
-        <v/>
+        <f>IFERROR(VLOOKUP(I93,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
+        <v>GPIO_027</v>
       </c>
       <c r="K93" s="12"/>
     </row>
     <row r="94" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="37" t="s">
+      <c r="A94" s="48" t="s">
         <v>496</v>
       </c>
-      <c r="B94" s="26" t="s">
+      <c r="B94" s="32" t="s">
         <v>675</v>
       </c>
       <c r="C94" s="19"/>
@@ -5379,42 +5587,42 @@
       <c r="F94" s="16" t="s">
         <v>657</v>
       </c>
-      <c r="G94" s="29" t="s">
+      <c r="G94" s="44" t="s">
         <v>572</v>
       </c>
       <c r="H94" s="12"/>
-      <c r="I94" s="55" t="s">
+      <c r="I94" s="25" t="s">
         <v>682</v>
       </c>
-      <c r="J94" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I94,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
-        <v/>
+      <c r="J94" s="69" t="str">
+        <f>IFERROR(VLOOKUP(I94,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
+        <v>Analog_In6</v>
       </c>
       <c r="K94" s="12"/>
     </row>
     <row r="95" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="38"/>
-      <c r="B95" s="28"/>
+      <c r="A95" s="49"/>
+      <c r="B95" s="34"/>
       <c r="C95" s="18"/>
       <c r="D95" s="18"/>
       <c r="E95" s="12"/>
       <c r="F95" s="16" t="s">
         <v>658</v>
       </c>
-      <c r="G95" s="30"/>
+      <c r="G95" s="45"/>
       <c r="H95" s="12"/>
-      <c r="I95" s="55" t="s">
-        <v>683</v>
-      </c>
-      <c r="J95" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I95,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
-        <v/>
+      <c r="I95" s="25" t="s">
+        <v>681</v>
+      </c>
+      <c r="J95" s="69" t="str">
+        <f>IFERROR(VLOOKUP(I95,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
+        <v>Analog_In5</v>
       </c>
       <c r="K95" s="12"/>
     </row>
     <row r="96" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="38"/>
-      <c r="B96" s="26" t="s">
+      <c r="A96" s="49"/>
+      <c r="B96" s="32" t="s">
         <v>671</v>
       </c>
       <c r="C96" s="18"/>
@@ -5423,108 +5631,120 @@
       <c r="F96" s="16" t="s">
         <v>659</v>
       </c>
-      <c r="G96" s="31" t="s">
-        <v>804</v>
-      </c>
-      <c r="H96" s="55" t="s">
+      <c r="G96" s="35" t="s">
+        <v>800</v>
+      </c>
+      <c r="H96" s="25" t="s">
         <v>299</v>
       </c>
-      <c r="I96" s="66"/>
+      <c r="I96" s="70" t="s">
+        <v>833</v>
+      </c>
       <c r="J96" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I96,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
-        <v/>
+        <f>IFERROR(VLOOKUP(I96,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
+        <v>GPIO_26</v>
       </c>
       <c r="K96" s="12"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="38"/>
-      <c r="B97" s="27"/>
+      <c r="A97" s="49"/>
+      <c r="B97" s="33"/>
       <c r="C97" s="18"/>
       <c r="D97" s="18"/>
       <c r="F97" s="16" t="s">
         <v>660</v>
       </c>
-      <c r="G97" s="27"/>
-      <c r="H97" s="55" t="s">
-        <v>803</v>
-      </c>
-      <c r="I97" s="66"/>
+      <c r="G97" s="33"/>
+      <c r="H97" s="25" t="s">
+        <v>799</v>
+      </c>
+      <c r="I97" s="70" t="s">
+        <v>834</v>
+      </c>
       <c r="J97" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I97,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
-        <v/>
+        <f>IFERROR(VLOOKUP(I97,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
+        <v>GPIO_27</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="38"/>
-      <c r="B98" s="27"/>
+      <c r="A98" s="49"/>
+      <c r="B98" s="33"/>
       <c r="C98" s="19"/>
       <c r="D98" s="18"/>
       <c r="F98" s="16" t="s">
         <v>661</v>
       </c>
-      <c r="G98" s="27"/>
-      <c r="H98" s="55" t="s">
+      <c r="G98" s="33"/>
+      <c r="H98" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="I98" s="66"/>
+      <c r="I98" s="70" t="s">
+        <v>835</v>
+      </c>
       <c r="J98" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I98,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
-        <v/>
+        <f>IFERROR(VLOOKUP(I98,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
+        <v>GPIO_28</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="38"/>
-      <c r="B99" s="27"/>
+      <c r="A99" s="49"/>
+      <c r="B99" s="33"/>
       <c r="C99" s="18"/>
       <c r="D99" s="18"/>
       <c r="F99" s="16" t="s">
         <v>662</v>
       </c>
-      <c r="G99" s="27"/>
-      <c r="H99" s="55" t="s">
+      <c r="G99" s="33"/>
+      <c r="H99" s="25" t="s">
         <v>375</v>
       </c>
-      <c r="I99" s="66"/>
+      <c r="I99" s="70" t="s">
+        <v>837</v>
+      </c>
       <c r="J99" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I99,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
-        <v/>
+        <f>IFERROR(VLOOKUP(I99,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
+        <v>GPIO_210</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="38"/>
-      <c r="B100" s="27"/>
+      <c r="A100" s="49"/>
+      <c r="B100" s="33"/>
       <c r="C100" s="18"/>
       <c r="D100" s="18"/>
       <c r="F100" s="16" t="s">
         <v>663</v>
       </c>
-      <c r="G100" s="27"/>
-      <c r="H100" s="62"/>
-      <c r="I100" s="25"/>
+      <c r="G100" s="33"/>
+      <c r="H100" s="26"/>
+      <c r="I100" s="28" t="s">
+        <v>838</v>
+      </c>
       <c r="J100" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I100,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
-        <v/>
+        <f>IFERROR(VLOOKUP(I100,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
+        <v>GPIO_211</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="38"/>
-      <c r="B101" s="28"/>
+      <c r="A101" s="49"/>
+      <c r="B101" s="34"/>
       <c r="C101" s="18"/>
       <c r="D101" s="18"/>
       <c r="F101" s="16" t="s">
         <v>664</v>
       </c>
-      <c r="G101" s="28"/>
-      <c r="H101" s="62"/>
-      <c r="I101" s="25"/>
+      <c r="G101" s="34"/>
+      <c r="H101" s="26"/>
+      <c r="I101" s="28" t="s">
+        <v>839</v>
+      </c>
       <c r="J101" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I101,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
-        <v/>
+        <f>IFERROR(VLOOKUP(I101,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
+        <v>GPIO_212</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="38"/>
-      <c r="B102" s="26" t="s">
+      <c r="A102" s="49"/>
+      <c r="B102" s="32" t="s">
         <v>674</v>
       </c>
       <c r="C102" s="19"/>
@@ -5532,101 +5752,113 @@
       <c r="F102" s="16" t="s">
         <v>665</v>
       </c>
-      <c r="G102" s="29" t="s">
+      <c r="G102" s="44" t="s">
         <v>597</v>
       </c>
-      <c r="H102" s="62"/>
-      <c r="I102" s="25"/>
+      <c r="H102" s="26"/>
+      <c r="I102" s="28" t="s">
+        <v>762</v>
+      </c>
       <c r="J102" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I102,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
-        <v/>
+        <f>IFERROR(VLOOKUP(I102,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
+        <v>GPIO_0_IN0</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="38"/>
-      <c r="B103" s="27"/>
+      <c r="A103" s="49"/>
+      <c r="B103" s="33"/>
       <c r="C103" s="18"/>
       <c r="D103" s="18"/>
       <c r="F103" s="16" t="s">
         <v>666</v>
       </c>
-      <c r="G103" s="34"/>
-      <c r="H103" s="62"/>
-      <c r="I103" s="25"/>
+      <c r="G103" s="46"/>
+      <c r="H103" s="26"/>
+      <c r="I103" s="28" t="s">
+        <v>621</v>
+      </c>
       <c r="J103" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I103,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
-        <v/>
+        <f>IFERROR(VLOOKUP(I103,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
+        <v>GPIO_0_IN1</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="38"/>
-      <c r="B104" s="27"/>
+      <c r="A104" s="49"/>
+      <c r="B104" s="33"/>
       <c r="C104" s="18"/>
       <c r="D104" s="18"/>
       <c r="F104" s="16" t="s">
         <v>667</v>
       </c>
-      <c r="G104" s="34"/>
-      <c r="H104" s="62"/>
-      <c r="I104" s="25"/>
+      <c r="G104" s="46"/>
+      <c r="H104" s="26"/>
+      <c r="I104" s="28" t="s">
+        <v>841</v>
+      </c>
       <c r="J104" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I104,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
-        <v/>
+        <f>IFERROR(VLOOKUP(I104,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
+        <v>GPIO_2_IN1</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="38"/>
-      <c r="B105" s="27"/>
+      <c r="A105" s="49"/>
+      <c r="B105" s="33"/>
       <c r="C105" s="18"/>
       <c r="D105" s="18"/>
       <c r="F105" s="16" t="s">
         <v>668</v>
       </c>
-      <c r="G105" s="34"/>
-      <c r="H105" s="62"/>
-      <c r="I105" s="25"/>
+      <c r="G105" s="46"/>
+      <c r="H105" s="26"/>
+      <c r="I105" s="28" t="s">
+        <v>842</v>
+      </c>
       <c r="J105" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I105,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
-        <v/>
+        <f>IFERROR(VLOOKUP(I105,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
+        <v>GPIO_2_IN2</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="38"/>
-      <c r="B106" s="27"/>
+      <c r="A106" s="49"/>
+      <c r="B106" s="33"/>
       <c r="C106" s="19"/>
       <c r="D106" s="18"/>
       <c r="F106" s="16" t="s">
         <v>669</v>
       </c>
-      <c r="G106" s="34"/>
-      <c r="H106" s="62"/>
-      <c r="I106" s="25"/>
+      <c r="G106" s="46"/>
+      <c r="H106" s="26"/>
+      <c r="I106" s="28" t="s">
+        <v>831</v>
+      </c>
       <c r="J106" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I106,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
-        <v/>
+        <f>IFERROR(VLOOKUP(I106,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
+        <v>GPIO_20</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="38"/>
-      <c r="B107" s="28"/>
+      <c r="A107" s="49"/>
+      <c r="B107" s="34"/>
       <c r="C107" s="18"/>
       <c r="D107" s="18"/>
       <c r="F107" s="16" t="s">
         <v>670</v>
       </c>
-      <c r="G107" s="30"/>
-      <c r="H107" s="62"/>
-      <c r="I107" s="25"/>
+      <c r="G107" s="45"/>
+      <c r="H107" s="26"/>
+      <c r="I107" s="28" t="s">
+        <v>832</v>
+      </c>
       <c r="J107" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I107,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
-        <v/>
+        <f>IFERROR(VLOOKUP(I107,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
+        <v>GPIO_25</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="59" t="s">
+      <c r="A108" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="B108" s="26" t="s">
+      <c r="B108" s="32" t="s">
         <v>691</v>
       </c>
       <c r="C108" s="18"/>
@@ -5634,104 +5866,116 @@
       <c r="F108" s="16" t="s">
         <v>684</v>
       </c>
-      <c r="G108" s="26" t="s">
+      <c r="G108" s="32" t="s">
         <v>616</v>
       </c>
-      <c r="H108" s="55" t="s">
-        <v>290</v>
-      </c>
-      <c r="I108" s="66"/>
+      <c r="H108" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="I108" s="70" t="s">
+        <v>787</v>
+      </c>
       <c r="J108" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I108,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
-        <v/>
+        <f>IFERROR(VLOOKUP(I108,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
+        <v>GPIO_16</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="60"/>
-      <c r="B109" s="27"/>
+      <c r="A109" s="42"/>
+      <c r="B109" s="33"/>
       <c r="C109" s="18"/>
       <c r="D109" s="18"/>
       <c r="F109" s="16" t="s">
         <v>685</v>
       </c>
-      <c r="G109" s="27"/>
-      <c r="H109" s="55" t="s">
-        <v>291</v>
-      </c>
-      <c r="I109" s="66"/>
+      <c r="G109" s="33"/>
+      <c r="H109" s="25" t="s">
+        <v>806</v>
+      </c>
+      <c r="I109" s="70" t="s">
+        <v>786</v>
+      </c>
       <c r="J109" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I109,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
-        <v/>
+        <f>IFERROR(VLOOKUP(I109,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
+        <v>GPIO_15</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="60"/>
-      <c r="B110" s="27"/>
+      <c r="A110" s="42"/>
+      <c r="B110" s="33"/>
       <c r="C110" s="19"/>
       <c r="D110" s="18"/>
       <c r="F110" s="16" t="s">
         <v>686</v>
       </c>
-      <c r="G110" s="27"/>
-      <c r="I110" s="25"/>
+      <c r="G110" s="33"/>
+      <c r="I110" s="28" t="s">
+        <v>785</v>
+      </c>
       <c r="J110" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I110,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
-        <v/>
+        <f>IFERROR(VLOOKUP(I110,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
+        <v>GPIO_14</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="60"/>
-      <c r="B111" s="27"/>
+      <c r="A111" s="42"/>
+      <c r="B111" s="33"/>
       <c r="C111" s="18"/>
       <c r="D111" s="18"/>
       <c r="F111" s="16" t="s">
         <v>687</v>
       </c>
-      <c r="G111" s="27"/>
-      <c r="I111" s="25"/>
+      <c r="G111" s="33"/>
+      <c r="I111" s="28" t="s">
+        <v>784</v>
+      </c>
       <c r="J111" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I111,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
-        <v/>
+        <f>IFERROR(VLOOKUP(I111,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
+        <v>GPIO_13</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="60"/>
-      <c r="B112" s="27"/>
+      <c r="A112" s="42"/>
+      <c r="B112" s="33"/>
       <c r="C112" s="18"/>
       <c r="D112" s="18"/>
       <c r="F112" s="16" t="s">
         <v>688</v>
       </c>
-      <c r="G112" s="27"/>
-      <c r="I112" s="25"/>
+      <c r="G112" s="33"/>
+      <c r="I112" s="28" t="s">
+        <v>783</v>
+      </c>
       <c r="J112" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I112,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
-        <v/>
+        <f>IFERROR(VLOOKUP(I112,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
+        <v>GPIO_12</v>
       </c>
     </row>
     <row r="113" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="60"/>
-      <c r="B113" s="28"/>
+      <c r="A113" s="42"/>
+      <c r="B113" s="34"/>
       <c r="C113" s="18"/>
       <c r="D113" s="18"/>
       <c r="E113" s="12"/>
       <c r="F113" s="16" t="s">
         <v>689</v>
       </c>
-      <c r="G113" s="28"/>
+      <c r="G113" s="34"/>
       <c r="H113" s="12"/>
-      <c r="I113" s="25"/>
+      <c r="I113" s="28" t="s">
+        <v>782</v>
+      </c>
       <c r="J113" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I113,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
-        <v/>
+        <f>IFERROR(VLOOKUP(I113,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
+        <v>GPIO_11</v>
       </c>
       <c r="K113" s="12"/>
       <c r="M113" s="1"/>
       <c r="N113" s="1"/>
     </row>
     <row r="114" spans="1:14" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="60"/>
-      <c r="B114" s="31" t="s">
+      <c r="A114" s="42"/>
+      <c r="B114" s="35" t="s">
         <v>692</v>
       </c>
       <c r="C114" s="19"/>
@@ -5743,12 +5987,12 @@
       <c r="G114" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="H114" s="64" t="s">
+      <c r="H114" s="28" t="s">
         <v>361</v>
       </c>
-      <c r="I114" s="66"/>
+      <c r="I114" s="23"/>
       <c r="J114" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I114,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(I114,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="K114" s="12"/>
@@ -5756,8 +6000,8 @@
       <c r="N114" s="1"/>
     </row>
     <row r="115" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="60"/>
-      <c r="B115" s="32"/>
+      <c r="A115" s="42"/>
+      <c r="B115" s="36"/>
       <c r="C115" s="18"/>
       <c r="D115" s="18"/>
       <c r="E115" s="12"/>
@@ -5767,12 +6011,12 @@
       <c r="G115" s="4" t="s">
         <v>597</v>
       </c>
-      <c r="H115" s="64" t="s">
+      <c r="H115" s="28" t="s">
         <v>303</v>
       </c>
       <c r="I115" s="23"/>
       <c r="J115" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I115,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(I115,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="K115" s="12"/>
@@ -5780,109 +6024,117 @@
       <c r="N115" s="1"/>
     </row>
     <row r="116" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="60"/>
-      <c r="B116" s="32"/>
+      <c r="A116" s="42"/>
+      <c r="B116" s="36"/>
       <c r="C116" s="18"/>
       <c r="D116" s="18"/>
       <c r="E116" s="12"/>
       <c r="F116" s="16" t="s">
         <v>695</v>
       </c>
-      <c r="G116" s="26" t="s">
+      <c r="G116" s="32" t="s">
         <v>597</v>
       </c>
-      <c r="H116" s="55" t="s">
+      <c r="H116" s="25" t="s">
         <v>364</v>
       </c>
-      <c r="I116" s="66"/>
+      <c r="I116" s="70" t="s">
+        <v>781</v>
+      </c>
       <c r="J116" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I116,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
-        <v/>
+        <f>IFERROR(VLOOKUP(I116,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
+        <v>GPIO_1_IN1</v>
       </c>
       <c r="K116" s="12"/>
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
     </row>
     <row r="117" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="60"/>
-      <c r="B117" s="32"/>
+      <c r="A117" s="42"/>
+      <c r="B117" s="36"/>
       <c r="C117" s="18"/>
       <c r="D117" s="18"/>
       <c r="E117" s="12"/>
       <c r="F117" s="16" t="s">
         <v>696</v>
       </c>
-      <c r="G117" s="27"/>
-      <c r="H117" s="55" t="s">
+      <c r="G117" s="33"/>
+      <c r="H117" s="25" t="s">
         <v>363</v>
       </c>
-      <c r="I117" s="66"/>
+      <c r="I117" s="70" t="s">
+        <v>780</v>
+      </c>
       <c r="J117" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I117,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
-        <v/>
+        <f>IFERROR(VLOOKUP(I117,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
+        <v>GPIO_10</v>
       </c>
       <c r="K117" s="12"/>
       <c r="M117" s="1"/>
       <c r="N117" s="1"/>
     </row>
     <row r="118" spans="1:14" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="60"/>
-      <c r="B118" s="32"/>
+      <c r="A118" s="42"/>
+      <c r="B118" s="36"/>
       <c r="C118" s="19"/>
       <c r="D118" s="18"/>
       <c r="E118" s="12"/>
       <c r="F118" s="4" t="s">
         <v>697</v>
       </c>
-      <c r="G118" s="27"/>
-      <c r="H118" s="55" t="s">
+      <c r="G118" s="33"/>
+      <c r="H118" s="25" t="s">
         <v>360</v>
       </c>
-      <c r="I118" s="66"/>
+      <c r="I118" s="70" t="s">
+        <v>779</v>
+      </c>
       <c r="J118" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I118,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
-        <v/>
+        <f>IFERROR(VLOOKUP(I118,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
+        <v>GPIO_1_IN0</v>
       </c>
       <c r="K118" s="12"/>
       <c r="M118" s="1"/>
       <c r="N118" s="1"/>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A119" s="60"/>
-      <c r="B119" s="32"/>
+      <c r="A119" s="42"/>
+      <c r="B119" s="36"/>
       <c r="C119" s="16"/>
       <c r="D119" s="16"/>
       <c r="E119" s="16"/>
       <c r="F119" s="16" t="s">
         <v>698</v>
       </c>
-      <c r="G119" s="27"/>
-      <c r="H119" s="64" t="s">
+      <c r="G119" s="33"/>
+      <c r="H119" s="28" t="s">
         <v>348</v>
       </c>
-      <c r="I119" s="66"/>
+      <c r="I119" s="70" t="s">
+        <v>840</v>
+      </c>
       <c r="J119" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I119,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
-        <v/>
+        <f>IFERROR(VLOOKUP(I119,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
+        <v>GPIO_2_IN0</v>
       </c>
       <c r="K119" s="16"/>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A120" s="61"/>
-      <c r="B120" s="33"/>
+      <c r="A120" s="43"/>
+      <c r="B120" s="37"/>
       <c r="C120" s="16"/>
       <c r="D120" s="16"/>
       <c r="E120" s="16"/>
       <c r="F120" s="16" t="s">
         <v>699</v>
       </c>
-      <c r="G120" s="28"/>
-      <c r="H120" s="55" t="s">
+      <c r="G120" s="34"/>
+      <c r="H120" s="25" t="s">
         <v>359</v>
       </c>
       <c r="I120" s="23"/>
       <c r="J120" s="20" t="str">
-        <f>IFERROR(VLOOKUP(I120,pinout_DE0_Nano!$A$2:$B$73,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(I120,pinout_DE0_Nano!$A$2:$B$97,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="K120" s="16"/>
@@ -6861,6 +7113,46 @@
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="G82:G85"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="G72:G75"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="B76:B81"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="G50:G53"/>
+    <mergeCell ref="G46:G49"/>
+    <mergeCell ref="B46:B53"/>
+    <mergeCell ref="B54:B61"/>
+    <mergeCell ref="G54:G61"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="G32:G35"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C6:C17"/>
+    <mergeCell ref="D6:D17"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="A94:A107"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A18:A45"/>
+    <mergeCell ref="B22:B25"/>
     <mergeCell ref="G116:G120"/>
     <mergeCell ref="B114:B120"/>
     <mergeCell ref="A46:A93"/>
@@ -6871,52 +7163,12 @@
     <mergeCell ref="B108:B113"/>
     <mergeCell ref="G108:G113"/>
     <mergeCell ref="B72:B75"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="B94:B95"/>
     <mergeCell ref="B96:B101"/>
     <mergeCell ref="B102:B107"/>
-    <mergeCell ref="A94:A107"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C6:C17"/>
-    <mergeCell ref="D6:D17"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A18:A45"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="G32:G35"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="G50:G53"/>
-    <mergeCell ref="G46:G49"/>
-    <mergeCell ref="B46:B53"/>
-    <mergeCell ref="B54:B61"/>
-    <mergeCell ref="G54:G61"/>
     <mergeCell ref="B86:B93"/>
     <mergeCell ref="B62:B64"/>
     <mergeCell ref="B65:B66"/>
     <mergeCell ref="B67:B71"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="G72:G75"/>
-    <mergeCell ref="G80:G81"/>
-    <mergeCell ref="B76:B81"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="G82:G85"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6926,25 +7178,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39EA1A3F-4761-403C-9267-D797AA448F05}">
-  <dimension ref="A1:B73"/>
+  <dimension ref="A1:B97"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A64" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>801</v>
-      </c>
-      <c r="B1" t="s">
-        <v>800</v>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="67" t="s">
+        <v>797</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>796</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="B2" t="s">
         <v>707</v>
@@ -6952,7 +7204,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="B3" t="s">
         <v>708</v>
@@ -6968,7 +7220,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="B5" t="s">
         <v>710</v>
@@ -6976,7 +7228,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="B6" t="s">
         <v>711</v>
@@ -6992,7 +7244,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="B8" t="s">
         <v>713</v>
@@ -7008,7 +7260,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="B10" t="s">
         <v>715</v>
@@ -7016,7 +7268,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="B11" t="s">
         <v>716</v>
@@ -7024,7 +7276,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="B12" t="s">
         <v>717</v>
@@ -7032,7 +7284,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="B13" t="s">
         <v>718</v>
@@ -7043,7 +7295,7 @@
         <v>642</v>
       </c>
       <c r="B14" t="s">
-        <v>719</v>
+        <v>807</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -7051,7 +7303,7 @@
         <v>639</v>
       </c>
       <c r="B15" t="s">
-        <v>720</v>
+        <v>808</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -7059,7 +7311,7 @@
         <v>641</v>
       </c>
       <c r="B16" t="s">
-        <v>721</v>
+        <v>809</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -7067,7 +7319,7 @@
         <v>640</v>
       </c>
       <c r="B17" t="s">
-        <v>722</v>
+        <v>810</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -7075,7 +7327,7 @@
         <v>631</v>
       </c>
       <c r="B18" t="s">
-        <v>723</v>
+        <v>811</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -7083,7 +7335,7 @@
         <v>632</v>
       </c>
       <c r="B19" t="s">
-        <v>724</v>
+        <v>812</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -7091,7 +7343,7 @@
         <v>560</v>
       </c>
       <c r="B20" t="s">
-        <v>725</v>
+        <v>813</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -7099,55 +7351,55 @@
         <v>561</v>
       </c>
       <c r="B21" t="s">
-        <v>726</v>
+        <v>814</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="B22" t="s">
-        <v>727</v>
+        <v>815</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="B23" t="s">
-        <v>728</v>
+        <v>816</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="B24" t="s">
-        <v>729</v>
+        <v>817</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="B25" t="s">
-        <v>730</v>
+        <v>818</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="B26" t="s">
-        <v>731</v>
+        <v>819</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="B27" t="s">
-        <v>732</v>
+        <v>820</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -7155,7 +7407,7 @@
         <v>559</v>
       </c>
       <c r="B28" t="s">
-        <v>733</v>
+        <v>821</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -7163,23 +7415,23 @@
         <v>558</v>
       </c>
       <c r="B29" t="s">
-        <v>734</v>
+        <v>822</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="B30" t="s">
-        <v>735</v>
+        <v>823</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="B31" t="s">
-        <v>736</v>
+        <v>824</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -7187,7 +7439,7 @@
         <v>556</v>
       </c>
       <c r="B32" t="s">
-        <v>737</v>
+        <v>825</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -7195,7 +7447,7 @@
         <v>557</v>
       </c>
       <c r="B33" t="s">
-        <v>738</v>
+        <v>826</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -7203,7 +7455,7 @@
         <v>582</v>
       </c>
       <c r="B34" t="s">
-        <v>739</v>
+        <v>827</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -7211,7 +7463,7 @@
         <v>581</v>
       </c>
       <c r="B35" t="s">
-        <v>740</v>
+        <v>828</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -7219,28 +7471,28 @@
         <v>584</v>
       </c>
       <c r="B36" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="67" t="s">
         <v>583</v>
       </c>
-      <c r="B37" t="s">
-        <v>742</v>
+      <c r="B37" s="67" t="s">
+        <v>830</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="B38" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="B39" t="s">
         <v>719</v>
@@ -7248,15 +7500,15 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="B40" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="B41" t="s">
         <v>720</v>
@@ -7264,7 +7516,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="B42" t="s">
         <v>721</v>
@@ -7272,7 +7524,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="B43" t="s">
         <v>722</v>
@@ -7280,7 +7532,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="B44" t="s">
         <v>723</v>
@@ -7288,7 +7540,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="B45" t="s">
         <v>724</v>
@@ -7296,7 +7548,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="B46" t="s">
         <v>725</v>
@@ -7304,7 +7556,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="B47" t="s">
         <v>726</v>
@@ -7312,7 +7564,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="B48" t="s">
         <v>727</v>
@@ -7320,7 +7572,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="B49" t="s">
         <v>728</v>
@@ -7331,15 +7583,15 @@
         <v>592</v>
       </c>
       <c r="B50" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="B51" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -7347,7 +7599,7 @@
         <v>590</v>
       </c>
       <c r="B52" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -7355,7 +7607,7 @@
         <v>591</v>
       </c>
       <c r="B53" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -7363,7 +7615,7 @@
         <v>589</v>
       </c>
       <c r="B54" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -7376,10 +7628,10 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="B56" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -7395,7 +7647,7 @@
         <v>532</v>
       </c>
       <c r="B58" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -7411,15 +7663,15 @@
         <v>620</v>
       </c>
       <c r="B60" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="B61" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -7427,7 +7679,7 @@
         <v>629</v>
       </c>
       <c r="B62" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -7435,15 +7687,15 @@
         <v>622</v>
       </c>
       <c r="B63" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="B64" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -7451,7 +7703,7 @@
         <v>630</v>
       </c>
       <c r="B65" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -7459,15 +7711,15 @@
         <v>543</v>
       </c>
       <c r="B66" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="B67" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -7475,7 +7727,7 @@
         <v>533</v>
       </c>
       <c r="B68" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -7483,7 +7735,7 @@
         <v>541</v>
       </c>
       <c r="B69" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -7491,7 +7743,7 @@
         <v>534</v>
       </c>
       <c r="B70" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -7499,7 +7751,7 @@
         <v>542</v>
       </c>
       <c r="B71" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -7507,15 +7759,207 @@
         <v>535</v>
       </c>
       <c r="B72" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="67" t="s">
         <v>540</v>
       </c>
-      <c r="B73" t="s">
-        <v>765</v>
+      <c r="B73" s="67" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="68" t="s">
+        <v>831</v>
+      </c>
+      <c r="B74" s="68" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="68" t="s">
+        <v>585</v>
+      </c>
+      <c r="B75" s="68" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="68" t="s">
+        <v>586</v>
+      </c>
+      <c r="B76" s="68" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="68" t="s">
+        <v>587</v>
+      </c>
+      <c r="B77" s="68" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="68" t="s">
+        <v>588</v>
+      </c>
+      <c r="B78" s="68" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="68" t="s">
+        <v>832</v>
+      </c>
+      <c r="B79" s="68" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="68" t="s">
+        <v>833</v>
+      </c>
+      <c r="B80" s="68" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="68" t="s">
+        <v>834</v>
+      </c>
+      <c r="B81" s="68" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="68" t="s">
+        <v>835</v>
+      </c>
+      <c r="B82" s="68" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="68" t="s">
+        <v>836</v>
+      </c>
+      <c r="B83" s="68" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="68" t="s">
+        <v>837</v>
+      </c>
+      <c r="B84" s="68" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="68" t="s">
+        <v>838</v>
+      </c>
+      <c r="B85" s="68" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="68" t="s">
+        <v>839</v>
+      </c>
+      <c r="B86" s="68" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="68" t="s">
+        <v>840</v>
+      </c>
+      <c r="B87" s="68" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="68" t="s">
+        <v>841</v>
+      </c>
+      <c r="B88" s="68" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="68" t="s">
+        <v>842</v>
+      </c>
+      <c r="B89" s="68" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="68" t="s">
+        <v>676</v>
+      </c>
+      <c r="B90" s="68" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="68" t="s">
+        <v>677</v>
+      </c>
+      <c r="B91" s="68" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="68" t="s">
+        <v>678</v>
+      </c>
+      <c r="B92" s="68" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="68" t="s">
+        <v>679</v>
+      </c>
+      <c r="B93" s="68" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="68" t="s">
+        <v>680</v>
+      </c>
+      <c r="B94" s="68" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="68" t="s">
+        <v>681</v>
+      </c>
+      <c r="B95" s="68" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="68" t="s">
+        <v>682</v>
+      </c>
+      <c r="B96" s="68" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="68" t="s">
+        <v>683</v>
+      </c>
+      <c r="B97" s="68" t="s">
+        <v>856</v>
       </c>
     </row>
   </sheetData>
@@ -7573,16 +8017,16 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="66" t="s">
         <v>488</v>
       </c>
       <c r="E2" s="2">
@@ -7593,10 +8037,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="39"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
       <c r="E3" s="2">
         <v>2</v>
       </c>
@@ -7605,14 +8049,14 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="40" t="s">
+      <c r="A4" s="47"/>
+      <c r="B4" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="40"/>
+      <c r="D4" s="66"/>
       <c r="E4" s="2">
         <v>1</v>
       </c>
@@ -7621,10 +8065,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
       <c r="E5" s="2">
         <v>2</v>
       </c>
@@ -7633,14 +8077,14 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
-      <c r="B6" s="40" t="s">
+      <c r="A6" s="47"/>
+      <c r="B6" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="40"/>
+      <c r="D6" s="66"/>
       <c r="E6" s="2">
         <v>1</v>
       </c>
@@ -7649,10 +8093,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
+      <c r="A7" s="47"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
       <c r="E7" s="2">
         <v>2</v>
       </c>
@@ -7661,14 +8105,14 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
-      <c r="B8" s="40" t="s">
+      <c r="A8" s="47"/>
+      <c r="B8" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="40"/>
+      <c r="D8" s="66"/>
       <c r="E8" s="2">
         <v>1</v>
       </c>
@@ -7677,10 +8121,10 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
       <c r="E9" s="2">
         <v>2</v>
       </c>
@@ -7689,14 +8133,14 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
-      <c r="B10" s="40" t="s">
+      <c r="A10" s="47"/>
+      <c r="B10" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="66" t="s">
         <v>489</v>
       </c>
       <c r="E10" s="2">
@@ -7707,10 +8151,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
       <c r="E11" s="2">
         <v>2</v>
       </c>
@@ -7719,17 +8163,17 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="50" t="s">
         <v>494</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26" t="s">
+      <c r="D12" s="32"/>
+      <c r="E12" s="32" t="s">
         <v>23</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -7737,11 +8181,11 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="36"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
       <c r="F13" s="2" t="s">
         <v>24</v>
       </c>
@@ -7750,11 +8194,11 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
       <c r="F14" s="2" t="s">
         <v>25</v>
       </c>
@@ -7763,14 +8207,14 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
-      <c r="B15" s="31" t="s">
+      <c r="A15" s="51"/>
+      <c r="B15" s="35" t="s">
         <v>459</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="32" t="s">
         <v>32</v>
       </c>
       <c r="E15" s="2">
@@ -7781,10 +8225,10 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
       <c r="E16" s="2">
         <v>2</v>
       </c>
@@ -7799,10 +8243,10 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
       <c r="E17" s="2">
         <v>3</v>
       </c>
@@ -7817,14 +8261,14 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
-      <c r="B18" s="31" t="s">
+      <c r="A18" s="51"/>
+      <c r="B18" s="35" t="s">
         <v>457</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="32" t="s">
         <v>31</v>
       </c>
       <c r="E18" s="2">
@@ -7835,10 +8279,10 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
       <c r="E19" s="2">
         <v>2</v>
       </c>
@@ -7853,10 +8297,10 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
       <c r="E20" s="2">
         <v>3</v>
       </c>
@@ -7871,14 +8315,14 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
-      <c r="B21" s="31" t="s">
+      <c r="A21" s="51"/>
+      <c r="B21" s="35" t="s">
         <v>458</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="32" t="s">
         <v>34</v>
       </c>
       <c r="E21" s="2">
@@ -7889,10 +8333,10 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
+      <c r="A22" s="51"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
       <c r="E22" s="2">
         <v>2</v>
       </c>
@@ -7907,10 +8351,10 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="36"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
+      <c r="A23" s="51"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
       <c r="E23" s="2">
         <v>3</v>
       </c>
@@ -7925,14 +8369,14 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
-      <c r="B24" s="31" t="s">
+      <c r="A24" s="51"/>
+      <c r="B24" s="35" t="s">
         <v>460</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="D24" s="32" t="s">
         <v>36</v>
       </c>
       <c r="E24" s="2">
@@ -7943,10 +8387,10 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="36"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
+      <c r="A25" s="51"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
       <c r="E25" s="2">
         <v>2</v>
       </c>
@@ -7961,10 +8405,10 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="36"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
+      <c r="A26" s="51"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
       <c r="E26" s="2">
         <v>3</v>
       </c>
@@ -7979,14 +8423,14 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="36"/>
-      <c r="B27" s="31" t="s">
+      <c r="A27" s="51"/>
+      <c r="B27" s="35" t="s">
         <v>461</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="D27" s="32" t="s">
         <v>37</v>
       </c>
       <c r="E27" s="2">
@@ -7997,10 +8441,10 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="36"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
+      <c r="A28" s="51"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
       <c r="E28" s="2">
         <v>2</v>
       </c>
@@ -8015,10 +8459,10 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="36"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
+      <c r="A29" s="51"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
       <c r="E29" s="2">
         <v>3</v>
       </c>
@@ -8033,14 +8477,14 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="36"/>
-      <c r="B30" s="31" t="s">
+      <c r="A30" s="51"/>
+      <c r="B30" s="35" t="s">
         <v>462</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="D30" s="32" t="s">
         <v>38</v>
       </c>
       <c r="E30" s="2">
@@ -8051,10 +8495,10 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="36"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
+      <c r="A31" s="51"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
       <c r="E31" s="2">
         <v>2</v>
       </c>
@@ -8069,10 +8513,10 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="36"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
       <c r="E32" s="2">
         <v>3</v>
       </c>
@@ -8087,14 +8531,14 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="36"/>
-      <c r="B33" s="31" t="s">
+      <c r="A33" s="51"/>
+      <c r="B33" s="35" t="s">
         <v>463</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D33" s="32" t="s">
         <v>39</v>
       </c>
       <c r="E33" s="2">
@@ -8105,10 +8549,10 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="36"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
+      <c r="A34" s="51"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
       <c r="E34" s="2">
         <v>2</v>
       </c>
@@ -8123,10 +8567,10 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="36"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
+      <c r="A35" s="51"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
       <c r="E35" s="2">
         <v>3</v>
       </c>
@@ -8141,14 +8585,14 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="36"/>
-      <c r="B36" s="31" t="s">
+      <c r="A36" s="51"/>
+      <c r="B36" s="35" t="s">
         <v>464</v>
       </c>
-      <c r="C36" s="31" t="s">
+      <c r="C36" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="26" t="s">
+      <c r="D36" s="32" t="s">
         <v>43</v>
       </c>
       <c r="E36" s="2">
@@ -8159,10 +8603,10 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="36"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
+      <c r="A37" s="51"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
       <c r="E37" s="2">
         <v>2</v>
       </c>
@@ -8171,10 +8615,10 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="36"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
+      <c r="A38" s="51"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
       <c r="E38" s="2">
         <v>3</v>
       </c>
@@ -8189,10 +8633,10 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="36"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
+      <c r="A39" s="51"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
       <c r="E39" s="2">
         <v>4</v>
       </c>
@@ -8207,14 +8651,14 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="36"/>
-      <c r="B40" s="31" t="s">
+      <c r="A40" s="51"/>
+      <c r="B40" s="35" t="s">
         <v>455</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="C40" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D40" s="26" t="s">
+      <c r="D40" s="32" t="s">
         <v>44</v>
       </c>
       <c r="E40" s="2">
@@ -8231,10 +8675,10 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="36"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
+      <c r="A41" s="51"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
       <c r="E41" s="2">
         <v>2</v>
       </c>
@@ -8249,10 +8693,10 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="36"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="28"/>
+      <c r="A42" s="51"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="34"/>
       <c r="E42" s="2">
         <v>3</v>
       </c>
@@ -8267,12 +8711,12 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="36"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27" t="s">
+      <c r="A43" s="51"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D43" s="26" t="s">
+      <c r="D43" s="32" t="s">
         <v>45</v>
       </c>
       <c r="E43" s="2">
@@ -8283,10 +8727,10 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="36"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
+      <c r="A44" s="51"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
       <c r="E44" s="2">
         <v>2</v>
       </c>
@@ -8295,10 +8739,10 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="36"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
+      <c r="A45" s="51"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
       <c r="E45" s="2">
         <v>3</v>
       </c>
@@ -8313,14 +8757,14 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="36"/>
-      <c r="B46" s="31" t="s">
+      <c r="A46" s="51"/>
+      <c r="B46" s="35" t="s">
         <v>456</v>
       </c>
-      <c r="C46" s="26" t="s">
+      <c r="C46" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D46" s="26" t="s">
+      <c r="D46" s="32" t="s">
         <v>44</v>
       </c>
       <c r="E46" s="3">
@@ -8337,10 +8781,10 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="36"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
+      <c r="A47" s="51"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
       <c r="E47" s="3">
         <v>2</v>
       </c>
@@ -8355,10 +8799,10 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="36"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="28"/>
+      <c r="A48" s="51"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="34"/>
       <c r="E48" s="3">
         <v>3</v>
       </c>
@@ -8373,12 +8817,12 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="36"/>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27" t="s">
+      <c r="A49" s="51"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D49" s="26" t="s">
+      <c r="D49" s="32" t="s">
         <v>45</v>
       </c>
       <c r="E49" s="3">
@@ -8389,10 +8833,10 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="36"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
+      <c r="A50" s="51"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="33"/>
       <c r="E50" s="3">
         <v>2</v>
       </c>
@@ -8401,10 +8845,10 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="36"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
+      <c r="A51" s="51"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="34"/>
       <c r="E51" s="3">
         <v>3</v>
       </c>
@@ -8419,14 +8863,14 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="36"/>
-      <c r="B52" s="31" t="s">
+      <c r="A52" s="51"/>
+      <c r="B52" s="35" t="s">
         <v>477</v>
       </c>
-      <c r="C52" s="26" t="s">
+      <c r="C52" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D52" s="26" t="s">
+      <c r="D52" s="32" t="s">
         <v>412</v>
       </c>
       <c r="E52" s="2">
@@ -8443,10 +8887,10 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="36"/>
-      <c r="B53" s="27"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
+      <c r="A53" s="51"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
       <c r="E53" s="2">
         <v>2</v>
       </c>
@@ -8461,10 +8905,10 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="36"/>
-      <c r="B54" s="27"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="28"/>
+      <c r="A54" s="51"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
       <c r="E54" s="2">
         <v>3</v>
       </c>
@@ -8479,12 +8923,12 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="36"/>
-      <c r="B55" s="27"/>
-      <c r="C55" s="26" t="s">
+      <c r="A55" s="51"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D55" s="26" t="s">
+      <c r="D55" s="32" t="s">
         <v>413</v>
       </c>
       <c r="E55" s="2">
@@ -8495,10 +8939,10 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="36"/>
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
+      <c r="A56" s="51"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
       <c r="E56" s="2">
         <v>2</v>
       </c>
@@ -8507,10 +8951,10 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="36"/>
-      <c r="B57" s="28"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
+      <c r="A57" s="51"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
       <c r="E57" s="2">
         <v>3</v>
       </c>
@@ -8525,14 +8969,14 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="36"/>
-      <c r="B58" s="31" t="s">
+      <c r="A58" s="51"/>
+      <c r="B58" s="35" t="s">
         <v>478</v>
       </c>
-      <c r="C58" s="26" t="s">
+      <c r="C58" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D58" s="26" t="s">
+      <c r="D58" s="32" t="s">
         <v>414</v>
       </c>
       <c r="E58" s="8">
@@ -8549,10 +8993,10 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="36"/>
-      <c r="B59" s="27"/>
-      <c r="C59" s="27"/>
-      <c r="D59" s="27"/>
+      <c r="A59" s="51"/>
+      <c r="B59" s="33"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="33"/>
       <c r="E59" s="8">
         <v>2</v>
       </c>
@@ -8567,10 +9011,10 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="36"/>
-      <c r="B60" s="27"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="28"/>
+      <c r="A60" s="51"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="34"/>
       <c r="E60" s="8">
         <v>3</v>
       </c>
@@ -8585,12 +9029,12 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="36"/>
-      <c r="B61" s="27"/>
-      <c r="C61" s="26" t="s">
+      <c r="A61" s="51"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D61" s="26" t="s">
+      <c r="D61" s="32" t="s">
         <v>415</v>
       </c>
       <c r="E61" s="8">
@@ -8601,10 +9045,10 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="36"/>
-      <c r="B62" s="27"/>
-      <c r="C62" s="27"/>
-      <c r="D62" s="27"/>
+      <c r="A62" s="51"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="33"/>
       <c r="E62" s="8">
         <v>2</v>
       </c>
@@ -8613,10 +9057,10 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="36"/>
-      <c r="B63" s="28"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="28"/>
+      <c r="A63" s="51"/>
+      <c r="B63" s="34"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="34"/>
       <c r="E63" s="8">
         <v>3</v>
       </c>
@@ -8631,14 +9075,14 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="36"/>
-      <c r="B64" s="31" t="s">
+      <c r="A64" s="51"/>
+      <c r="B64" s="35" t="s">
         <v>416</v>
       </c>
-      <c r="C64" s="31" t="s">
+      <c r="C64" s="35" t="s">
         <v>417</v>
       </c>
-      <c r="D64" s="26" t="s">
+      <c r="D64" s="32" t="s">
         <v>30</v>
       </c>
       <c r="E64" s="2">
@@ -8649,10 +9093,10 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="36"/>
-      <c r="B65" s="27"/>
-      <c r="C65" s="27"/>
-      <c r="D65" s="27"/>
+      <c r="A65" s="51"/>
+      <c r="B65" s="33"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="33"/>
       <c r="E65" s="2">
         <v>2</v>
       </c>
@@ -8661,10 +9105,10 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="36"/>
-      <c r="B66" s="27"/>
-      <c r="C66" s="27"/>
-      <c r="D66" s="27"/>
+      <c r="A66" s="51"/>
+      <c r="B66" s="33"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="33"/>
       <c r="E66" s="2">
         <v>3</v>
       </c>
@@ -8679,10 +9123,10 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="36"/>
-      <c r="B67" s="28"/>
-      <c r="C67" s="28"/>
-      <c r="D67" s="28"/>
+      <c r="A67" s="51"/>
+      <c r="B67" s="34"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="34"/>
       <c r="E67" s="2">
         <v>4</v>
       </c>
@@ -8697,50 +9141,50 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="36"/>
-      <c r="B68" s="31" t="s">
+      <c r="A68" s="51"/>
+      <c r="B68" s="35" t="s">
         <v>432</v>
       </c>
-      <c r="C68" s="41" t="s">
+      <c r="C68" s="57" t="s">
         <v>392</v>
       </c>
-      <c r="D68" s="42"/>
-      <c r="E68" s="42"/>
-      <c r="F68" s="43"/>
+      <c r="D68" s="58"/>
+      <c r="E68" s="58"/>
+      <c r="F68" s="59"/>
     </row>
     <row r="69" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="36"/>
-      <c r="B69" s="27"/>
-      <c r="C69" s="44"/>
-      <c r="D69" s="45"/>
-      <c r="E69" s="45"/>
-      <c r="F69" s="46"/>
+      <c r="A69" s="51"/>
+      <c r="B69" s="33"/>
+      <c r="C69" s="60"/>
+      <c r="D69" s="61"/>
+      <c r="E69" s="61"/>
+      <c r="F69" s="62"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="36"/>
-      <c r="B70" s="27"/>
-      <c r="C70" s="44"/>
-      <c r="D70" s="45"/>
-      <c r="E70" s="45"/>
-      <c r="F70" s="46"/>
+      <c r="A70" s="51"/>
+      <c r="B70" s="33"/>
+      <c r="C70" s="60"/>
+      <c r="D70" s="61"/>
+      <c r="E70" s="61"/>
+      <c r="F70" s="62"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="36"/>
-      <c r="B71" s="28"/>
-      <c r="C71" s="47"/>
-      <c r="D71" s="48"/>
-      <c r="E71" s="48"/>
-      <c r="F71" s="49"/>
+      <c r="A71" s="51"/>
+      <c r="B71" s="34"/>
+      <c r="C71" s="63"/>
+      <c r="D71" s="64"/>
+      <c r="E71" s="64"/>
+      <c r="F71" s="65"/>
     </row>
     <row r="72" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="36"/>
-      <c r="B72" s="31" t="s">
+      <c r="A72" s="51"/>
+      <c r="B72" s="35" t="s">
         <v>433</v>
       </c>
-      <c r="C72" s="31" t="s">
+      <c r="C72" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="D72" s="26" t="s">
+      <c r="D72" s="32" t="s">
         <v>393</v>
       </c>
       <c r="E72" s="2">
@@ -8751,10 +9195,10 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="36"/>
-      <c r="B73" s="27"/>
-      <c r="C73" s="27"/>
-      <c r="D73" s="27"/>
+      <c r="A73" s="51"/>
+      <c r="B73" s="33"/>
+      <c r="C73" s="33"/>
+      <c r="D73" s="33"/>
       <c r="E73" s="2">
         <v>2</v>
       </c>
@@ -8763,17 +9207,17 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="36"/>
-      <c r="B74" s="27"/>
-      <c r="C74" s="27"/>
-      <c r="D74" s="27"/>
+      <c r="A74" s="51"/>
+      <c r="B74" s="33"/>
+      <c r="C74" s="33"/>
+      <c r="D74" s="33"/>
       <c r="E74" s="2">
         <v>3</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G74" s="26" t="s">
+      <c r="G74" s="32" t="s">
         <v>27</v>
       </c>
       <c r="H74" s="2" t="s">
@@ -8781,32 +9225,32 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="53"/>
-      <c r="B75" s="28"/>
-      <c r="C75" s="28"/>
-      <c r="D75" s="28"/>
+      <c r="A75" s="55"/>
+      <c r="B75" s="34"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="34"/>
       <c r="E75" s="2">
         <v>4</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G75" s="28"/>
+      <c r="G75" s="34"/>
       <c r="H75" s="2" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="50" t="s">
+      <c r="A76" s="52" t="s">
         <v>495</v>
       </c>
-      <c r="B76" s="31" t="s">
+      <c r="B76" s="35" t="s">
         <v>443</v>
       </c>
-      <c r="C76" s="26" t="s">
+      <c r="C76" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D76" s="26" t="s">
+      <c r="D76" s="32" t="s">
         <v>51</v>
       </c>
       <c r="E76" s="2">
@@ -8817,10 +9261,10 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="51"/>
-      <c r="B77" s="27"/>
-      <c r="C77" s="27"/>
-      <c r="D77" s="27"/>
+      <c r="A77" s="53"/>
+      <c r="B77" s="33"/>
+      <c r="C77" s="33"/>
+      <c r="D77" s="33"/>
       <c r="E77" s="2">
         <v>2</v>
       </c>
@@ -8829,10 +9273,10 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="51"/>
-      <c r="B78" s="28"/>
-      <c r="C78" s="28"/>
-      <c r="D78" s="28"/>
+      <c r="A78" s="53"/>
+      <c r="B78" s="34"/>
+      <c r="C78" s="34"/>
+      <c r="D78" s="34"/>
       <c r="E78" s="2">
         <v>3</v>
       </c>
@@ -8847,14 +9291,14 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="51"/>
-      <c r="B79" s="31" t="s">
+      <c r="A79" s="53"/>
+      <c r="B79" s="35" t="s">
         <v>444</v>
       </c>
-      <c r="C79" s="26" t="s">
+      <c r="C79" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D79" s="26" t="s">
+      <c r="D79" s="32" t="s">
         <v>54</v>
       </c>
       <c r="E79" s="3">
@@ -8865,10 +9309,10 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="51"/>
-      <c r="B80" s="27"/>
-      <c r="C80" s="27"/>
-      <c r="D80" s="27"/>
+      <c r="A80" s="53"/>
+      <c r="B80" s="33"/>
+      <c r="C80" s="33"/>
+      <c r="D80" s="33"/>
       <c r="E80" s="3">
         <v>2</v>
       </c>
@@ -8877,10 +9321,10 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="51"/>
-      <c r="B81" s="28"/>
-      <c r="C81" s="28"/>
-      <c r="D81" s="28"/>
+      <c r="A81" s="53"/>
+      <c r="B81" s="34"/>
+      <c r="C81" s="34"/>
+      <c r="D81" s="34"/>
       <c r="E81" s="3">
         <v>3</v>
       </c>
@@ -8895,14 +9339,14 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="51"/>
-      <c r="B82" s="31" t="s">
+      <c r="A82" s="53"/>
+      <c r="B82" s="35" t="s">
         <v>445</v>
       </c>
-      <c r="C82" s="26" t="s">
+      <c r="C82" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D82" s="26" t="s">
+      <c r="D82" s="32" t="s">
         <v>56</v>
       </c>
       <c r="E82" s="3">
@@ -8913,10 +9357,10 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="51"/>
-      <c r="B83" s="27"/>
-      <c r="C83" s="27"/>
-      <c r="D83" s="27"/>
+      <c r="A83" s="53"/>
+      <c r="B83" s="33"/>
+      <c r="C83" s="33"/>
+      <c r="D83" s="33"/>
       <c r="E83" s="3">
         <v>2</v>
       </c>
@@ -8925,10 +9369,10 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="51"/>
-      <c r="B84" s="28"/>
-      <c r="C84" s="28"/>
-      <c r="D84" s="28"/>
+      <c r="A84" s="53"/>
+      <c r="B84" s="34"/>
+      <c r="C84" s="34"/>
+      <c r="D84" s="34"/>
       <c r="E84" s="3">
         <v>3</v>
       </c>
@@ -8943,14 +9387,14 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="51"/>
-      <c r="B85" s="31" t="s">
+      <c r="A85" s="53"/>
+      <c r="B85" s="35" t="s">
         <v>446</v>
       </c>
-      <c r="C85" s="26" t="s">
+      <c r="C85" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D85" s="26" t="s">
+      <c r="D85" s="32" t="s">
         <v>58</v>
       </c>
       <c r="E85" s="3">
@@ -8961,10 +9405,10 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="51"/>
-      <c r="B86" s="27"/>
-      <c r="C86" s="27"/>
-      <c r="D86" s="27"/>
+      <c r="A86" s="53"/>
+      <c r="B86" s="33"/>
+      <c r="C86" s="33"/>
+      <c r="D86" s="33"/>
       <c r="E86" s="3">
         <v>2</v>
       </c>
@@ -8973,10 +9417,10 @@
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="51"/>
-      <c r="B87" s="28"/>
-      <c r="C87" s="28"/>
-      <c r="D87" s="28"/>
+      <c r="A87" s="53"/>
+      <c r="B87" s="34"/>
+      <c r="C87" s="34"/>
+      <c r="D87" s="34"/>
       <c r="E87" s="3">
         <v>3</v>
       </c>
@@ -8991,14 +9435,14 @@
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="51"/>
-      <c r="B88" s="31" t="s">
+      <c r="A88" s="53"/>
+      <c r="B88" s="35" t="s">
         <v>447</v>
       </c>
-      <c r="C88" s="26" t="s">
+      <c r="C88" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D88" s="26" t="s">
+      <c r="D88" s="32" t="s">
         <v>60</v>
       </c>
       <c r="E88" s="3">
@@ -9009,10 +9453,10 @@
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="51"/>
-      <c r="B89" s="27"/>
-      <c r="C89" s="27"/>
-      <c r="D89" s="27"/>
+      <c r="A89" s="53"/>
+      <c r="B89" s="33"/>
+      <c r="C89" s="33"/>
+      <c r="D89" s="33"/>
       <c r="E89" s="3">
         <v>2</v>
       </c>
@@ -9021,10 +9465,10 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="51"/>
-      <c r="B90" s="28"/>
-      <c r="C90" s="28"/>
-      <c r="D90" s="28"/>
+      <c r="A90" s="53"/>
+      <c r="B90" s="34"/>
+      <c r="C90" s="34"/>
+      <c r="D90" s="34"/>
       <c r="E90" s="3">
         <v>3</v>
       </c>
@@ -9039,14 +9483,14 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="51"/>
-      <c r="B91" s="31" t="s">
+      <c r="A91" s="53"/>
+      <c r="B91" s="35" t="s">
         <v>448</v>
       </c>
-      <c r="C91" s="26" t="s">
+      <c r="C91" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D91" s="26" t="s">
+      <c r="D91" s="32" t="s">
         <v>62</v>
       </c>
       <c r="E91" s="3">
@@ -9057,10 +9501,10 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="51"/>
-      <c r="B92" s="27"/>
-      <c r="C92" s="27"/>
-      <c r="D92" s="27"/>
+      <c r="A92" s="53"/>
+      <c r="B92" s="33"/>
+      <c r="C92" s="33"/>
+      <c r="D92" s="33"/>
       <c r="E92" s="3">
         <v>2</v>
       </c>
@@ -9069,10 +9513,10 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="51"/>
-      <c r="B93" s="28"/>
-      <c r="C93" s="28"/>
-      <c r="D93" s="28"/>
+      <c r="A93" s="53"/>
+      <c r="B93" s="34"/>
+      <c r="C93" s="34"/>
+      <c r="D93" s="34"/>
       <c r="E93" s="3">
         <v>3</v>
       </c>
@@ -9087,14 +9531,14 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="51"/>
-      <c r="B94" s="31" t="s">
+      <c r="A94" s="53"/>
+      <c r="B94" s="35" t="s">
         <v>449</v>
       </c>
-      <c r="C94" s="26" t="s">
+      <c r="C94" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D94" s="26" t="s">
+      <c r="D94" s="32" t="s">
         <v>64</v>
       </c>
       <c r="E94" s="3">
@@ -9105,10 +9549,10 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="51"/>
-      <c r="B95" s="27"/>
-      <c r="C95" s="27"/>
-      <c r="D95" s="27"/>
+      <c r="A95" s="53"/>
+      <c r="B95" s="33"/>
+      <c r="C95" s="33"/>
+      <c r="D95" s="33"/>
       <c r="E95" s="3">
         <v>2</v>
       </c>
@@ -9117,10 +9561,10 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="51"/>
-      <c r="B96" s="28"/>
-      <c r="C96" s="28"/>
-      <c r="D96" s="28"/>
+      <c r="A96" s="53"/>
+      <c r="B96" s="34"/>
+      <c r="C96" s="34"/>
+      <c r="D96" s="34"/>
       <c r="E96" s="3">
         <v>3</v>
       </c>
@@ -9135,14 +9579,14 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="51"/>
-      <c r="B97" s="31" t="s">
+      <c r="A97" s="53"/>
+      <c r="B97" s="35" t="s">
         <v>450</v>
       </c>
-      <c r="C97" s="26" t="s">
+      <c r="C97" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D97" s="26" t="s">
+      <c r="D97" s="32" t="s">
         <v>66</v>
       </c>
       <c r="E97" s="3">
@@ -9153,10 +9597,10 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="51"/>
-      <c r="B98" s="27"/>
-      <c r="C98" s="27"/>
-      <c r="D98" s="27"/>
+      <c r="A98" s="53"/>
+      <c r="B98" s="33"/>
+      <c r="C98" s="33"/>
+      <c r="D98" s="33"/>
       <c r="E98" s="3">
         <v>2</v>
       </c>
@@ -9165,10 +9609,10 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="51"/>
-      <c r="B99" s="28"/>
-      <c r="C99" s="28"/>
-      <c r="D99" s="28"/>
+      <c r="A99" s="53"/>
+      <c r="B99" s="34"/>
+      <c r="C99" s="34"/>
+      <c r="D99" s="34"/>
       <c r="E99" s="3">
         <v>3</v>
       </c>
@@ -9183,14 +9627,14 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="51"/>
-      <c r="B100" s="31" t="s">
+      <c r="A100" s="53"/>
+      <c r="B100" s="35" t="s">
         <v>451</v>
       </c>
-      <c r="C100" s="26" t="s">
+      <c r="C100" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D100" s="26" t="s">
+      <c r="D100" s="32" t="s">
         <v>68</v>
       </c>
       <c r="E100" s="3">
@@ -9201,10 +9645,10 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="51"/>
-      <c r="B101" s="27"/>
-      <c r="C101" s="27"/>
-      <c r="D101" s="27"/>
+      <c r="A101" s="53"/>
+      <c r="B101" s="33"/>
+      <c r="C101" s="33"/>
+      <c r="D101" s="33"/>
       <c r="E101" s="3">
         <v>2</v>
       </c>
@@ -9213,10 +9657,10 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="51"/>
-      <c r="B102" s="28"/>
-      <c r="C102" s="28"/>
-      <c r="D102" s="28"/>
+      <c r="A102" s="53"/>
+      <c r="B102" s="34"/>
+      <c r="C102" s="34"/>
+      <c r="D102" s="34"/>
       <c r="E102" s="3">
         <v>3</v>
       </c>
@@ -9231,14 +9675,14 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="51"/>
-      <c r="B103" s="31" t="s">
+      <c r="A103" s="53"/>
+      <c r="B103" s="35" t="s">
         <v>452</v>
       </c>
-      <c r="C103" s="26" t="s">
+      <c r="C103" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D103" s="26" t="s">
+      <c r="D103" s="32" t="s">
         <v>70</v>
       </c>
       <c r="E103" s="3">
@@ -9249,10 +9693,10 @@
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="51"/>
-      <c r="B104" s="27"/>
-      <c r="C104" s="27"/>
-      <c r="D104" s="27"/>
+      <c r="A104" s="53"/>
+      <c r="B104" s="33"/>
+      <c r="C104" s="33"/>
+      <c r="D104" s="33"/>
       <c r="E104" s="3">
         <v>2</v>
       </c>
@@ -9261,10 +9705,10 @@
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="51"/>
-      <c r="B105" s="28"/>
-      <c r="C105" s="28"/>
-      <c r="D105" s="28"/>
+      <c r="A105" s="53"/>
+      <c r="B105" s="34"/>
+      <c r="C105" s="34"/>
+      <c r="D105" s="34"/>
       <c r="E105" s="3">
         <v>3</v>
       </c>
@@ -9279,14 +9723,14 @@
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="51"/>
-      <c r="B106" s="31" t="s">
+      <c r="A106" s="53"/>
+      <c r="B106" s="35" t="s">
         <v>453</v>
       </c>
-      <c r="C106" s="26" t="s">
+      <c r="C106" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D106" s="26" t="s">
+      <c r="D106" s="32" t="s">
         <v>72</v>
       </c>
       <c r="E106" s="3">
@@ -9297,10 +9741,10 @@
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="51"/>
-      <c r="B107" s="27"/>
-      <c r="C107" s="27"/>
-      <c r="D107" s="27"/>
+      <c r="A107" s="53"/>
+      <c r="B107" s="33"/>
+      <c r="C107" s="33"/>
+      <c r="D107" s="33"/>
       <c r="E107" s="3">
         <v>2</v>
       </c>
@@ -9309,10 +9753,10 @@
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="51"/>
-      <c r="B108" s="28"/>
-      <c r="C108" s="28"/>
-      <c r="D108" s="28"/>
+      <c r="A108" s="53"/>
+      <c r="B108" s="34"/>
+      <c r="C108" s="34"/>
+      <c r="D108" s="34"/>
       <c r="E108" s="3">
         <v>3</v>
       </c>
@@ -9327,14 +9771,14 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="51"/>
-      <c r="B109" s="31" t="s">
+      <c r="A109" s="53"/>
+      <c r="B109" s="35" t="s">
         <v>454</v>
       </c>
-      <c r="C109" s="26" t="s">
+      <c r="C109" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D109" s="26" t="s">
+      <c r="D109" s="32" t="s">
         <v>74</v>
       </c>
       <c r="E109" s="3">
@@ -9345,10 +9789,10 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="51"/>
-      <c r="B110" s="27"/>
-      <c r="C110" s="27"/>
-      <c r="D110" s="27"/>
+      <c r="A110" s="53"/>
+      <c r="B110" s="33"/>
+      <c r="C110" s="33"/>
+      <c r="D110" s="33"/>
       <c r="E110" s="3">
         <v>2</v>
       </c>
@@ -9357,10 +9801,10 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="51"/>
-      <c r="B111" s="28"/>
-      <c r="C111" s="28"/>
-      <c r="D111" s="28"/>
+      <c r="A111" s="53"/>
+      <c r="B111" s="34"/>
+      <c r="C111" s="34"/>
+      <c r="D111" s="34"/>
       <c r="E111" s="3">
         <v>3</v>
       </c>
@@ -9375,14 +9819,14 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="51"/>
-      <c r="B112" s="31" t="s">
+      <c r="A112" s="53"/>
+      <c r="B112" s="35" t="s">
         <v>418</v>
       </c>
-      <c r="C112" s="31" t="s">
+      <c r="C112" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D112" s="26" t="s">
+      <c r="D112" s="32" t="s">
         <v>82</v>
       </c>
       <c r="E112" s="3">
@@ -9395,10 +9839,10 @@
       <c r="H112" s="3"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="51"/>
-      <c r="B113" s="27"/>
-      <c r="C113" s="27"/>
-      <c r="D113" s="27"/>
+      <c r="A113" s="53"/>
+      <c r="B113" s="33"/>
+      <c r="C113" s="33"/>
+      <c r="D113" s="33"/>
       <c r="E113" s="3">
         <v>2</v>
       </c>
@@ -9409,10 +9853,10 @@
       <c r="H113" s="3"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="51"/>
-      <c r="B114" s="27"/>
-      <c r="C114" s="27"/>
-      <c r="D114" s="27"/>
+      <c r="A114" s="53"/>
+      <c r="B114" s="33"/>
+      <c r="C114" s="33"/>
+      <c r="D114" s="33"/>
       <c r="E114" s="3">
         <v>3</v>
       </c>
@@ -9427,10 +9871,10 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="51"/>
-      <c r="B115" s="28"/>
-      <c r="C115" s="28"/>
-      <c r="D115" s="28"/>
+      <c r="A115" s="53"/>
+      <c r="B115" s="34"/>
+      <c r="C115" s="34"/>
+      <c r="D115" s="34"/>
       <c r="E115" s="3">
         <v>4</v>
       </c>
@@ -9445,14 +9889,14 @@
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="51"/>
-      <c r="B116" s="31" t="s">
+      <c r="A116" s="53"/>
+      <c r="B116" s="35" t="s">
         <v>419</v>
       </c>
-      <c r="C116" s="31" t="s">
+      <c r="C116" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D116" s="26" t="s">
+      <c r="D116" s="32" t="s">
         <v>84</v>
       </c>
       <c r="E116" s="3">
@@ -9465,10 +9909,10 @@
       <c r="H116" s="3"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="51"/>
-      <c r="B117" s="27"/>
-      <c r="C117" s="27"/>
-      <c r="D117" s="27"/>
+      <c r="A117" s="53"/>
+      <c r="B117" s="33"/>
+      <c r="C117" s="33"/>
+      <c r="D117" s="33"/>
       <c r="E117" s="3">
         <v>2</v>
       </c>
@@ -9479,10 +9923,10 @@
       <c r="H117" s="3"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="51"/>
-      <c r="B118" s="27"/>
-      <c r="C118" s="27"/>
-      <c r="D118" s="27"/>
+      <c r="A118" s="53"/>
+      <c r="B118" s="33"/>
+      <c r="C118" s="33"/>
+      <c r="D118" s="33"/>
       <c r="E118" s="3">
         <v>3</v>
       </c>
@@ -9497,10 +9941,10 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="51"/>
-      <c r="B119" s="28"/>
-      <c r="C119" s="28"/>
-      <c r="D119" s="28"/>
+      <c r="A119" s="53"/>
+      <c r="B119" s="34"/>
+      <c r="C119" s="34"/>
+      <c r="D119" s="34"/>
       <c r="E119" s="3">
         <v>4</v>
       </c>
@@ -9515,14 +9959,14 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="51"/>
-      <c r="B120" s="31" t="s">
+      <c r="A120" s="53"/>
+      <c r="B120" s="35" t="s">
         <v>420</v>
       </c>
-      <c r="C120" s="31" t="s">
+      <c r="C120" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D120" s="26" t="s">
+      <c r="D120" s="32" t="s">
         <v>85</v>
       </c>
       <c r="E120" s="3">
@@ -9535,10 +9979,10 @@
       <c r="H120" s="3"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="51"/>
-      <c r="B121" s="27"/>
-      <c r="C121" s="27"/>
-      <c r="D121" s="27"/>
+      <c r="A121" s="53"/>
+      <c r="B121" s="33"/>
+      <c r="C121" s="33"/>
+      <c r="D121" s="33"/>
       <c r="E121" s="3">
         <v>2</v>
       </c>
@@ -9549,10 +9993,10 @@
       <c r="H121" s="3"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="51"/>
-      <c r="B122" s="27"/>
-      <c r="C122" s="27"/>
-      <c r="D122" s="27"/>
+      <c r="A122" s="53"/>
+      <c r="B122" s="33"/>
+      <c r="C122" s="33"/>
+      <c r="D122" s="33"/>
       <c r="E122" s="3">
         <v>3</v>
       </c>
@@ -9567,10 +10011,10 @@
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="51"/>
-      <c r="B123" s="28"/>
-      <c r="C123" s="28"/>
-      <c r="D123" s="28"/>
+      <c r="A123" s="53"/>
+      <c r="B123" s="34"/>
+      <c r="C123" s="34"/>
+      <c r="D123" s="34"/>
       <c r="E123" s="3">
         <v>4</v>
       </c>
@@ -9585,14 +10029,14 @@
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="51"/>
-      <c r="B124" s="31" t="s">
+      <c r="A124" s="53"/>
+      <c r="B124" s="35" t="s">
         <v>421</v>
       </c>
-      <c r="C124" s="31" t="s">
+      <c r="C124" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D124" s="26" t="s">
+      <c r="D124" s="32" t="s">
         <v>86</v>
       </c>
       <c r="E124" s="3">
@@ -9605,10 +10049,10 @@
       <c r="H124" s="3"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="51"/>
-      <c r="B125" s="27"/>
-      <c r="C125" s="27"/>
-      <c r="D125" s="27"/>
+      <c r="A125" s="53"/>
+      <c r="B125" s="33"/>
+      <c r="C125" s="33"/>
+      <c r="D125" s="33"/>
       <c r="E125" s="3">
         <v>2</v>
       </c>
@@ -9619,10 +10063,10 @@
       <c r="H125" s="3"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="51"/>
-      <c r="B126" s="27"/>
-      <c r="C126" s="27"/>
-      <c r="D126" s="27"/>
+      <c r="A126" s="53"/>
+      <c r="B126" s="33"/>
+      <c r="C126" s="33"/>
+      <c r="D126" s="33"/>
       <c r="E126" s="3">
         <v>3</v>
       </c>
@@ -9637,10 +10081,10 @@
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="51"/>
-      <c r="B127" s="28"/>
-      <c r="C127" s="28"/>
-      <c r="D127" s="28"/>
+      <c r="A127" s="53"/>
+      <c r="B127" s="34"/>
+      <c r="C127" s="34"/>
+      <c r="D127" s="34"/>
       <c r="E127" s="3">
         <v>4</v>
       </c>
@@ -9655,14 +10099,14 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="51"/>
-      <c r="B128" s="31" t="s">
+      <c r="A128" s="53"/>
+      <c r="B128" s="35" t="s">
         <v>422</v>
       </c>
-      <c r="C128" s="31" t="s">
+      <c r="C128" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D128" s="26" t="s">
+      <c r="D128" s="32" t="s">
         <v>87</v>
       </c>
       <c r="E128" s="3">
@@ -9675,10 +10119,10 @@
       <c r="H128" s="3"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="51"/>
-      <c r="B129" s="27"/>
-      <c r="C129" s="27"/>
-      <c r="D129" s="27"/>
+      <c r="A129" s="53"/>
+      <c r="B129" s="33"/>
+      <c r="C129" s="33"/>
+      <c r="D129" s="33"/>
       <c r="E129" s="3">
         <v>2</v>
       </c>
@@ -9689,10 +10133,10 @@
       <c r="H129" s="3"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="51"/>
-      <c r="B130" s="27"/>
-      <c r="C130" s="27"/>
-      <c r="D130" s="27"/>
+      <c r="A130" s="53"/>
+      <c r="B130" s="33"/>
+      <c r="C130" s="33"/>
+      <c r="D130" s="33"/>
       <c r="E130" s="3">
         <v>3</v>
       </c>
@@ -9707,10 +10151,10 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="51"/>
-      <c r="B131" s="28"/>
-      <c r="C131" s="28"/>
-      <c r="D131" s="28"/>
+      <c r="A131" s="53"/>
+      <c r="B131" s="34"/>
+      <c r="C131" s="34"/>
+      <c r="D131" s="34"/>
       <c r="E131" s="3">
         <v>4</v>
       </c>
@@ -9725,14 +10169,14 @@
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="51"/>
-      <c r="B132" s="31" t="s">
+      <c r="A132" s="53"/>
+      <c r="B132" s="35" t="s">
         <v>423</v>
       </c>
-      <c r="C132" s="31" t="s">
+      <c r="C132" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D132" s="26" t="s">
+      <c r="D132" s="32" t="s">
         <v>88</v>
       </c>
       <c r="E132" s="3">
@@ -9745,10 +10189,10 @@
       <c r="H132" s="3"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="51"/>
-      <c r="B133" s="27"/>
-      <c r="C133" s="27"/>
-      <c r="D133" s="27"/>
+      <c r="A133" s="53"/>
+      <c r="B133" s="33"/>
+      <c r="C133" s="33"/>
+      <c r="D133" s="33"/>
       <c r="E133" s="3">
         <v>2</v>
       </c>
@@ -9759,10 +10203,10 @@
       <c r="H133" s="3"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="51"/>
-      <c r="B134" s="27"/>
-      <c r="C134" s="27"/>
-      <c r="D134" s="27"/>
+      <c r="A134" s="53"/>
+      <c r="B134" s="33"/>
+      <c r="C134" s="33"/>
+      <c r="D134" s="33"/>
       <c r="E134" s="3">
         <v>3</v>
       </c>
@@ -9777,10 +10221,10 @@
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="51"/>
-      <c r="B135" s="28"/>
-      <c r="C135" s="28"/>
-      <c r="D135" s="28"/>
+      <c r="A135" s="53"/>
+      <c r="B135" s="34"/>
+      <c r="C135" s="34"/>
+      <c r="D135" s="34"/>
       <c r="E135" s="3">
         <v>4</v>
       </c>
@@ -9795,14 +10239,14 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="51"/>
-      <c r="B136" s="26" t="s">
+      <c r="A136" s="53"/>
+      <c r="B136" s="32" t="s">
         <v>380</v>
       </c>
-      <c r="C136" s="26" t="s">
+      <c r="C136" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D136" s="26" t="s">
+      <c r="D136" s="32" t="s">
         <v>381</v>
       </c>
       <c r="E136" s="3">
@@ -9813,10 +10257,10 @@
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="51"/>
-      <c r="B137" s="27"/>
-      <c r="C137" s="27"/>
-      <c r="D137" s="27"/>
+      <c r="A137" s="53"/>
+      <c r="B137" s="33"/>
+      <c r="C137" s="33"/>
+      <c r="D137" s="33"/>
       <c r="E137" s="3">
         <v>2</v>
       </c>
@@ -9825,10 +10269,10 @@
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="51"/>
-      <c r="B138" s="27"/>
-      <c r="C138" s="27"/>
-      <c r="D138" s="27"/>
+      <c r="A138" s="53"/>
+      <c r="B138" s="33"/>
+      <c r="C138" s="33"/>
+      <c r="D138" s="33"/>
       <c r="E138" s="8">
         <v>3</v>
       </c>
@@ -9843,14 +10287,14 @@
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="51"/>
-      <c r="B139" s="27" t="s">
+      <c r="A139" s="53"/>
+      <c r="B139" s="33" t="s">
         <v>345</v>
       </c>
-      <c r="C139" s="27" t="s">
+      <c r="C139" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D139" s="27" t="s">
+      <c r="D139" s="33" t="s">
         <v>402</v>
       </c>
       <c r="E139" s="8">
@@ -9863,10 +10307,10 @@
       <c r="H139" s="8"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="51"/>
-      <c r="B140" s="27"/>
-      <c r="C140" s="27"/>
-      <c r="D140" s="27"/>
+      <c r="A140" s="53"/>
+      <c r="B140" s="33"/>
+      <c r="C140" s="33"/>
+      <c r="D140" s="33"/>
       <c r="E140" s="8">
         <v>2</v>
       </c>
@@ -9877,10 +10321,10 @@
       <c r="H140" s="8"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="51"/>
-      <c r="B141" s="28"/>
-      <c r="C141" s="28"/>
-      <c r="D141" s="28"/>
+      <c r="A141" s="53"/>
+      <c r="B141" s="34"/>
+      <c r="C141" s="34"/>
+      <c r="D141" s="34"/>
       <c r="E141" s="3">
         <v>3</v>
       </c>
@@ -9895,14 +10339,14 @@
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="51"/>
-      <c r="B142" s="26" t="s">
+      <c r="A142" s="53"/>
+      <c r="B142" s="32" t="s">
         <v>316</v>
       </c>
-      <c r="C142" s="26" t="s">
+      <c r="C142" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D142" s="26" t="s">
+      <c r="D142" s="32" t="s">
         <v>382</v>
       </c>
       <c r="E142" s="3">
@@ -9913,10 +10357,10 @@
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="51"/>
-      <c r="B143" s="27"/>
-      <c r="C143" s="27"/>
-      <c r="D143" s="27"/>
+      <c r="A143" s="53"/>
+      <c r="B143" s="33"/>
+      <c r="C143" s="33"/>
+      <c r="D143" s="33"/>
       <c r="E143" s="3">
         <v>2</v>
       </c>
@@ -9925,10 +10369,10 @@
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="51"/>
-      <c r="B144" s="28"/>
-      <c r="C144" s="28"/>
-      <c r="D144" s="28"/>
+      <c r="A144" s="53"/>
+      <c r="B144" s="34"/>
+      <c r="C144" s="34"/>
+      <c r="D144" s="34"/>
       <c r="E144" s="3">
         <v>3</v>
       </c>
@@ -9943,14 +10387,14 @@
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="51"/>
-      <c r="B145" s="26" t="s">
+      <c r="A145" s="53"/>
+      <c r="B145" s="32" t="s">
         <v>313</v>
       </c>
-      <c r="C145" s="26" t="s">
+      <c r="C145" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D145" s="26" t="s">
+      <c r="D145" s="32" t="s">
         <v>383</v>
       </c>
       <c r="E145" s="3">
@@ -9961,10 +10405,10 @@
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="51"/>
-      <c r="B146" s="27"/>
-      <c r="C146" s="27"/>
-      <c r="D146" s="27"/>
+      <c r="A146" s="53"/>
+      <c r="B146" s="33"/>
+      <c r="C146" s="33"/>
+      <c r="D146" s="33"/>
       <c r="E146" s="3">
         <v>2</v>
       </c>
@@ -9973,10 +10417,10 @@
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="51"/>
-      <c r="B147" s="28"/>
-      <c r="C147" s="28"/>
-      <c r="D147" s="28"/>
+      <c r="A147" s="53"/>
+      <c r="B147" s="34"/>
+      <c r="C147" s="34"/>
+      <c r="D147" s="34"/>
       <c r="E147" s="3">
         <v>3</v>
       </c>
@@ -9991,14 +10435,14 @@
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="51"/>
-      <c r="B148" s="26" t="s">
+      <c r="A148" s="53"/>
+      <c r="B148" s="32" t="s">
         <v>335</v>
       </c>
-      <c r="C148" s="26" t="s">
+      <c r="C148" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D148" s="26" t="s">
+      <c r="D148" s="32" t="s">
         <v>384</v>
       </c>
       <c r="E148" s="3">
@@ -10009,10 +10453,10 @@
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="51"/>
-      <c r="B149" s="27"/>
-      <c r="C149" s="27"/>
-      <c r="D149" s="27"/>
+      <c r="A149" s="53"/>
+      <c r="B149" s="33"/>
+      <c r="C149" s="33"/>
+      <c r="D149" s="33"/>
       <c r="E149" s="3">
         <v>2</v>
       </c>
@@ -10021,10 +10465,10 @@
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="51"/>
-      <c r="B150" s="28"/>
-      <c r="C150" s="28"/>
-      <c r="D150" s="28"/>
+      <c r="A150" s="53"/>
+      <c r="B150" s="34"/>
+      <c r="C150" s="34"/>
+      <c r="D150" s="34"/>
       <c r="E150" s="3">
         <v>3</v>
       </c>
@@ -10039,14 +10483,14 @@
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="51"/>
-      <c r="B151" s="31" t="s">
+      <c r="A151" s="53"/>
+      <c r="B151" s="35" t="s">
         <v>466</v>
       </c>
-      <c r="C151" s="31" t="s">
+      <c r="C151" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="D151" s="26" t="s">
+      <c r="D151" s="32" t="s">
         <v>389</v>
       </c>
       <c r="E151" s="2">
@@ -10063,10 +10507,10 @@
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="51"/>
-      <c r="B152" s="32"/>
-      <c r="C152" s="27"/>
-      <c r="D152" s="27"/>
+      <c r="A152" s="53"/>
+      <c r="B152" s="36"/>
+      <c r="C152" s="33"/>
+      <c r="D152" s="33"/>
       <c r="E152" s="2">
         <v>2</v>
       </c>
@@ -10075,10 +10519,10 @@
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" s="51"/>
-      <c r="B153" s="32"/>
-      <c r="C153" s="28"/>
-      <c r="D153" s="28"/>
+      <c r="A153" s="53"/>
+      <c r="B153" s="36"/>
+      <c r="C153" s="34"/>
+      <c r="D153" s="34"/>
       <c r="E153" s="2">
         <v>3</v>
       </c>
@@ -10087,12 +10531,12 @@
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="51"/>
-      <c r="B154" s="32"/>
-      <c r="C154" s="31" t="s">
+      <c r="A154" s="53"/>
+      <c r="B154" s="36"/>
+      <c r="C154" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="D154" s="26" t="s">
+      <c r="D154" s="32" t="s">
         <v>389</v>
       </c>
       <c r="E154" s="3">
@@ -10109,10 +10553,10 @@
       </c>
     </row>
     <row r="155" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="51"/>
-      <c r="B155" s="32"/>
-      <c r="C155" s="27"/>
-      <c r="D155" s="27"/>
+      <c r="A155" s="53"/>
+      <c r="B155" s="36"/>
+      <c r="C155" s="33"/>
+      <c r="D155" s="33"/>
       <c r="E155" s="3">
         <v>2</v>
       </c>
@@ -10121,10 +10565,10 @@
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="51"/>
-      <c r="B156" s="32"/>
-      <c r="C156" s="28"/>
-      <c r="D156" s="28"/>
+      <c r="A156" s="53"/>
+      <c r="B156" s="36"/>
+      <c r="C156" s="34"/>
+      <c r="D156" s="34"/>
       <c r="E156" s="3">
         <v>3</v>
       </c>
@@ -10133,12 +10577,12 @@
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="51"/>
-      <c r="B157" s="32"/>
-      <c r="C157" s="31" t="s">
+      <c r="A157" s="53"/>
+      <c r="B157" s="36"/>
+      <c r="C157" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="D157" s="26" t="s">
+      <c r="D157" s="32" t="s">
         <v>389</v>
       </c>
       <c r="E157" s="3">
@@ -10155,10 +10599,10 @@
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="51"/>
-      <c r="B158" s="32"/>
-      <c r="C158" s="27"/>
-      <c r="D158" s="27"/>
+      <c r="A158" s="53"/>
+      <c r="B158" s="36"/>
+      <c r="C158" s="33"/>
+      <c r="D158" s="33"/>
       <c r="E158" s="3">
         <v>2</v>
       </c>
@@ -10167,10 +10611,10 @@
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="51"/>
-      <c r="B159" s="32"/>
-      <c r="C159" s="28"/>
-      <c r="D159" s="28"/>
+      <c r="A159" s="53"/>
+      <c r="B159" s="36"/>
+      <c r="C159" s="34"/>
+      <c r="D159" s="34"/>
       <c r="E159" s="3">
         <v>3</v>
       </c>
@@ -10179,12 +10623,12 @@
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" s="51"/>
-      <c r="B160" s="32"/>
-      <c r="C160" s="31" t="s">
+      <c r="A160" s="53"/>
+      <c r="B160" s="36"/>
+      <c r="C160" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="D160" s="26" t="s">
+      <c r="D160" s="32" t="s">
         <v>389</v>
       </c>
       <c r="E160" s="3">
@@ -10201,10 +10645,10 @@
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" s="51"/>
-      <c r="B161" s="32"/>
-      <c r="C161" s="27"/>
-      <c r="D161" s="27"/>
+      <c r="A161" s="53"/>
+      <c r="B161" s="36"/>
+      <c r="C161" s="33"/>
+      <c r="D161" s="33"/>
       <c r="E161" s="3">
         <v>2</v>
       </c>
@@ -10213,10 +10657,10 @@
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" s="51"/>
-      <c r="B162" s="32"/>
-      <c r="C162" s="28"/>
-      <c r="D162" s="28"/>
+      <c r="A162" s="53"/>
+      <c r="B162" s="36"/>
+      <c r="C162" s="34"/>
+      <c r="D162" s="34"/>
       <c r="E162" s="3">
         <v>3</v>
       </c>
@@ -10225,12 +10669,12 @@
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163" s="51"/>
-      <c r="B163" s="32"/>
-      <c r="C163" s="31" t="s">
+      <c r="A163" s="53"/>
+      <c r="B163" s="36"/>
+      <c r="C163" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="D163" s="26" t="s">
+      <c r="D163" s="32" t="s">
         <v>389</v>
       </c>
       <c r="E163" s="3">
@@ -10247,10 +10691,10 @@
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164" s="51"/>
-      <c r="B164" s="32"/>
-      <c r="C164" s="27"/>
-      <c r="D164" s="27"/>
+      <c r="A164" s="53"/>
+      <c r="B164" s="36"/>
+      <c r="C164" s="33"/>
+      <c r="D164" s="33"/>
       <c r="E164" s="3">
         <v>2</v>
       </c>
@@ -10259,10 +10703,10 @@
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165" s="51"/>
-      <c r="B165" s="32"/>
-      <c r="C165" s="28"/>
-      <c r="D165" s="28"/>
+      <c r="A165" s="53"/>
+      <c r="B165" s="36"/>
+      <c r="C165" s="34"/>
+      <c r="D165" s="34"/>
       <c r="E165" s="3">
         <v>3</v>
       </c>
@@ -10271,12 +10715,12 @@
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" s="51"/>
-      <c r="B166" s="32"/>
-      <c r="C166" s="31" t="s">
+      <c r="A166" s="53"/>
+      <c r="B166" s="36"/>
+      <c r="C166" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="D166" s="26" t="s">
+      <c r="D166" s="32" t="s">
         <v>389</v>
       </c>
       <c r="E166" s="3">
@@ -10293,10 +10737,10 @@
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167" s="51"/>
-      <c r="B167" s="32"/>
-      <c r="C167" s="27"/>
-      <c r="D167" s="27"/>
+      <c r="A167" s="53"/>
+      <c r="B167" s="36"/>
+      <c r="C167" s="33"/>
+      <c r="D167" s="33"/>
       <c r="E167" s="3">
         <v>2</v>
       </c>
@@ -10305,10 +10749,10 @@
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A168" s="51"/>
-      <c r="B168" s="32"/>
-      <c r="C168" s="28"/>
-      <c r="D168" s="28"/>
+      <c r="A168" s="53"/>
+      <c r="B168" s="36"/>
+      <c r="C168" s="34"/>
+      <c r="D168" s="34"/>
       <c r="E168" s="3">
         <v>3</v>
       </c>
@@ -10317,12 +10761,12 @@
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169" s="51"/>
-      <c r="B169" s="32"/>
-      <c r="C169" s="31" t="s">
+      <c r="A169" s="53"/>
+      <c r="B169" s="36"/>
+      <c r="C169" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="D169" s="26" t="s">
+      <c r="D169" s="32" t="s">
         <v>389</v>
       </c>
       <c r="E169" s="3">
@@ -10339,10 +10783,10 @@
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A170" s="51"/>
-      <c r="B170" s="32"/>
-      <c r="C170" s="27"/>
-      <c r="D170" s="27"/>
+      <c r="A170" s="53"/>
+      <c r="B170" s="36"/>
+      <c r="C170" s="33"/>
+      <c r="D170" s="33"/>
       <c r="E170" s="3">
         <v>2</v>
       </c>
@@ -10351,10 +10795,10 @@
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A171" s="51"/>
-      <c r="B171" s="32"/>
-      <c r="C171" s="28"/>
-      <c r="D171" s="28"/>
+      <c r="A171" s="53"/>
+      <c r="B171" s="36"/>
+      <c r="C171" s="34"/>
+      <c r="D171" s="34"/>
       <c r="E171" s="3">
         <v>3</v>
       </c>
@@ -10363,12 +10807,12 @@
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172" s="51"/>
-      <c r="B172" s="32"/>
-      <c r="C172" s="31" t="s">
+      <c r="A172" s="53"/>
+      <c r="B172" s="36"/>
+      <c r="C172" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="D172" s="26" t="s">
+      <c r="D172" s="32" t="s">
         <v>389</v>
       </c>
       <c r="E172" s="3">
@@ -10385,10 +10829,10 @@
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A173" s="51"/>
-      <c r="B173" s="32"/>
-      <c r="C173" s="27"/>
-      <c r="D173" s="27"/>
+      <c r="A173" s="53"/>
+      <c r="B173" s="36"/>
+      <c r="C173" s="33"/>
+      <c r="D173" s="33"/>
       <c r="E173" s="3">
         <v>2</v>
       </c>
@@ -10397,10 +10841,10 @@
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A174" s="51"/>
-      <c r="B174" s="32"/>
-      <c r="C174" s="28"/>
-      <c r="D174" s="28"/>
+      <c r="A174" s="53"/>
+      <c r="B174" s="36"/>
+      <c r="C174" s="34"/>
+      <c r="D174" s="34"/>
       <c r="E174" s="3">
         <v>3</v>
       </c>
@@ -10409,12 +10853,12 @@
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A175" s="51"/>
-      <c r="B175" s="32"/>
-      <c r="C175" s="31" t="s">
+      <c r="A175" s="53"/>
+      <c r="B175" s="36"/>
+      <c r="C175" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="D175" s="26" t="s">
+      <c r="D175" s="32" t="s">
         <v>389</v>
       </c>
       <c r="E175" s="3">
@@ -10431,10 +10875,10 @@
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A176" s="51"/>
-      <c r="B176" s="32"/>
-      <c r="C176" s="27"/>
-      <c r="D176" s="27"/>
+      <c r="A176" s="53"/>
+      <c r="B176" s="36"/>
+      <c r="C176" s="33"/>
+      <c r="D176" s="33"/>
       <c r="E176" s="3">
         <v>2</v>
       </c>
@@ -10443,10 +10887,10 @@
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A177" s="51"/>
-      <c r="B177" s="32"/>
-      <c r="C177" s="28"/>
-      <c r="D177" s="28"/>
+      <c r="A177" s="53"/>
+      <c r="B177" s="36"/>
+      <c r="C177" s="34"/>
+      <c r="D177" s="34"/>
       <c r="E177" s="3">
         <v>3</v>
       </c>
@@ -10455,12 +10899,12 @@
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A178" s="51"/>
-      <c r="B178" s="32"/>
-      <c r="C178" s="31" t="s">
+      <c r="A178" s="53"/>
+      <c r="B178" s="36"/>
+      <c r="C178" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="D178" s="26" t="s">
+      <c r="D178" s="32" t="s">
         <v>389</v>
       </c>
       <c r="E178" s="3">
@@ -10477,10 +10921,10 @@
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A179" s="51"/>
-      <c r="B179" s="32"/>
-      <c r="C179" s="32"/>
-      <c r="D179" s="27"/>
+      <c r="A179" s="53"/>
+      <c r="B179" s="36"/>
+      <c r="C179" s="36"/>
+      <c r="D179" s="33"/>
       <c r="E179" s="9">
         <v>2</v>
       </c>
@@ -10491,10 +10935,10 @@
       <c r="H179" s="9"/>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A180" s="51"/>
-      <c r="B180" s="32"/>
-      <c r="C180" s="32"/>
-      <c r="D180" s="27"/>
+      <c r="A180" s="53"/>
+      <c r="B180" s="36"/>
+      <c r="C180" s="36"/>
+      <c r="D180" s="33"/>
       <c r="E180" s="9">
         <v>3</v>
       </c>
@@ -10503,14 +10947,14 @@
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A181" s="51"/>
-      <c r="B181" s="32" t="s">
+      <c r="A181" s="53"/>
+      <c r="B181" s="36" t="s">
         <v>465</v>
       </c>
-      <c r="C181" s="27" t="s">
+      <c r="C181" s="33" t="s">
         <v>467</v>
       </c>
-      <c r="D181" s="27"/>
+      <c r="D181" s="33"/>
       <c r="E181" s="9">
         <v>1</v>
       </c>
@@ -10525,10 +10969,10 @@
       </c>
     </row>
     <row r="182" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="51"/>
-      <c r="B182" s="32"/>
-      <c r="C182" s="27"/>
-      <c r="D182" s="27"/>
+      <c r="A182" s="53"/>
+      <c r="B182" s="36"/>
+      <c r="C182" s="33"/>
+      <c r="D182" s="33"/>
       <c r="E182" s="9">
         <v>2</v>
       </c>
@@ -10543,10 +10987,10 @@
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A183" s="51"/>
-      <c r="B183" s="32"/>
-      <c r="C183" s="27"/>
-      <c r="D183" s="27"/>
+      <c r="A183" s="53"/>
+      <c r="B183" s="36"/>
+      <c r="C183" s="33"/>
+      <c r="D183" s="33"/>
       <c r="E183" s="9">
         <v>3</v>
       </c>
@@ -10561,14 +11005,14 @@
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A184" s="51"/>
+      <c r="A184" s="53"/>
       <c r="B184" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="C184" s="26" t="s">
+      <c r="C184" s="32" t="s">
         <v>406</v>
       </c>
-      <c r="D184" s="26" t="s">
+      <c r="D184" s="32" t="s">
         <v>407</v>
       </c>
       <c r="E184" s="2">
@@ -10585,12 +11029,12 @@
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A185" s="51"/>
+      <c r="A185" s="53"/>
       <c r="B185" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="C185" s="27"/>
-      <c r="D185" s="27"/>
+      <c r="C185" s="33"/>
+      <c r="D185" s="33"/>
       <c r="E185" s="2">
         <v>2</v>
       </c>
@@ -10605,12 +11049,12 @@
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A186" s="51"/>
+      <c r="A186" s="53"/>
       <c r="B186" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="C186" s="27"/>
-      <c r="D186" s="27"/>
+      <c r="C186" s="33"/>
+      <c r="D186" s="33"/>
       <c r="E186" s="2">
         <v>3</v>
       </c>
@@ -10625,12 +11069,12 @@
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A187" s="51"/>
+      <c r="A187" s="53"/>
       <c r="B187" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C187" s="27"/>
-      <c r="D187" s="27"/>
+      <c r="C187" s="33"/>
+      <c r="D187" s="33"/>
       <c r="E187" s="2">
         <v>4</v>
       </c>
@@ -10639,12 +11083,12 @@
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A188" s="51"/>
+      <c r="A188" s="53"/>
       <c r="B188" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="C188" s="27"/>
-      <c r="D188" s="27"/>
+      <c r="C188" s="33"/>
+      <c r="D188" s="33"/>
       <c r="E188" s="2">
         <v>5</v>
       </c>
@@ -10659,12 +11103,12 @@
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A189" s="52"/>
+      <c r="A189" s="54"/>
       <c r="B189" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="C189" s="28"/>
-      <c r="D189" s="28"/>
+      <c r="C189" s="34"/>
+      <c r="D189" s="34"/>
       <c r="E189" s="2">
         <v>6</v>
       </c>
@@ -10679,16 +11123,16 @@
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A190" s="37" t="s">
+      <c r="A190" s="48" t="s">
         <v>496</v>
       </c>
-      <c r="B190" s="31" t="s">
+      <c r="B190" s="35" t="s">
         <v>424</v>
       </c>
-      <c r="C190" s="31" t="s">
+      <c r="C190" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D190" s="26" t="s">
+      <c r="D190" s="32" t="s">
         <v>89</v>
       </c>
       <c r="E190" s="3">
@@ -10699,10 +11143,10 @@
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A191" s="38"/>
-      <c r="B191" s="27"/>
-      <c r="C191" s="27"/>
-      <c r="D191" s="27"/>
+      <c r="A191" s="49"/>
+      <c r="B191" s="33"/>
+      <c r="C191" s="33"/>
+      <c r="D191" s="33"/>
       <c r="E191" s="3">
         <v>2</v>
       </c>
@@ -10717,10 +11161,10 @@
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A192" s="38"/>
-      <c r="B192" s="27"/>
-      <c r="C192" s="27"/>
-      <c r="D192" s="27"/>
+      <c r="A192" s="49"/>
+      <c r="B192" s="33"/>
+      <c r="C192" s="33"/>
+      <c r="D192" s="33"/>
       <c r="E192" s="3">
         <v>3</v>
       </c>
@@ -10735,10 +11179,10 @@
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A193" s="38"/>
-      <c r="B193" s="28"/>
-      <c r="C193" s="28"/>
-      <c r="D193" s="28"/>
+      <c r="A193" s="49"/>
+      <c r="B193" s="34"/>
+      <c r="C193" s="34"/>
+      <c r="D193" s="34"/>
       <c r="E193" s="3">
         <v>4</v>
       </c>
@@ -10747,14 +11191,14 @@
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A194" s="38"/>
-      <c r="B194" s="31" t="s">
+      <c r="A194" s="49"/>
+      <c r="B194" s="35" t="s">
         <v>425</v>
       </c>
-      <c r="C194" s="31" t="s">
+      <c r="C194" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D194" s="26" t="s">
+      <c r="D194" s="32" t="s">
         <v>94</v>
       </c>
       <c r="E194" s="3">
@@ -10767,10 +11211,10 @@
       <c r="H194" s="3"/>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A195" s="38"/>
-      <c r="B195" s="27"/>
-      <c r="C195" s="27"/>
-      <c r="D195" s="27"/>
+      <c r="A195" s="49"/>
+      <c r="B195" s="33"/>
+      <c r="C195" s="33"/>
+      <c r="D195" s="33"/>
       <c r="E195" s="3">
         <v>2</v>
       </c>
@@ -10785,10 +11229,10 @@
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A196" s="38"/>
-      <c r="B196" s="27"/>
-      <c r="C196" s="27"/>
-      <c r="D196" s="27"/>
+      <c r="A196" s="49"/>
+      <c r="B196" s="33"/>
+      <c r="C196" s="33"/>
+      <c r="D196" s="33"/>
       <c r="E196" s="3">
         <v>3</v>
       </c>
@@ -10803,10 +11247,10 @@
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A197" s="38"/>
-      <c r="B197" s="28"/>
-      <c r="C197" s="28"/>
-      <c r="D197" s="28"/>
+      <c r="A197" s="49"/>
+      <c r="B197" s="34"/>
+      <c r="C197" s="34"/>
+      <c r="D197" s="34"/>
       <c r="E197" s="3">
         <v>4</v>
       </c>
@@ -10817,14 +11261,14 @@
       <c r="H197" s="3"/>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A198" s="38"/>
-      <c r="B198" s="31" t="s">
+      <c r="A198" s="49"/>
+      <c r="B198" s="35" t="s">
         <v>426</v>
       </c>
-      <c r="C198" s="31" t="s">
+      <c r="C198" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D198" s="26" t="s">
+      <c r="D198" s="32" t="s">
         <v>95</v>
       </c>
       <c r="E198" s="3">
@@ -10837,10 +11281,10 @@
       <c r="H198" s="3"/>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A199" s="38"/>
-      <c r="B199" s="27"/>
-      <c r="C199" s="27"/>
-      <c r="D199" s="27"/>
+      <c r="A199" s="49"/>
+      <c r="B199" s="33"/>
+      <c r="C199" s="33"/>
+      <c r="D199" s="33"/>
       <c r="E199" s="3">
         <v>2</v>
       </c>
@@ -10855,10 +11299,10 @@
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A200" s="38"/>
-      <c r="B200" s="27"/>
-      <c r="C200" s="27"/>
-      <c r="D200" s="27"/>
+      <c r="A200" s="49"/>
+      <c r="B200" s="33"/>
+      <c r="C200" s="33"/>
+      <c r="D200" s="33"/>
       <c r="E200" s="3">
         <v>3</v>
       </c>
@@ -10873,10 +11317,10 @@
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A201" s="38"/>
-      <c r="B201" s="28"/>
-      <c r="C201" s="28"/>
-      <c r="D201" s="28"/>
+      <c r="A201" s="49"/>
+      <c r="B201" s="34"/>
+      <c r="C201" s="34"/>
+      <c r="D201" s="34"/>
       <c r="E201" s="3">
         <v>4</v>
       </c>
@@ -10887,14 +11331,14 @@
       <c r="H201" s="3"/>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A202" s="38"/>
-      <c r="B202" s="31" t="s">
+      <c r="A202" s="49"/>
+      <c r="B202" s="35" t="s">
         <v>427</v>
       </c>
-      <c r="C202" s="31" t="s">
+      <c r="C202" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D202" s="26" t="s">
+      <c r="D202" s="32" t="s">
         <v>96</v>
       </c>
       <c r="E202" s="3">
@@ -10907,10 +11351,10 @@
       <c r="H202" s="3"/>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A203" s="38"/>
-      <c r="B203" s="27"/>
-      <c r="C203" s="27"/>
-      <c r="D203" s="27"/>
+      <c r="A203" s="49"/>
+      <c r="B203" s="33"/>
+      <c r="C203" s="33"/>
+      <c r="D203" s="33"/>
       <c r="E203" s="3">
         <v>2</v>
       </c>
@@ -10925,10 +11369,10 @@
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A204" s="38"/>
-      <c r="B204" s="27"/>
-      <c r="C204" s="27"/>
-      <c r="D204" s="27"/>
+      <c r="A204" s="49"/>
+      <c r="B204" s="33"/>
+      <c r="C204" s="33"/>
+      <c r="D204" s="33"/>
       <c r="E204" s="3">
         <v>3</v>
       </c>
@@ -10943,10 +11387,10 @@
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A205" s="38"/>
-      <c r="B205" s="28"/>
-      <c r="C205" s="28"/>
-      <c r="D205" s="28"/>
+      <c r="A205" s="49"/>
+      <c r="B205" s="34"/>
+      <c r="C205" s="34"/>
+      <c r="D205" s="34"/>
       <c r="E205" s="3">
         <v>4</v>
       </c>
@@ -10957,14 +11401,14 @@
       <c r="H205" s="3"/>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A206" s="38"/>
-      <c r="B206" s="31" t="s">
+      <c r="A206" s="49"/>
+      <c r="B206" s="35" t="s">
         <v>428</v>
       </c>
-      <c r="C206" s="31" t="s">
+      <c r="C206" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D206" s="26" t="s">
+      <c r="D206" s="32" t="s">
         <v>97</v>
       </c>
       <c r="E206" s="3">
@@ -10977,10 +11421,10 @@
       <c r="H206" s="3"/>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A207" s="38"/>
-      <c r="B207" s="27"/>
-      <c r="C207" s="27"/>
-      <c r="D207" s="27"/>
+      <c r="A207" s="49"/>
+      <c r="B207" s="33"/>
+      <c r="C207" s="33"/>
+      <c r="D207" s="33"/>
       <c r="E207" s="3">
         <v>2</v>
       </c>
@@ -10995,10 +11439,10 @@
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A208" s="38"/>
-      <c r="B208" s="27"/>
-      <c r="C208" s="27"/>
-      <c r="D208" s="27"/>
+      <c r="A208" s="49"/>
+      <c r="B208" s="33"/>
+      <c r="C208" s="33"/>
+      <c r="D208" s="33"/>
       <c r="E208" s="3">
         <v>3</v>
       </c>
@@ -11016,10 +11460,10 @@
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A209" s="38"/>
-      <c r="B209" s="28"/>
-      <c r="C209" s="28"/>
-      <c r="D209" s="28"/>
+      <c r="A209" s="49"/>
+      <c r="B209" s="34"/>
+      <c r="C209" s="34"/>
+      <c r="D209" s="34"/>
       <c r="E209" s="3">
         <v>4</v>
       </c>
@@ -11030,14 +11474,14 @@
       <c r="H209" s="3"/>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A210" s="38"/>
-      <c r="B210" s="31" t="s">
+      <c r="A210" s="49"/>
+      <c r="B210" s="35" t="s">
         <v>429</v>
       </c>
-      <c r="C210" s="31" t="s">
+      <c r="C210" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D210" s="26" t="s">
+      <c r="D210" s="32" t="s">
         <v>89</v>
       </c>
       <c r="E210" s="3">
@@ -11050,10 +11494,10 @@
       <c r="H210" s="3"/>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A211" s="38"/>
-      <c r="B211" s="27"/>
-      <c r="C211" s="27"/>
-      <c r="D211" s="27"/>
+      <c r="A211" s="49"/>
+      <c r="B211" s="33"/>
+      <c r="C211" s="33"/>
+      <c r="D211" s="33"/>
       <c r="E211" s="3">
         <v>2</v>
       </c>
@@ -11068,10 +11512,10 @@
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A212" s="38"/>
-      <c r="B212" s="27"/>
-      <c r="C212" s="27"/>
-      <c r="D212" s="27"/>
+      <c r="A212" s="49"/>
+      <c r="B212" s="33"/>
+      <c r="C212" s="33"/>
+      <c r="D212" s="33"/>
       <c r="E212" s="3">
         <v>3</v>
       </c>
@@ -11086,10 +11530,10 @@
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A213" s="38"/>
-      <c r="B213" s="28"/>
-      <c r="C213" s="28"/>
-      <c r="D213" s="28"/>
+      <c r="A213" s="49"/>
+      <c r="B213" s="34"/>
+      <c r="C213" s="34"/>
+      <c r="D213" s="34"/>
       <c r="E213" s="3">
         <v>4</v>
       </c>
@@ -11100,14 +11544,14 @@
       <c r="H213" s="3"/>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A214" s="38"/>
-      <c r="B214" s="31" t="s">
+      <c r="A214" s="49"/>
+      <c r="B214" s="35" t="s">
         <v>430</v>
       </c>
-      <c r="C214" s="31" t="s">
+      <c r="C214" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D214" s="26" t="s">
+      <c r="D214" s="32" t="s">
         <v>89</v>
       </c>
       <c r="E214" s="3">
@@ -11118,10 +11562,10 @@
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A215" s="38"/>
-      <c r="B215" s="27"/>
-      <c r="C215" s="27"/>
-      <c r="D215" s="27"/>
+      <c r="A215" s="49"/>
+      <c r="B215" s="33"/>
+      <c r="C215" s="33"/>
+      <c r="D215" s="33"/>
       <c r="E215" s="3">
         <v>2</v>
       </c>
@@ -11136,10 +11580,10 @@
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A216" s="38"/>
-      <c r="B216" s="27"/>
-      <c r="C216" s="27"/>
-      <c r="D216" s="27"/>
+      <c r="A216" s="49"/>
+      <c r="B216" s="33"/>
+      <c r="C216" s="33"/>
+      <c r="D216" s="33"/>
       <c r="E216" s="3">
         <v>3</v>
       </c>
@@ -11154,10 +11598,10 @@
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A217" s="38"/>
-      <c r="B217" s="28"/>
-      <c r="C217" s="28"/>
-      <c r="D217" s="28"/>
+      <c r="A217" s="49"/>
+      <c r="B217" s="34"/>
+      <c r="C217" s="34"/>
+      <c r="D217" s="34"/>
       <c r="E217" s="3">
         <v>4</v>
       </c>
@@ -11166,14 +11610,14 @@
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A218" s="38"/>
-      <c r="B218" s="31" t="s">
+      <c r="A218" s="49"/>
+      <c r="B218" s="35" t="s">
         <v>431</v>
       </c>
-      <c r="C218" s="31" t="s">
+      <c r="C218" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D218" s="26" t="s">
+      <c r="D218" s="32" t="s">
         <v>89</v>
       </c>
       <c r="E218" s="3">
@@ -11184,10 +11628,10 @@
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A219" s="38"/>
-      <c r="B219" s="27"/>
-      <c r="C219" s="27"/>
-      <c r="D219" s="27"/>
+      <c r="A219" s="49"/>
+      <c r="B219" s="33"/>
+      <c r="C219" s="33"/>
+      <c r="D219" s="33"/>
       <c r="E219" s="3">
         <v>2</v>
       </c>
@@ -11202,10 +11646,10 @@
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A220" s="38"/>
-      <c r="B220" s="27"/>
-      <c r="C220" s="27"/>
-      <c r="D220" s="27"/>
+      <c r="A220" s="49"/>
+      <c r="B220" s="33"/>
+      <c r="C220" s="33"/>
+      <c r="D220" s="33"/>
       <c r="E220" s="3">
         <v>3</v>
       </c>
@@ -11220,10 +11664,10 @@
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A221" s="38"/>
-      <c r="B221" s="28"/>
-      <c r="C221" s="28"/>
-      <c r="D221" s="28"/>
+      <c r="A221" s="49"/>
+      <c r="B221" s="34"/>
+      <c r="C221" s="34"/>
+      <c r="D221" s="34"/>
       <c r="E221" s="3">
         <v>4</v>
       </c>
@@ -11232,14 +11676,14 @@
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A222" s="38"/>
-      <c r="B222" s="31" t="s">
+      <c r="A222" s="49"/>
+      <c r="B222" s="35" t="s">
         <v>438</v>
       </c>
-      <c r="C222" s="31" t="s">
+      <c r="C222" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D222" s="26" t="s">
+      <c r="D222" s="32" t="s">
         <v>75</v>
       </c>
       <c r="E222" s="2">
@@ -11250,10 +11694,10 @@
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A223" s="38"/>
-      <c r="B223" s="27"/>
-      <c r="C223" s="27"/>
-      <c r="D223" s="27"/>
+      <c r="A223" s="49"/>
+      <c r="B223" s="33"/>
+      <c r="C223" s="33"/>
+      <c r="D223" s="33"/>
       <c r="E223" s="2">
         <v>2</v>
       </c>
@@ -11262,10 +11706,10 @@
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A224" s="38"/>
-      <c r="B224" s="27"/>
-      <c r="C224" s="27"/>
-      <c r="D224" s="27"/>
+      <c r="A224" s="49"/>
+      <c r="B224" s="33"/>
+      <c r="C224" s="33"/>
+      <c r="D224" s="33"/>
       <c r="E224" s="2">
         <v>3</v>
       </c>
@@ -11280,10 +11724,10 @@
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A225" s="38"/>
-      <c r="B225" s="28"/>
-      <c r="C225" s="28"/>
-      <c r="D225" s="28"/>
+      <c r="A225" s="49"/>
+      <c r="B225" s="34"/>
+      <c r="C225" s="34"/>
+      <c r="D225" s="34"/>
       <c r="E225" s="2">
         <v>4</v>
       </c>
@@ -11298,14 +11742,14 @@
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A226" s="38"/>
-      <c r="B226" s="31" t="s">
+      <c r="A226" s="49"/>
+      <c r="B226" s="35" t="s">
         <v>439</v>
       </c>
-      <c r="C226" s="31" t="s">
+      <c r="C226" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D226" s="26" t="s">
+      <c r="D226" s="32" t="s">
         <v>78</v>
       </c>
       <c r="E226" s="3">
@@ -11318,10 +11762,10 @@
       <c r="H226" s="3"/>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A227" s="38"/>
-      <c r="B227" s="27"/>
-      <c r="C227" s="27"/>
-      <c r="D227" s="27"/>
+      <c r="A227" s="49"/>
+      <c r="B227" s="33"/>
+      <c r="C227" s="33"/>
+      <c r="D227" s="33"/>
       <c r="E227" s="3">
         <v>2</v>
       </c>
@@ -11332,10 +11776,10 @@
       <c r="H227" s="3"/>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A228" s="38"/>
-      <c r="B228" s="27"/>
-      <c r="C228" s="27"/>
-      <c r="D228" s="27"/>
+      <c r="A228" s="49"/>
+      <c r="B228" s="33"/>
+      <c r="C228" s="33"/>
+      <c r="D228" s="33"/>
       <c r="E228" s="3">
         <v>3</v>
       </c>
@@ -11353,10 +11797,10 @@
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A229" s="38"/>
-      <c r="B229" s="28"/>
-      <c r="C229" s="28"/>
-      <c r="D229" s="28"/>
+      <c r="A229" s="49"/>
+      <c r="B229" s="34"/>
+      <c r="C229" s="34"/>
+      <c r="D229" s="34"/>
       <c r="E229" s="3">
         <v>4</v>
       </c>
@@ -11371,14 +11815,14 @@
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A230" s="38"/>
-      <c r="B230" s="31" t="s">
+      <c r="A230" s="49"/>
+      <c r="B230" s="35" t="s">
         <v>440</v>
       </c>
-      <c r="C230" s="31" t="s">
+      <c r="C230" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D230" s="26" t="s">
+      <c r="D230" s="32" t="s">
         <v>79</v>
       </c>
       <c r="E230" s="3">
@@ -11391,10 +11835,10 @@
       <c r="H230" s="3"/>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A231" s="38"/>
-      <c r="B231" s="27"/>
-      <c r="C231" s="27"/>
-      <c r="D231" s="27"/>
+      <c r="A231" s="49"/>
+      <c r="B231" s="33"/>
+      <c r="C231" s="33"/>
+      <c r="D231" s="33"/>
       <c r="E231" s="3">
         <v>2</v>
       </c>
@@ -11405,10 +11849,10 @@
       <c r="H231" s="3"/>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A232" s="38"/>
-      <c r="B232" s="27"/>
-      <c r="C232" s="27"/>
-      <c r="D232" s="27"/>
+      <c r="A232" s="49"/>
+      <c r="B232" s="33"/>
+      <c r="C232" s="33"/>
+      <c r="D232" s="33"/>
       <c r="E232" s="3">
         <v>3</v>
       </c>
@@ -11426,10 +11870,10 @@
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A233" s="38"/>
-      <c r="B233" s="28"/>
-      <c r="C233" s="28"/>
-      <c r="D233" s="28"/>
+      <c r="A233" s="49"/>
+      <c r="B233" s="34"/>
+      <c r="C233" s="34"/>
+      <c r="D233" s="34"/>
       <c r="E233" s="3">
         <v>4</v>
       </c>
@@ -11447,14 +11891,14 @@
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A234" s="38"/>
-      <c r="B234" s="31" t="s">
+      <c r="A234" s="49"/>
+      <c r="B234" s="35" t="s">
         <v>441</v>
       </c>
-      <c r="C234" s="31" t="s">
+      <c r="C234" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D234" s="26" t="s">
+      <c r="D234" s="32" t="s">
         <v>80</v>
       </c>
       <c r="E234" s="3">
@@ -11467,10 +11911,10 @@
       <c r="H234" s="3"/>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A235" s="38"/>
-      <c r="B235" s="27"/>
-      <c r="C235" s="27"/>
-      <c r="D235" s="27"/>
+      <c r="A235" s="49"/>
+      <c r="B235" s="33"/>
+      <c r="C235" s="33"/>
+      <c r="D235" s="33"/>
       <c r="E235" s="3">
         <v>2</v>
       </c>
@@ -11481,10 +11925,10 @@
       <c r="H235" s="3"/>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A236" s="38"/>
-      <c r="B236" s="27"/>
-      <c r="C236" s="27"/>
-      <c r="D236" s="27"/>
+      <c r="A236" s="49"/>
+      <c r="B236" s="33"/>
+      <c r="C236" s="33"/>
+      <c r="D236" s="33"/>
       <c r="E236" s="3">
         <v>3</v>
       </c>
@@ -11499,10 +11943,10 @@
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A237" s="38"/>
-      <c r="B237" s="28"/>
-      <c r="C237" s="28"/>
-      <c r="D237" s="28"/>
+      <c r="A237" s="49"/>
+      <c r="B237" s="34"/>
+      <c r="C237" s="34"/>
+      <c r="D237" s="34"/>
       <c r="E237" s="3">
         <v>4</v>
       </c>
@@ -11517,14 +11961,14 @@
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A238" s="38"/>
-      <c r="B238" s="31" t="s">
+      <c r="A238" s="49"/>
+      <c r="B238" s="35" t="s">
         <v>442</v>
       </c>
-      <c r="C238" s="31" t="s">
+      <c r="C238" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D238" s="26" t="s">
+      <c r="D238" s="32" t="s">
         <v>81</v>
       </c>
       <c r="E238" s="3">
@@ -11537,10 +11981,10 @@
       <c r="H238" s="3"/>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A239" s="38"/>
-      <c r="B239" s="27"/>
-      <c r="C239" s="27"/>
-      <c r="D239" s="27"/>
+      <c r="A239" s="49"/>
+      <c r="B239" s="33"/>
+      <c r="C239" s="33"/>
+      <c r="D239" s="33"/>
       <c r="E239" s="3">
         <v>2</v>
       </c>
@@ -11551,10 +11995,10 @@
       <c r="H239" s="3"/>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A240" s="38"/>
-      <c r="B240" s="27"/>
-      <c r="C240" s="27"/>
-      <c r="D240" s="27"/>
+      <c r="A240" s="49"/>
+      <c r="B240" s="33"/>
+      <c r="C240" s="33"/>
+      <c r="D240" s="33"/>
       <c r="E240" s="3">
         <v>3</v>
       </c>
@@ -11569,10 +12013,10 @@
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A241" s="38"/>
-      <c r="B241" s="28"/>
-      <c r="C241" s="28"/>
-      <c r="D241" s="28"/>
+      <c r="A241" s="49"/>
+      <c r="B241" s="34"/>
+      <c r="C241" s="34"/>
+      <c r="D241" s="34"/>
       <c r="E241" s="3">
         <v>4</v>
       </c>
@@ -11587,14 +12031,14 @@
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A242" s="38"/>
-      <c r="B242" s="26" t="s">
+      <c r="A242" s="49"/>
+      <c r="B242" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="C242" s="31" t="s">
+      <c r="C242" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="D242" s="26" t="s">
+      <c r="D242" s="32" t="s">
         <v>102</v>
       </c>
       <c r="E242" s="3">
@@ -11605,10 +12049,10 @@
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A243" s="38"/>
-      <c r="B243" s="27"/>
-      <c r="C243" s="32"/>
-      <c r="D243" s="27"/>
+      <c r="A243" s="49"/>
+      <c r="B243" s="33"/>
+      <c r="C243" s="36"/>
+      <c r="D243" s="33"/>
       <c r="E243" s="3">
         <v>2</v>
       </c>
@@ -11617,10 +12061,10 @@
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A244" s="38"/>
-      <c r="B244" s="27"/>
-      <c r="C244" s="32"/>
-      <c r="D244" s="27"/>
+      <c r="A244" s="49"/>
+      <c r="B244" s="33"/>
+      <c r="C244" s="36"/>
+      <c r="D244" s="33"/>
       <c r="E244" s="3">
         <v>3</v>
       </c>
@@ -11635,10 +12079,10 @@
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A245" s="38"/>
-      <c r="B245" s="27"/>
-      <c r="C245" s="32"/>
-      <c r="D245" s="27"/>
+      <c r="A245" s="49"/>
+      <c r="B245" s="33"/>
+      <c r="C245" s="36"/>
+      <c r="D245" s="33"/>
       <c r="E245" s="3">
         <v>4</v>
       </c>
@@ -11653,10 +12097,10 @@
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A246" s="38"/>
-      <c r="B246" s="28"/>
-      <c r="C246" s="33"/>
-      <c r="D246" s="28"/>
+      <c r="A246" s="49"/>
+      <c r="B246" s="34"/>
+      <c r="C246" s="37"/>
+      <c r="D246" s="34"/>
       <c r="E246" s="2">
         <v>5</v>
       </c>
@@ -11671,14 +12115,14 @@
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A247" s="38"/>
-      <c r="B247" s="26" t="s">
+      <c r="A247" s="49"/>
+      <c r="B247" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="C247" s="31" t="s">
+      <c r="C247" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="D247" s="26" t="s">
+      <c r="D247" s="32" t="s">
         <v>105</v>
       </c>
       <c r="E247" s="3">
@@ -11689,10 +12133,10 @@
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A248" s="38"/>
-      <c r="B248" s="27"/>
-      <c r="C248" s="32"/>
-      <c r="D248" s="27"/>
+      <c r="A248" s="49"/>
+      <c r="B248" s="33"/>
+      <c r="C248" s="36"/>
+      <c r="D248" s="33"/>
       <c r="E248" s="3">
         <v>2</v>
       </c>
@@ -11701,10 +12145,10 @@
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A249" s="38"/>
-      <c r="B249" s="27"/>
-      <c r="C249" s="32"/>
-      <c r="D249" s="27"/>
+      <c r="A249" s="49"/>
+      <c r="B249" s="33"/>
+      <c r="C249" s="36"/>
+      <c r="D249" s="33"/>
       <c r="E249" s="3">
         <v>3</v>
       </c>
@@ -11719,10 +12163,10 @@
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A250" s="38"/>
-      <c r="B250" s="27"/>
-      <c r="C250" s="32"/>
-      <c r="D250" s="27"/>
+      <c r="A250" s="49"/>
+      <c r="B250" s="33"/>
+      <c r="C250" s="36"/>
+      <c r="D250" s="33"/>
       <c r="E250" s="3">
         <v>4</v>
       </c>
@@ -11737,10 +12181,10 @@
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A251" s="38"/>
-      <c r="B251" s="27"/>
-      <c r="C251" s="32"/>
-      <c r="D251" s="27"/>
+      <c r="A251" s="49"/>
+      <c r="B251" s="33"/>
+      <c r="C251" s="36"/>
+      <c r="D251" s="33"/>
       <c r="E251" s="8">
         <v>5</v>
       </c>
@@ -11755,14 +12199,14 @@
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A252" s="38"/>
-      <c r="B252" s="27" t="s">
+      <c r="A252" s="49"/>
+      <c r="B252" s="33" t="s">
         <v>317</v>
       </c>
-      <c r="C252" s="32" t="s">
+      <c r="C252" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="D252" s="27" t="s">
+      <c r="D252" s="33" t="s">
         <v>377</v>
       </c>
       <c r="E252" s="8">
@@ -11775,10 +12219,10 @@
       <c r="H252" s="8"/>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A253" s="38"/>
-      <c r="B253" s="27"/>
-      <c r="C253" s="32"/>
-      <c r="D253" s="27"/>
+      <c r="A253" s="49"/>
+      <c r="B253" s="33"/>
+      <c r="C253" s="36"/>
+      <c r="D253" s="33"/>
       <c r="E253" s="8">
         <v>2</v>
       </c>
@@ -11789,10 +12233,10 @@
       <c r="H253" s="8"/>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A254" s="38"/>
-      <c r="B254" s="28"/>
-      <c r="C254" s="33"/>
-      <c r="D254" s="28"/>
+      <c r="A254" s="49"/>
+      <c r="B254" s="34"/>
+      <c r="C254" s="37"/>
+      <c r="D254" s="34"/>
       <c r="E254" s="3">
         <v>3</v>
       </c>
@@ -11807,14 +12251,14 @@
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A255" s="38"/>
-      <c r="B255" s="26" t="s">
+      <c r="A255" s="49"/>
+      <c r="B255" s="32" t="s">
         <v>328</v>
       </c>
-      <c r="C255" s="26" t="s">
+      <c r="C255" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D255" s="26" t="s">
+      <c r="D255" s="32" t="s">
         <v>107</v>
       </c>
       <c r="E255" s="2">
@@ -11825,10 +12269,10 @@
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A256" s="38"/>
-      <c r="B256" s="27"/>
-      <c r="C256" s="27"/>
-      <c r="D256" s="27"/>
+      <c r="A256" s="49"/>
+      <c r="B256" s="33"/>
+      <c r="C256" s="33"/>
+      <c r="D256" s="33"/>
       <c r="E256" s="2">
         <v>2</v>
       </c>
@@ -11837,10 +12281,10 @@
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A257" s="38"/>
-      <c r="B257" s="28"/>
-      <c r="C257" s="28"/>
-      <c r="D257" s="28"/>
+      <c r="A257" s="49"/>
+      <c r="B257" s="34"/>
+      <c r="C257" s="34"/>
+      <c r="D257" s="34"/>
       <c r="E257" s="2">
         <v>3</v>
       </c>
@@ -11855,14 +12299,14 @@
       </c>
     </row>
     <row r="258" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="38"/>
-      <c r="B258" s="26" t="s">
+      <c r="A258" s="49"/>
+      <c r="B258" s="32" t="s">
         <v>318</v>
       </c>
-      <c r="C258" s="26" t="s">
+      <c r="C258" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D258" s="26" t="s">
+      <c r="D258" s="32" t="s">
         <v>376</v>
       </c>
       <c r="E258" s="3">
@@ -11873,10 +12317,10 @@
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A259" s="38"/>
-      <c r="B259" s="27"/>
-      <c r="C259" s="27"/>
-      <c r="D259" s="27"/>
+      <c r="A259" s="49"/>
+      <c r="B259" s="33"/>
+      <c r="C259" s="33"/>
+      <c r="D259" s="33"/>
       <c r="E259" s="3">
         <v>2</v>
       </c>
@@ -11885,10 +12329,10 @@
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A260" s="38"/>
-      <c r="B260" s="28"/>
-      <c r="C260" s="28"/>
-      <c r="D260" s="28"/>
+      <c r="A260" s="49"/>
+      <c r="B260" s="34"/>
+      <c r="C260" s="34"/>
+      <c r="D260" s="34"/>
       <c r="E260" s="3">
         <v>3</v>
       </c>
@@ -11903,14 +12347,14 @@
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A261" s="38"/>
-      <c r="B261" s="26" t="s">
+      <c r="A261" s="49"/>
+      <c r="B261" s="32" t="s">
         <v>332</v>
       </c>
-      <c r="C261" s="26" t="s">
+      <c r="C261" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D261" s="26" t="s">
+      <c r="D261" s="32" t="s">
         <v>378</v>
       </c>
       <c r="E261" s="3">
@@ -11921,10 +12365,10 @@
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A262" s="38"/>
-      <c r="B262" s="27"/>
-      <c r="C262" s="27"/>
-      <c r="D262" s="27"/>
+      <c r="A262" s="49"/>
+      <c r="B262" s="33"/>
+      <c r="C262" s="33"/>
+      <c r="D262" s="33"/>
       <c r="E262" s="3">
         <v>2</v>
       </c>
@@ -11933,10 +12377,10 @@
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A263" s="38"/>
-      <c r="B263" s="28"/>
-      <c r="C263" s="28"/>
-      <c r="D263" s="28"/>
+      <c r="A263" s="49"/>
+      <c r="B263" s="34"/>
+      <c r="C263" s="34"/>
+      <c r="D263" s="34"/>
       <c r="E263" s="3">
         <v>3</v>
       </c>
@@ -11951,14 +12395,14 @@
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A264" s="38"/>
-      <c r="B264" s="26" t="s">
+      <c r="A264" s="49"/>
+      <c r="B264" s="32" t="s">
         <v>338</v>
       </c>
-      <c r="C264" s="26" t="s">
+      <c r="C264" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D264" s="26" t="s">
+      <c r="D264" s="32" t="s">
         <v>379</v>
       </c>
       <c r="E264" s="3">
@@ -11969,10 +12413,10 @@
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A265" s="38"/>
-      <c r="B265" s="27"/>
-      <c r="C265" s="27"/>
-      <c r="D265" s="27"/>
+      <c r="A265" s="49"/>
+      <c r="B265" s="33"/>
+      <c r="C265" s="33"/>
+      <c r="D265" s="33"/>
       <c r="E265" s="3">
         <v>2</v>
       </c>
@@ -11981,10 +12425,10 @@
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A266" s="38"/>
-      <c r="B266" s="28"/>
-      <c r="C266" s="28"/>
-      <c r="D266" s="28"/>
+      <c r="A266" s="49"/>
+      <c r="B266" s="34"/>
+      <c r="C266" s="34"/>
+      <c r="D266" s="34"/>
       <c r="E266" s="3">
         <v>3</v>
       </c>
@@ -11999,14 +12443,14 @@
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A267" s="38"/>
-      <c r="B267" s="26" t="s">
+      <c r="A267" s="49"/>
+      <c r="B267" s="32" t="s">
         <v>339</v>
       </c>
-      <c r="C267" s="26" t="s">
+      <c r="C267" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D267" s="26" t="s">
+      <c r="D267" s="32" t="s">
         <v>401</v>
       </c>
       <c r="E267" s="3">
@@ -12017,10 +12461,10 @@
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A268" s="38"/>
-      <c r="B268" s="27"/>
-      <c r="C268" s="27"/>
-      <c r="D268" s="27"/>
+      <c r="A268" s="49"/>
+      <c r="B268" s="33"/>
+      <c r="C268" s="33"/>
+      <c r="D268" s="33"/>
       <c r="E268" s="3">
         <v>2</v>
       </c>
@@ -12029,10 +12473,10 @@
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A269" s="38"/>
-      <c r="B269" s="28"/>
-      <c r="C269" s="28"/>
-      <c r="D269" s="28"/>
+      <c r="A269" s="49"/>
+      <c r="B269" s="34"/>
+      <c r="C269" s="34"/>
+      <c r="D269" s="34"/>
       <c r="E269" s="3">
         <v>3</v>
       </c>
@@ -12047,14 +12491,14 @@
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A270" s="38"/>
-      <c r="B270" s="31" t="s">
+      <c r="A270" s="49"/>
+      <c r="B270" s="35" t="s">
         <v>434</v>
       </c>
-      <c r="C270" s="26" t="s">
+      <c r="C270" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="D270" s="26" t="s">
+      <c r="D270" s="32" t="s">
         <v>395</v>
       </c>
       <c r="E270" s="2">
@@ -12065,10 +12509,10 @@
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A271" s="38"/>
-      <c r="B271" s="27"/>
-      <c r="C271" s="27"/>
-      <c r="D271" s="27"/>
+      <c r="A271" s="49"/>
+      <c r="B271" s="33"/>
+      <c r="C271" s="33"/>
+      <c r="D271" s="33"/>
       <c r="E271" s="2">
         <v>2</v>
       </c>
@@ -12077,10 +12521,10 @@
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A272" s="38"/>
-      <c r="B272" s="27"/>
-      <c r="C272" s="27"/>
-      <c r="D272" s="27"/>
+      <c r="A272" s="49"/>
+      <c r="B272" s="33"/>
+      <c r="C272" s="33"/>
+      <c r="D272" s="33"/>
       <c r="E272" s="2">
         <v>3</v>
       </c>
@@ -12092,10 +12536,10 @@
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A273" s="38"/>
-      <c r="B273" s="28"/>
-      <c r="C273" s="28"/>
-      <c r="D273" s="28"/>
+      <c r="A273" s="49"/>
+      <c r="B273" s="34"/>
+      <c r="C273" s="34"/>
+      <c r="D273" s="34"/>
       <c r="E273" s="2">
         <v>4</v>
       </c>
@@ -12107,14 +12551,14 @@
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A274" s="38"/>
-      <c r="B274" s="31" t="s">
+      <c r="A274" s="49"/>
+      <c r="B274" s="35" t="s">
         <v>435</v>
       </c>
-      <c r="C274" s="26" t="s">
+      <c r="C274" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="D274" s="26" t="s">
+      <c r="D274" s="32" t="s">
         <v>396</v>
       </c>
       <c r="E274" s="8">
@@ -12125,10 +12569,10 @@
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A275" s="38"/>
-      <c r="B275" s="27"/>
-      <c r="C275" s="27"/>
-      <c r="D275" s="27"/>
+      <c r="A275" s="49"/>
+      <c r="B275" s="33"/>
+      <c r="C275" s="33"/>
+      <c r="D275" s="33"/>
       <c r="E275" s="8">
         <v>2</v>
       </c>
@@ -12137,10 +12581,10 @@
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A276" s="38"/>
-      <c r="B276" s="27"/>
-      <c r="C276" s="27"/>
-      <c r="D276" s="27"/>
+      <c r="A276" s="49"/>
+      <c r="B276" s="33"/>
+      <c r="C276" s="33"/>
+      <c r="D276" s="33"/>
       <c r="E276" s="8">
         <v>3</v>
       </c>
@@ -12152,10 +12596,10 @@
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A277" s="38"/>
-      <c r="B277" s="28"/>
-      <c r="C277" s="28"/>
-      <c r="D277" s="28"/>
+      <c r="A277" s="49"/>
+      <c r="B277" s="34"/>
+      <c r="C277" s="34"/>
+      <c r="D277" s="34"/>
       <c r="E277" s="8">
         <v>4</v>
       </c>
@@ -12167,14 +12611,14 @@
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A278" s="38"/>
-      <c r="B278" s="31" t="s">
+      <c r="A278" s="49"/>
+      <c r="B278" s="35" t="s">
         <v>436</v>
       </c>
-      <c r="C278" s="26" t="s">
+      <c r="C278" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D278" s="26" t="s">
+      <c r="D278" s="32" t="s">
         <v>397</v>
       </c>
       <c r="E278" s="2">
@@ -12185,10 +12629,10 @@
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A279" s="38"/>
-      <c r="B279" s="27"/>
-      <c r="C279" s="27"/>
-      <c r="D279" s="27"/>
+      <c r="A279" s="49"/>
+      <c r="B279" s="33"/>
+      <c r="C279" s="33"/>
+      <c r="D279" s="33"/>
       <c r="E279" s="2">
         <v>2</v>
       </c>
@@ -12197,10 +12641,10 @@
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A280" s="38"/>
-      <c r="B280" s="27"/>
-      <c r="C280" s="27"/>
-      <c r="D280" s="27"/>
+      <c r="A280" s="49"/>
+      <c r="B280" s="33"/>
+      <c r="C280" s="33"/>
+      <c r="D280" s="33"/>
       <c r="E280" s="2">
         <v>3</v>
       </c>
@@ -12215,10 +12659,10 @@
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A281" s="38"/>
-      <c r="B281" s="27"/>
-      <c r="C281" s="27"/>
-      <c r="D281" s="27"/>
+      <c r="A281" s="49"/>
+      <c r="B281" s="33"/>
+      <c r="C281" s="33"/>
+      <c r="D281" s="33"/>
       <c r="E281" s="2">
         <v>4</v>
       </c>
@@ -12227,10 +12671,10 @@
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A282" s="38"/>
-      <c r="B282" s="28"/>
-      <c r="C282" s="28"/>
-      <c r="D282" s="28"/>
+      <c r="A282" s="49"/>
+      <c r="B282" s="34"/>
+      <c r="C282" s="34"/>
+      <c r="D282" s="34"/>
       <c r="E282" s="2">
         <v>5</v>
       </c>
@@ -12245,14 +12689,14 @@
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A283" s="38"/>
-      <c r="B283" s="31" t="s">
+      <c r="A283" s="49"/>
+      <c r="B283" s="35" t="s">
         <v>437</v>
       </c>
-      <c r="C283" s="26" t="s">
+      <c r="C283" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D283" s="26" t="s">
+      <c r="D283" s="32" t="s">
         <v>400</v>
       </c>
       <c r="E283" s="8">
@@ -12263,10 +12707,10 @@
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A284" s="38"/>
-      <c r="B284" s="27"/>
-      <c r="C284" s="27"/>
-      <c r="D284" s="27"/>
+      <c r="A284" s="49"/>
+      <c r="B284" s="33"/>
+      <c r="C284" s="33"/>
+      <c r="D284" s="33"/>
       <c r="E284" s="8">
         <v>2</v>
       </c>
@@ -12275,10 +12719,10 @@
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A285" s="38"/>
-      <c r="B285" s="27"/>
-      <c r="C285" s="27"/>
-      <c r="D285" s="27"/>
+      <c r="A285" s="49"/>
+      <c r="B285" s="33"/>
+      <c r="C285" s="33"/>
+      <c r="D285" s="33"/>
       <c r="E285" s="8">
         <v>3</v>
       </c>
@@ -12293,10 +12737,10 @@
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A286" s="38"/>
-      <c r="B286" s="27"/>
-      <c r="C286" s="27"/>
-      <c r="D286" s="27"/>
+      <c r="A286" s="49"/>
+      <c r="B286" s="33"/>
+      <c r="C286" s="33"/>
+      <c r="D286" s="33"/>
       <c r="E286" s="8">
         <v>4</v>
       </c>
@@ -12305,10 +12749,10 @@
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A287" s="54"/>
-      <c r="B287" s="28"/>
-      <c r="C287" s="28"/>
-      <c r="D287" s="28"/>
+      <c r="A287" s="56"/>
+      <c r="B287" s="34"/>
+      <c r="C287" s="34"/>
+      <c r="D287" s="34"/>
       <c r="E287" s="8">
         <v>5</v>
       </c>
@@ -12324,6 +12768,228 @@
     </row>
   </sheetData>
   <mergeCells count="246">
+    <mergeCell ref="C142:C144"/>
+    <mergeCell ref="D142:D144"/>
+    <mergeCell ref="B181:B183"/>
+    <mergeCell ref="C181:C183"/>
+    <mergeCell ref="D181:D183"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="B68:B71"/>
+    <mergeCell ref="D166:D168"/>
+    <mergeCell ref="D169:D171"/>
+    <mergeCell ref="D172:D174"/>
+    <mergeCell ref="D175:D177"/>
+    <mergeCell ref="C166:C168"/>
+    <mergeCell ref="C169:C171"/>
+    <mergeCell ref="C172:C174"/>
+    <mergeCell ref="C175:C177"/>
+    <mergeCell ref="C178:C180"/>
+    <mergeCell ref="D178:D180"/>
+    <mergeCell ref="B151:B180"/>
+    <mergeCell ref="D151:D153"/>
+    <mergeCell ref="D154:D156"/>
+    <mergeCell ref="D157:D159"/>
+    <mergeCell ref="D160:D162"/>
+    <mergeCell ref="B255:B257"/>
+    <mergeCell ref="C255:C257"/>
+    <mergeCell ref="D255:D257"/>
+    <mergeCell ref="B218:B221"/>
+    <mergeCell ref="C218:C221"/>
+    <mergeCell ref="D218:D221"/>
+    <mergeCell ref="B242:B246"/>
+    <mergeCell ref="C242:C246"/>
+    <mergeCell ref="D242:D246"/>
+    <mergeCell ref="B264:B266"/>
+    <mergeCell ref="C264:C266"/>
+    <mergeCell ref="D264:D266"/>
+    <mergeCell ref="B267:B269"/>
+    <mergeCell ref="C267:C269"/>
+    <mergeCell ref="D267:D269"/>
+    <mergeCell ref="B258:B260"/>
+    <mergeCell ref="C258:C260"/>
+    <mergeCell ref="D258:D260"/>
+    <mergeCell ref="B261:B263"/>
+    <mergeCell ref="C261:C263"/>
+    <mergeCell ref="D261:D263"/>
+    <mergeCell ref="D214:D217"/>
+    <mergeCell ref="B202:B205"/>
+    <mergeCell ref="C202:C205"/>
+    <mergeCell ref="D202:D205"/>
+    <mergeCell ref="B206:B209"/>
+    <mergeCell ref="C206:C209"/>
+    <mergeCell ref="D206:D209"/>
+    <mergeCell ref="D163:D165"/>
+    <mergeCell ref="C151:C153"/>
+    <mergeCell ref="C210:C213"/>
+    <mergeCell ref="C154:C156"/>
+    <mergeCell ref="C157:C159"/>
+    <mergeCell ref="B116:B119"/>
+    <mergeCell ref="C116:C119"/>
+    <mergeCell ref="D116:D119"/>
+    <mergeCell ref="B120:B123"/>
+    <mergeCell ref="C120:C123"/>
+    <mergeCell ref="D120:D123"/>
+    <mergeCell ref="B194:B197"/>
+    <mergeCell ref="C194:C197"/>
+    <mergeCell ref="D194:D197"/>
+    <mergeCell ref="B132:B135"/>
+    <mergeCell ref="C132:C135"/>
+    <mergeCell ref="D132:D135"/>
+    <mergeCell ref="B190:B193"/>
+    <mergeCell ref="C190:C193"/>
+    <mergeCell ref="D190:D193"/>
+    <mergeCell ref="C160:C162"/>
+    <mergeCell ref="C163:C165"/>
+    <mergeCell ref="B145:B147"/>
+    <mergeCell ref="C145:C147"/>
+    <mergeCell ref="D145:D147"/>
+    <mergeCell ref="B148:B150"/>
+    <mergeCell ref="C148:C150"/>
+    <mergeCell ref="D148:D150"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B97:B99"/>
+    <mergeCell ref="C97:C99"/>
+    <mergeCell ref="D97:D99"/>
+    <mergeCell ref="B222:B225"/>
+    <mergeCell ref="C222:C225"/>
+    <mergeCell ref="D222:D225"/>
+    <mergeCell ref="B226:B229"/>
+    <mergeCell ref="C226:C229"/>
+    <mergeCell ref="D226:D229"/>
+    <mergeCell ref="B106:B108"/>
+    <mergeCell ref="C106:C108"/>
+    <mergeCell ref="D106:D108"/>
+    <mergeCell ref="B109:B111"/>
+    <mergeCell ref="C109:C111"/>
+    <mergeCell ref="D109:D111"/>
+    <mergeCell ref="B112:B115"/>
+    <mergeCell ref="C112:C115"/>
+    <mergeCell ref="D112:D115"/>
+    <mergeCell ref="B124:B127"/>
+    <mergeCell ref="C124:C127"/>
+    <mergeCell ref="D124:D127"/>
+    <mergeCell ref="B128:B131"/>
+    <mergeCell ref="C128:C131"/>
+    <mergeCell ref="D128:D131"/>
+    <mergeCell ref="B46:B51"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="C88:C90"/>
+    <mergeCell ref="D88:D90"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="C91:C93"/>
+    <mergeCell ref="D91:D93"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="D82:D84"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="C85:C87"/>
+    <mergeCell ref="D85:D87"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="C68:F71"/>
+    <mergeCell ref="D139:D141"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="B270:B273"/>
+    <mergeCell ref="C270:C273"/>
+    <mergeCell ref="D270:D273"/>
+    <mergeCell ref="B274:B277"/>
+    <mergeCell ref="C274:C277"/>
+    <mergeCell ref="D274:D277"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="D76:D78"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="D79:D81"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="C100:C102"/>
+    <mergeCell ref="D100:D102"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="C103:C105"/>
+    <mergeCell ref="D103:D105"/>
+    <mergeCell ref="B94:B96"/>
+    <mergeCell ref="C94:C96"/>
+    <mergeCell ref="D94:D96"/>
+    <mergeCell ref="B247:B251"/>
+    <mergeCell ref="C247:C251"/>
+    <mergeCell ref="D247:D251"/>
+    <mergeCell ref="B252:B254"/>
+    <mergeCell ref="C252:C254"/>
+    <mergeCell ref="D252:D254"/>
+    <mergeCell ref="B136:B138"/>
+    <mergeCell ref="C136:C138"/>
+    <mergeCell ref="D136:D138"/>
+    <mergeCell ref="B139:B141"/>
+    <mergeCell ref="C139:C141"/>
+    <mergeCell ref="B238:B241"/>
+    <mergeCell ref="C238:C241"/>
+    <mergeCell ref="D238:D241"/>
+    <mergeCell ref="B230:B233"/>
+    <mergeCell ref="C230:C233"/>
+    <mergeCell ref="D230:D233"/>
+    <mergeCell ref="B234:B237"/>
+    <mergeCell ref="C234:C237"/>
+    <mergeCell ref="D234:D237"/>
+    <mergeCell ref="B198:B201"/>
+    <mergeCell ref="C198:C201"/>
+    <mergeCell ref="D198:D201"/>
+    <mergeCell ref="B210:B213"/>
+    <mergeCell ref="D210:D213"/>
+    <mergeCell ref="B214:B217"/>
+    <mergeCell ref="C214:C217"/>
     <mergeCell ref="A76:A189"/>
     <mergeCell ref="A12:A75"/>
     <mergeCell ref="A190:A287"/>
@@ -12348,228 +13014,6 @@
     <mergeCell ref="B283:B287"/>
     <mergeCell ref="C283:C287"/>
     <mergeCell ref="D283:D287"/>
-    <mergeCell ref="B252:B254"/>
-    <mergeCell ref="C252:C254"/>
-    <mergeCell ref="D252:D254"/>
-    <mergeCell ref="B136:B138"/>
-    <mergeCell ref="C136:C138"/>
-    <mergeCell ref="D136:D138"/>
-    <mergeCell ref="B139:B141"/>
-    <mergeCell ref="C139:C141"/>
-    <mergeCell ref="B238:B241"/>
-    <mergeCell ref="C238:C241"/>
-    <mergeCell ref="D238:D241"/>
-    <mergeCell ref="B230:B233"/>
-    <mergeCell ref="C230:C233"/>
-    <mergeCell ref="D230:D233"/>
-    <mergeCell ref="B234:B237"/>
-    <mergeCell ref="C234:C237"/>
-    <mergeCell ref="D234:D237"/>
-    <mergeCell ref="B198:B201"/>
-    <mergeCell ref="C198:C201"/>
-    <mergeCell ref="D198:D201"/>
-    <mergeCell ref="B210:B213"/>
-    <mergeCell ref="B270:B273"/>
-    <mergeCell ref="C270:C273"/>
-    <mergeCell ref="D270:D273"/>
-    <mergeCell ref="B274:B277"/>
-    <mergeCell ref="C274:C277"/>
-    <mergeCell ref="D274:D277"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="D76:D78"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="D79:D81"/>
-    <mergeCell ref="B100:B102"/>
-    <mergeCell ref="C100:C102"/>
-    <mergeCell ref="D100:D102"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="C103:C105"/>
-    <mergeCell ref="D103:D105"/>
-    <mergeCell ref="B94:B96"/>
-    <mergeCell ref="C94:C96"/>
-    <mergeCell ref="D94:D96"/>
-    <mergeCell ref="B247:B251"/>
-    <mergeCell ref="C247:C251"/>
-    <mergeCell ref="D247:D251"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="C68:F71"/>
-    <mergeCell ref="D139:D141"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="B46:B51"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="C88:C90"/>
-    <mergeCell ref="D88:D90"/>
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="C91:C93"/>
-    <mergeCell ref="D91:D93"/>
-    <mergeCell ref="B82:B84"/>
-    <mergeCell ref="C82:C84"/>
-    <mergeCell ref="D82:D84"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="C85:C87"/>
-    <mergeCell ref="D85:D87"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="C72:C75"/>
-    <mergeCell ref="D72:D75"/>
-    <mergeCell ref="B97:B99"/>
-    <mergeCell ref="C97:C99"/>
-    <mergeCell ref="D97:D99"/>
-    <mergeCell ref="B222:B225"/>
-    <mergeCell ref="C222:C225"/>
-    <mergeCell ref="D222:D225"/>
-    <mergeCell ref="B226:B229"/>
-    <mergeCell ref="C226:C229"/>
-    <mergeCell ref="D226:D229"/>
-    <mergeCell ref="B106:B108"/>
-    <mergeCell ref="C106:C108"/>
-    <mergeCell ref="D106:D108"/>
-    <mergeCell ref="B109:B111"/>
-    <mergeCell ref="C109:C111"/>
-    <mergeCell ref="D109:D111"/>
-    <mergeCell ref="B112:B115"/>
-    <mergeCell ref="C112:C115"/>
-    <mergeCell ref="D112:D115"/>
-    <mergeCell ref="B124:B127"/>
-    <mergeCell ref="C124:C127"/>
-    <mergeCell ref="D124:D127"/>
-    <mergeCell ref="B128:B131"/>
-    <mergeCell ref="C128:C131"/>
-    <mergeCell ref="D128:D131"/>
-    <mergeCell ref="B116:B119"/>
-    <mergeCell ref="C116:C119"/>
-    <mergeCell ref="D116:D119"/>
-    <mergeCell ref="B120:B123"/>
-    <mergeCell ref="C120:C123"/>
-    <mergeCell ref="D120:D123"/>
-    <mergeCell ref="B194:B197"/>
-    <mergeCell ref="C194:C197"/>
-    <mergeCell ref="D194:D197"/>
-    <mergeCell ref="B132:B135"/>
-    <mergeCell ref="C132:C135"/>
-    <mergeCell ref="D132:D135"/>
-    <mergeCell ref="B190:B193"/>
-    <mergeCell ref="C190:C193"/>
-    <mergeCell ref="D190:D193"/>
-    <mergeCell ref="C160:C162"/>
-    <mergeCell ref="C163:C165"/>
-    <mergeCell ref="B145:B147"/>
-    <mergeCell ref="C145:C147"/>
-    <mergeCell ref="D145:D147"/>
-    <mergeCell ref="B148:B150"/>
-    <mergeCell ref="C148:C150"/>
-    <mergeCell ref="D148:D150"/>
-    <mergeCell ref="B142:B144"/>
-    <mergeCell ref="D210:D213"/>
-    <mergeCell ref="B214:B217"/>
-    <mergeCell ref="C214:C217"/>
-    <mergeCell ref="D214:D217"/>
-    <mergeCell ref="B202:B205"/>
-    <mergeCell ref="C202:C205"/>
-    <mergeCell ref="D202:D205"/>
-    <mergeCell ref="B206:B209"/>
-    <mergeCell ref="C206:C209"/>
-    <mergeCell ref="D206:D209"/>
-    <mergeCell ref="D163:D165"/>
-    <mergeCell ref="C151:C153"/>
-    <mergeCell ref="B264:B266"/>
-    <mergeCell ref="C264:C266"/>
-    <mergeCell ref="D264:D266"/>
-    <mergeCell ref="B267:B269"/>
-    <mergeCell ref="C267:C269"/>
-    <mergeCell ref="D267:D269"/>
-    <mergeCell ref="B258:B260"/>
-    <mergeCell ref="C258:C260"/>
-    <mergeCell ref="D258:D260"/>
-    <mergeCell ref="B261:B263"/>
-    <mergeCell ref="C261:C263"/>
-    <mergeCell ref="D261:D263"/>
-    <mergeCell ref="B255:B257"/>
-    <mergeCell ref="C255:C257"/>
-    <mergeCell ref="D255:D257"/>
-    <mergeCell ref="B218:B221"/>
-    <mergeCell ref="C218:C221"/>
-    <mergeCell ref="D218:D221"/>
-    <mergeCell ref="B242:B246"/>
-    <mergeCell ref="C242:C246"/>
-    <mergeCell ref="D242:D246"/>
-    <mergeCell ref="C210:C213"/>
-    <mergeCell ref="C154:C156"/>
-    <mergeCell ref="C157:C159"/>
-    <mergeCell ref="C142:C144"/>
-    <mergeCell ref="D142:D144"/>
-    <mergeCell ref="B181:B183"/>
-    <mergeCell ref="C181:C183"/>
-    <mergeCell ref="D181:D183"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="B68:B71"/>
-    <mergeCell ref="D166:D168"/>
-    <mergeCell ref="D169:D171"/>
-    <mergeCell ref="D172:D174"/>
-    <mergeCell ref="D175:D177"/>
-    <mergeCell ref="C166:C168"/>
-    <mergeCell ref="C169:C171"/>
-    <mergeCell ref="C172:C174"/>
-    <mergeCell ref="C175:C177"/>
-    <mergeCell ref="C178:C180"/>
-    <mergeCell ref="D178:D180"/>
-    <mergeCell ref="B151:B180"/>
-    <mergeCell ref="D151:D153"/>
-    <mergeCell ref="D154:D156"/>
-    <mergeCell ref="D157:D159"/>
-    <mergeCell ref="D160:D162"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
